--- a/config_12.21/shoping_config_xiaomi.xlsx
+++ b/config_12.21/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2225">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7587,30 +7587,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>重阳礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>一键礼包类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","稀有宝箱*1","狂暴*1","子弹加速*1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>600000,1,1,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>86400,1,0</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7619,155 +7599,15 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"100万金币","稀有宝箱*2","狂暴*2","子弹加速*2",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>gift_bag</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1000000,2,2,2,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","稀有宝箱*3","狂暴*3","子弹加速*3",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,3,3,3,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"340万金币","稀有宝箱*6","狂暴*6","子弹加速*6","20万鱼币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3400000,6,6,6,200000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","稀有宝箱*1","狂暴*3","子弹加速*3",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,1,3,3,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"300万金币","稀有宝箱*1","狂暴*4","子弹加速*4",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000,1,4,4,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","稀有宝箱*2","狂暴*5","子弹加速*5",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,2,5,5,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"960万金币","稀有宝箱*4","狂暴*12","子弹加速*12","30万鱼币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>9600000,4,12,12,300000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","史诗宝箱*1","狂暴*5","子弹加速*5",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,1,5,5,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","史诗宝箱*2","狂暴*6","子弹加速*6",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,2,6,6,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","史诗宝箱*3","狂暴*7","子弹加速*7",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,3,7,7,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3440万金币","史诗宝箱*6","狂暴*18","子弹加速*18","100万鱼币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>34400000,6,18,18,1000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","传说宝箱*1","狂暴*8","子弹加速*8",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,1,8,8,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"1980万金币","传说宝箱*2","狂暴*9","子弹加速*9",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>19800000,2,9,9,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","传说宝箱*5","狂暴*10","子弹加速*10",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,5,10,10,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7940万金币","传说宝箱*8","狂暴*27","子弹加速*27","200万鱼币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>79400000,8,27,27,2000000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8609,6 +8449,206 @@
   </si>
   <si>
     <t>79400000,2630000,7,2000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键礼包类型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","稀有宝箱*1","狂暴*1","子弹加速*1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","稀有宝箱*2","狂暴*2","子弹加速*2",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,2,2,2,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","稀有宝箱*3","狂暴*3","子弹加速*3",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,3,3,3,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"340万金币","稀有宝箱*6","狂暴*6","子弹加速*6","20万鱼币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3400000,6,6,6,200000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","稀有宝箱*1","狂暴*3","子弹加速*3",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,3,3,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","稀有宝箱*1","狂暴*4","子弹加速*4",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,4,4,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","稀有宝箱*2","狂暴*5","子弹加速*5",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,2,5,5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"960万金币","稀有宝箱*4","狂暴*12","子弹加速*12","30万鱼币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9600000,4,12,12,300000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","史诗宝箱*1","狂暴*5","子弹加速*5",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,5,5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","史诗宝箱*2","狂暴*6","子弹加速*6",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,2,6,6,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","史诗宝箱*3","狂暴*7","子弹加速*7",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,3,7,7,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3440万金币","史诗宝箱*6","狂暴*18","子弹加速*18","100万鱼币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>34400000,6,18,18,1000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","传说宝箱*1","狂暴*8","子弹加速*8",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,8,8,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","传说宝箱*5","狂暴*10","子弹加速*10",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,5,10,10,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7940万金币","传说宝箱*8","狂暴*27","子弹加速*27","200万鱼币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>79400000,8,27,27,2000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -9112,10 +9152,10 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11635,10 +11675,10 @@
   <dimension ref="A1:AIG788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X767" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X695" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X791" sqref="X791"/>
+      <selection pane="bottomRight" activeCell="A709" sqref="A709:XFD724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -62985,855 +63025,855 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="91">
+    <row r="671" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A671" s="90">
         <v>670</v>
       </c>
-      <c r="B671" s="91">
+      <c r="B671" s="90">
         <v>10587</v>
       </c>
-      <c r="F671" s="91">
-        <v>1</v>
-      </c>
-      <c r="G671" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H671" s="91" t="s">
+      <c r="F671" s="90">
+        <v>1</v>
+      </c>
+      <c r="G671" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H671" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J671" s="91" t="s">
+      <c r="J671" s="90" t="s">
         <v>1547</v>
       </c>
-      <c r="K671" s="91" t="s">
-        <v>2132</v>
-      </c>
-      <c r="M671" s="91">
+      <c r="K671" s="90" t="s">
+        <v>2092</v>
+      </c>
+      <c r="M671" s="90">
         <v>-31</v>
       </c>
-      <c r="N671" s="91">
-        <v>0</v>
-      </c>
-      <c r="O671" s="91">
-        <v>0</v>
-      </c>
-      <c r="P671" s="91" t="s">
+      <c r="N671" s="90">
+        <v>0</v>
+      </c>
+      <c r="O671" s="90">
+        <v>0</v>
+      </c>
+      <c r="P671" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q671" s="91">
+      <c r="Q671" s="90">
         <v>600</v>
       </c>
-      <c r="R671" s="91" t="s">
-        <v>2133</v>
+      <c r="R671" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S671" s="74" t="s">
         <v>1569</v>
       </c>
-      <c r="X671" s="91" t="s">
+      <c r="X671" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y671" s="91">
+      <c r="Y671" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z671" s="91">
+      <c r="Z671" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA671" s="91">
+      <c r="AA671" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB671" s="91">
+      <c r="AB671" s="90">
         <v>76</v>
       </c>
-      <c r="AI671" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ671" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM671" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN671" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="672" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A672" s="91">
+      <c r="AI671" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ671" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN671" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A672" s="90">
         <v>671</v>
       </c>
-      <c r="B672" s="91">
+      <c r="B672" s="90">
         <v>10588</v>
       </c>
-      <c r="F672" s="91">
-        <v>1</v>
-      </c>
-      <c r="G672" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H672" s="91" t="s">
+      <c r="F672" s="90">
+        <v>1</v>
+      </c>
+      <c r="G672" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H672" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J672" s="91" t="s">
+      <c r="J672" s="90" t="s">
         <v>1547</v>
       </c>
-      <c r="K672" s="91" t="s">
-        <v>2134</v>
-      </c>
-      <c r="M672" s="91">
+      <c r="K672" s="90" t="s">
+        <v>2094</v>
+      </c>
+      <c r="M672" s="90">
         <v>-31</v>
       </c>
-      <c r="N672" s="91">
-        <v>0</v>
-      </c>
-      <c r="O672" s="91">
-        <v>0</v>
-      </c>
-      <c r="P672" s="91" t="s">
+      <c r="N672" s="90">
+        <v>0</v>
+      </c>
+      <c r="O672" s="90">
+        <v>0</v>
+      </c>
+      <c r="P672" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q672" s="91">
+      <c r="Q672" s="90">
         <v>1000</v>
       </c>
-      <c r="R672" s="91" t="s">
-        <v>2133</v>
+      <c r="R672" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S672" s="74" t="s">
         <v>1571</v>
       </c>
-      <c r="X672" s="91" t="s">
+      <c r="X672" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y672" s="91">
+      <c r="Y672" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z672" s="91">
+      <c r="Z672" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA672" s="91">
+      <c r="AA672" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB672" s="91">
+      <c r="AB672" s="90">
         <v>76</v>
       </c>
-      <c r="AI672" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ672" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM672" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN672" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A673" s="91">
+      <c r="AI672" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ672" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN672" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A673" s="90">
         <v>672</v>
       </c>
-      <c r="B673" s="91">
+      <c r="B673" s="90">
         <v>10589</v>
       </c>
-      <c r="F673" s="91">
-        <v>1</v>
-      </c>
-      <c r="G673" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H673" s="91" t="s">
+      <c r="F673" s="90">
+        <v>1</v>
+      </c>
+      <c r="G673" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H673" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J673" s="91" t="s">
+      <c r="J673" s="90" t="s">
         <v>1547</v>
       </c>
-      <c r="K673" s="91" t="s">
-        <v>2135</v>
-      </c>
-      <c r="M673" s="91">
+      <c r="K673" s="90" t="s">
+        <v>2095</v>
+      </c>
+      <c r="M673" s="90">
         <v>-31</v>
       </c>
-      <c r="N673" s="91">
-        <v>0</v>
-      </c>
-      <c r="O673" s="91">
-        <v>0</v>
-      </c>
-      <c r="P673" s="91" t="s">
+      <c r="N673" s="90">
+        <v>0</v>
+      </c>
+      <c r="O673" s="90">
+        <v>0</v>
+      </c>
+      <c r="P673" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q673" s="91">
+      <c r="Q673" s="90">
         <v>1800</v>
       </c>
-      <c r="R673" s="91" t="s">
-        <v>2133</v>
+      <c r="R673" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S673" s="74" t="s">
         <v>1573</v>
       </c>
-      <c r="X673" s="91" t="s">
+      <c r="X673" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y673" s="91">
+      <c r="Y673" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z673" s="91">
+      <c r="Z673" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA673" s="91">
+      <c r="AA673" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB673" s="91">
+      <c r="AB673" s="90">
         <v>76</v>
       </c>
-      <c r="AI673" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ673" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM673" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN673" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A674" s="91">
+      <c r="AI673" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ673" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN673" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A674" s="90">
         <v>673</v>
       </c>
-      <c r="B674" s="91">
+      <c r="B674" s="90">
         <v>10590</v>
       </c>
-      <c r="F674" s="91">
-        <v>1</v>
-      </c>
-      <c r="G674" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H674" s="91" t="s">
+      <c r="F674" s="90">
+        <v>1</v>
+      </c>
+      <c r="G674" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H674" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J674" s="91" t="s">
+      <c r="J674" s="90" t="s">
         <v>1554</v>
       </c>
-      <c r="K674" s="91" t="s">
+      <c r="K674" s="90" t="s">
         <v>1555</v>
       </c>
-      <c r="M674" s="91">
+      <c r="M674" s="90">
         <v>-31</v>
       </c>
-      <c r="N674" s="91">
-        <v>0</v>
-      </c>
-      <c r="O674" s="91">
-        <v>0</v>
-      </c>
-      <c r="P674" s="91" t="s">
+      <c r="N674" s="90">
+        <v>0</v>
+      </c>
+      <c r="O674" s="90">
+        <v>0</v>
+      </c>
+      <c r="P674" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q674" s="91">
+      <c r="Q674" s="90">
         <v>1800</v>
       </c>
-      <c r="R674" s="91" t="s">
-        <v>2133</v>
+      <c r="R674" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S674" s="74" t="s">
         <v>1556</v>
       </c>
-      <c r="X674" s="91" t="s">
+      <c r="X674" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y674" s="91">
+      <c r="Y674" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z674" s="91">
+      <c r="Z674" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA674" s="91">
+      <c r="AA674" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB674" s="91">
+      <c r="AB674" s="90">
         <v>77</v>
       </c>
-      <c r="AI674" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ674" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM674" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN674" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A675" s="91">
+      <c r="AI674" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ674" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN674" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A675" s="90">
         <v>674</v>
       </c>
-      <c r="B675" s="91">
+      <c r="B675" s="90">
         <v>10591</v>
       </c>
-      <c r="F675" s="91">
-        <v>1</v>
-      </c>
-      <c r="G675" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H675" s="91" t="s">
+      <c r="F675" s="90">
+        <v>1</v>
+      </c>
+      <c r="G675" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H675" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J675" s="91" t="s">
+      <c r="J675" s="90" t="s">
         <v>1554</v>
       </c>
-      <c r="K675" s="91" t="s">
+      <c r="K675" s="90" t="s">
         <v>1557</v>
       </c>
-      <c r="M675" s="91">
+      <c r="M675" s="90">
         <v>-31</v>
       </c>
-      <c r="N675" s="91">
-        <v>0</v>
-      </c>
-      <c r="O675" s="91">
-        <v>0</v>
-      </c>
-      <c r="P675" s="91" t="s">
+      <c r="N675" s="90">
+        <v>0</v>
+      </c>
+      <c r="O675" s="90">
+        <v>0</v>
+      </c>
+      <c r="P675" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q675" s="91">
+      <c r="Q675" s="90">
         <v>3000</v>
       </c>
-      <c r="R675" s="91" t="s">
-        <v>2133</v>
+      <c r="R675" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S675" s="74" t="s">
         <v>1558</v>
       </c>
-      <c r="X675" s="91" t="s">
+      <c r="X675" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y675" s="91">
+      <c r="Y675" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z675" s="91">
+      <c r="Z675" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA675" s="91">
+      <c r="AA675" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB675" s="91">
+      <c r="AB675" s="90">
         <v>77</v>
       </c>
-      <c r="AI675" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ675" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM675" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN675" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A676" s="91">
+      <c r="AI675" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ675" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN675" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A676" s="90">
         <v>675</v>
       </c>
-      <c r="B676" s="91">
+      <c r="B676" s="90">
         <v>10592</v>
       </c>
-      <c r="F676" s="91">
-        <v>1</v>
-      </c>
-      <c r="G676" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H676" s="91" t="s">
+      <c r="F676" s="90">
+        <v>1</v>
+      </c>
+      <c r="G676" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H676" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J676" s="91" t="s">
+      <c r="J676" s="90" t="s">
         <v>1554</v>
       </c>
-      <c r="K676" s="91" t="s">
+      <c r="K676" s="90" t="s">
         <v>1559</v>
       </c>
-      <c r="M676" s="91">
+      <c r="M676" s="90">
         <v>-31</v>
       </c>
-      <c r="N676" s="91">
-        <v>0</v>
-      </c>
-      <c r="O676" s="91">
-        <v>0</v>
-      </c>
-      <c r="P676" s="91" t="s">
+      <c r="N676" s="90">
+        <v>0</v>
+      </c>
+      <c r="O676" s="90">
+        <v>0</v>
+      </c>
+      <c r="P676" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q676" s="91">
+      <c r="Q676" s="90">
         <v>4800</v>
       </c>
-      <c r="R676" s="91" t="s">
-        <v>2133</v>
+      <c r="R676" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S676" s="74" t="s">
         <v>1560</v>
       </c>
-      <c r="X676" s="91" t="s">
+      <c r="X676" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y676" s="91">
+      <c r="Y676" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z676" s="91">
+      <c r="Z676" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA676" s="91">
+      <c r="AA676" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB676" s="91">
+      <c r="AB676" s="90">
         <v>77</v>
       </c>
-      <c r="AI676" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ676" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM676" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN676" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A677" s="91">
+      <c r="AI676" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ676" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN676" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A677" s="90">
         <v>676</v>
       </c>
-      <c r="B677" s="91">
+      <c r="B677" s="90">
         <v>10593</v>
       </c>
-      <c r="F677" s="91">
-        <v>1</v>
-      </c>
-      <c r="G677" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H677" s="91" t="s">
+      <c r="F677" s="90">
+        <v>1</v>
+      </c>
+      <c r="G677" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H677" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J677" s="91" t="s">
+      <c r="J677" s="90" t="s">
         <v>1561</v>
       </c>
-      <c r="K677" s="91" t="s">
+      <c r="K677" s="90" t="s">
         <v>1559</v>
       </c>
-      <c r="M677" s="91">
+      <c r="M677" s="90">
         <v>-31</v>
       </c>
-      <c r="N677" s="91">
-        <v>0</v>
-      </c>
-      <c r="O677" s="91">
-        <v>0</v>
-      </c>
-      <c r="P677" s="91" t="s">
+      <c r="N677" s="90">
+        <v>0</v>
+      </c>
+      <c r="O677" s="90">
+        <v>0</v>
+      </c>
+      <c r="P677" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q677" s="91">
+      <c r="Q677" s="90">
         <v>4800</v>
       </c>
-      <c r="R677" s="91" t="s">
-        <v>2133</v>
+      <c r="R677" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S677" s="74" t="s">
         <v>1560</v>
       </c>
-      <c r="X677" s="91" t="s">
+      <c r="X677" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y677" s="91">
+      <c r="Y677" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z677" s="91">
+      <c r="Z677" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA677" s="91">
+      <c r="AA677" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB677" s="91">
+      <c r="AB677" s="90">
         <v>78</v>
       </c>
-      <c r="AI677" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ677" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM677" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN677" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A678" s="91">
+      <c r="AI677" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ677" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN677" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A678" s="90">
         <v>677</v>
       </c>
-      <c r="B678" s="91">
+      <c r="B678" s="90">
         <v>10594</v>
       </c>
-      <c r="F678" s="91">
-        <v>1</v>
-      </c>
-      <c r="G678" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H678" s="91" t="s">
+      <c r="F678" s="90">
+        <v>1</v>
+      </c>
+      <c r="G678" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H678" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J678" s="91" t="s">
+      <c r="J678" s="90" t="s">
         <v>1561</v>
       </c>
-      <c r="K678" s="91" t="s">
+      <c r="K678" s="90" t="s">
         <v>1562</v>
       </c>
-      <c r="M678" s="91">
+      <c r="M678" s="90">
         <v>-31</v>
       </c>
-      <c r="N678" s="91">
-        <v>0</v>
-      </c>
-      <c r="O678" s="91">
-        <v>0</v>
-      </c>
-      <c r="P678" s="91" t="s">
+      <c r="N678" s="90">
+        <v>0</v>
+      </c>
+      <c r="O678" s="90">
+        <v>0</v>
+      </c>
+      <c r="P678" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q678" s="91">
+      <c r="Q678" s="90">
         <v>9800</v>
       </c>
-      <c r="R678" s="91" t="s">
-        <v>2133</v>
+      <c r="R678" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S678" s="74" t="s">
         <v>1563</v>
       </c>
-      <c r="X678" s="91" t="s">
+      <c r="X678" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y678" s="91">
+      <c r="Y678" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z678" s="91">
+      <c r="Z678" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA678" s="91">
+      <c r="AA678" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB678" s="91">
+      <c r="AB678" s="90">
         <v>78</v>
       </c>
-      <c r="AI678" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ678" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM678" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN678" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A679" s="91">
+      <c r="AI678" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ678" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN678" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A679" s="90">
         <v>678</v>
       </c>
-      <c r="B679" s="91">
+      <c r="B679" s="90">
         <v>10595</v>
       </c>
-      <c r="F679" s="91">
-        <v>1</v>
-      </c>
-      <c r="G679" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H679" s="91" t="s">
+      <c r="F679" s="90">
+        <v>1</v>
+      </c>
+      <c r="G679" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H679" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J679" s="91" t="s">
+      <c r="J679" s="90" t="s">
         <v>1561</v>
       </c>
-      <c r="K679" s="91" t="s">
+      <c r="K679" s="90" t="s">
         <v>1564</v>
       </c>
-      <c r="M679" s="91">
+      <c r="M679" s="90">
         <v>-31</v>
       </c>
-      <c r="N679" s="91">
-        <v>0</v>
-      </c>
-      <c r="O679" s="91">
-        <v>0</v>
-      </c>
-      <c r="P679" s="91" t="s">
+      <c r="N679" s="90">
+        <v>0</v>
+      </c>
+      <c r="O679" s="90">
+        <v>0</v>
+      </c>
+      <c r="P679" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q679" s="91">
+      <c r="Q679" s="90">
         <v>19800</v>
       </c>
-      <c r="R679" s="91" t="s">
-        <v>2133</v>
+      <c r="R679" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S679" s="74" t="s">
         <v>1565</v>
       </c>
-      <c r="X679" s="91" t="s">
+      <c r="X679" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y679" s="91">
+      <c r="Y679" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z679" s="91">
+      <c r="Z679" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA679" s="91">
+      <c r="AA679" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB679" s="91">
+      <c r="AB679" s="90">
         <v>78</v>
       </c>
-      <c r="AI679" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ679" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM679" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN679" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="680" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A680" s="91">
+      <c r="AI679" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ679" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN679" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A680" s="90">
         <v>679</v>
       </c>
-      <c r="B680" s="91">
+      <c r="B680" s="90">
         <v>10596</v>
       </c>
-      <c r="F680" s="91">
-        <v>1</v>
-      </c>
-      <c r="G680" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H680" s="91" t="s">
+      <c r="F680" s="90">
+        <v>1</v>
+      </c>
+      <c r="G680" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H680" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J680" s="91" t="s">
+      <c r="J680" s="90" t="s">
         <v>1450</v>
       </c>
-      <c r="K680" s="91" t="s">
+      <c r="K680" s="90" t="s">
         <v>1562</v>
       </c>
-      <c r="M680" s="91">
+      <c r="M680" s="90">
         <v>-31</v>
       </c>
-      <c r="N680" s="91">
-        <v>0</v>
-      </c>
-      <c r="O680" s="91">
-        <v>0</v>
-      </c>
-      <c r="P680" s="91" t="s">
+      <c r="N680" s="90">
+        <v>0</v>
+      </c>
+      <c r="O680" s="90">
+        <v>0</v>
+      </c>
+      <c r="P680" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q680" s="91">
+      <c r="Q680" s="90">
         <v>9800</v>
       </c>
-      <c r="R680" s="91" t="s">
-        <v>2133</v>
+      <c r="R680" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S680" s="74" t="s">
         <v>1563</v>
       </c>
-      <c r="X680" s="91" t="s">
+      <c r="X680" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y680" s="91">
+      <c r="Y680" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z680" s="91">
+      <c r="Z680" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA680" s="91">
+      <c r="AA680" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB680" s="91">
+      <c r="AB680" s="90">
         <v>79</v>
       </c>
-      <c r="AI680" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ680" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM680" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN680" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="681" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A681" s="91">
+      <c r="AI680" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ680" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN680" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="90">
         <v>680</v>
       </c>
-      <c r="B681" s="91">
+      <c r="B681" s="90">
         <v>10597</v>
       </c>
-      <c r="F681" s="91">
-        <v>1</v>
-      </c>
-      <c r="G681" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H681" s="91" t="s">
+      <c r="F681" s="90">
+        <v>1</v>
+      </c>
+      <c r="G681" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H681" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J681" s="91" t="s">
+      <c r="J681" s="90" t="s">
         <v>1450</v>
       </c>
-      <c r="K681" s="91" t="s">
+      <c r="K681" s="90" t="s">
         <v>1564</v>
       </c>
-      <c r="M681" s="91">
+      <c r="M681" s="90">
         <v>-31</v>
       </c>
-      <c r="N681" s="91">
-        <v>0</v>
-      </c>
-      <c r="O681" s="91">
-        <v>0</v>
-      </c>
-      <c r="P681" s="91" t="s">
+      <c r="N681" s="90">
+        <v>0</v>
+      </c>
+      <c r="O681" s="90">
+        <v>0</v>
+      </c>
+      <c r="P681" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q681" s="91">
+      <c r="Q681" s="90">
         <v>19800</v>
       </c>
-      <c r="R681" s="91" t="s">
-        <v>2133</v>
+      <c r="R681" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S681" s="74" t="s">
         <v>1565</v>
       </c>
-      <c r="X681" s="91" t="s">
+      <c r="X681" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y681" s="91">
+      <c r="Y681" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z681" s="91">
+      <c r="Z681" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA681" s="91">
+      <c r="AA681" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB681" s="91">
+      <c r="AB681" s="90">
         <v>79</v>
       </c>
-      <c r="AI681" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ681" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM681" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN681" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="682" spans="1:40" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="91">
+      <c r="AI681" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ681" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN681" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:40" s="90" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="90">
         <v>681</v>
       </c>
-      <c r="B682" s="91">
+      <c r="B682" s="90">
         <v>10598</v>
       </c>
-      <c r="F682" s="91">
-        <v>1</v>
-      </c>
-      <c r="G682" s="91" t="s">
-        <v>2170</v>
-      </c>
-      <c r="H682" s="91" t="s">
+      <c r="F682" s="90">
+        <v>1</v>
+      </c>
+      <c r="G682" s="90" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H682" s="90" t="s">
         <v>1892</v>
       </c>
-      <c r="J682" s="91" t="s">
+      <c r="J682" s="90" t="s">
         <v>1450</v>
       </c>
-      <c r="K682" s="91" t="s">
+      <c r="K682" s="90" t="s">
         <v>1566</v>
       </c>
-      <c r="M682" s="91">
+      <c r="M682" s="90">
         <v>-31</v>
       </c>
-      <c r="N682" s="91">
-        <v>0</v>
-      </c>
-      <c r="O682" s="91">
-        <v>0</v>
-      </c>
-      <c r="P682" s="91" t="s">
+      <c r="N682" s="90">
+        <v>0</v>
+      </c>
+      <c r="O682" s="90">
+        <v>0</v>
+      </c>
+      <c r="P682" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="Q682" s="91">
+      <c r="Q682" s="90">
         <v>49800</v>
       </c>
-      <c r="R682" s="91" t="s">
-        <v>2133</v>
+      <c r="R682" s="90" t="s">
+        <v>2093</v>
       </c>
       <c r="S682" s="74" t="s">
         <v>1567</v>
       </c>
-      <c r="X682" s="91" t="s">
+      <c r="X682" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="Y682" s="91">
+      <c r="Y682" s="90">
         <v>99999999</v>
       </c>
-      <c r="Z682" s="91">
+      <c r="Z682" s="90">
         <v>1638835200</v>
       </c>
-      <c r="AA682" s="91">
+      <c r="AA682" s="90">
         <v>1639411199</v>
       </c>
-      <c r="AB682" s="91">
+      <c r="AB682" s="90">
         <v>79</v>
       </c>
-      <c r="AI682" s="91">
-        <v>1</v>
-      </c>
-      <c r="AJ682" s="91">
-        <v>1</v>
-      </c>
-      <c r="AM682" s="91">
-        <v>1</v>
-      </c>
-      <c r="AN682" s="91">
+      <c r="AI682" s="90">
+        <v>1</v>
+      </c>
+      <c r="AJ682" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="90">
+        <v>1</v>
+      </c>
+      <c r="AN682" s="90">
         <v>1</v>
       </c>
     </row>
@@ -65617,1109 +65657,1109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A709" s="87">
+    <row r="709" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A709" s="92">
         <v>708</v>
       </c>
-      <c r="B709" s="87">
+      <c r="B709" s="92">
         <v>10625</v>
       </c>
-      <c r="F709" s="87">
-        <v>1</v>
-      </c>
-      <c r="G709" s="87" t="s">
-        <v>1962</v>
+      <c r="F709" s="92">
+        <v>1</v>
+      </c>
+      <c r="G709" s="92" t="s">
+        <v>177</v>
       </c>
       <c r="H709" s="93" t="s">
-        <v>1963</v>
-      </c>
-      <c r="J709" s="87" t="s">
+        <v>2175</v>
+      </c>
+      <c r="J709" s="92" t="s">
         <v>1547</v>
       </c>
-      <c r="K709" s="87" t="s">
-        <v>1964</v>
-      </c>
-      <c r="M709" s="87">
+      <c r="K709" s="92" t="s">
+        <v>2176</v>
+      </c>
+      <c r="M709" s="92">
         <v>-31</v>
       </c>
-      <c r="N709" s="87">
-        <v>0</v>
-      </c>
-      <c r="O709" s="87">
-        <v>0</v>
-      </c>
-      <c r="P709" s="87" t="s">
-        <v>1959</v>
-      </c>
-      <c r="Q709" s="87">
+      <c r="N709" s="92">
+        <v>0</v>
+      </c>
+      <c r="O709" s="92">
+        <v>0</v>
+      </c>
+      <c r="P709" s="92" t="s">
+        <v>2177</v>
+      </c>
+      <c r="Q709" s="92">
         <v>600</v>
       </c>
-      <c r="R709" s="87" t="s">
+      <c r="R709" s="92" t="s">
+        <v>2178</v>
+      </c>
+      <c r="S709" s="74" t="s">
+        <v>2179</v>
+      </c>
+      <c r="X709" s="92" t="s">
+        <v>2180</v>
+      </c>
+      <c r="Y709" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z709" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA709" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB709" s="92">
+        <v>80</v>
+      </c>
+      <c r="AI709" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ709" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM709" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN709" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A710" s="92">
+        <v>709</v>
+      </c>
+      <c r="B710" s="92">
+        <v>10626</v>
+      </c>
+      <c r="F710" s="92">
+        <v>1</v>
+      </c>
+      <c r="G710" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H710" s="93"/>
+      <c r="J710" s="92" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K710" s="92" t="s">
+        <v>2181</v>
+      </c>
+      <c r="M710" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N710" s="92">
+        <v>0</v>
+      </c>
+      <c r="O710" s="92">
+        <v>0</v>
+      </c>
+      <c r="P710" s="92" t="s">
+        <v>1864</v>
+      </c>
+      <c r="Q710" s="92">
+        <v>1000</v>
+      </c>
+      <c r="R710" s="92" t="s">
+        <v>2178</v>
+      </c>
+      <c r="S710" s="74" t="s">
+        <v>2182</v>
+      </c>
+      <c r="X710" s="92" t="s">
+        <v>2183</v>
+      </c>
+      <c r="Y710" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z710" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA710" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB710" s="92">
+        <v>80</v>
+      </c>
+      <c r="AI710" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ710" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM710" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN710" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A711" s="92">
+        <v>710</v>
+      </c>
+      <c r="B711" s="92">
+        <v>10627</v>
+      </c>
+      <c r="F711" s="92">
+        <v>1</v>
+      </c>
+      <c r="G711" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H711" s="93"/>
+      <c r="J711" s="92" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K711" s="92" t="s">
+        <v>2184</v>
+      </c>
+      <c r="M711" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N711" s="92">
+        <v>0</v>
+      </c>
+      <c r="O711" s="92">
+        <v>0</v>
+      </c>
+      <c r="P711" s="92" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Q711" s="92">
+        <v>1800</v>
+      </c>
+      <c r="R711" s="92" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S711" s="74" t="s">
+        <v>2186</v>
+      </c>
+      <c r="X711" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y711" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z711" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA711" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB711" s="92">
+        <v>80</v>
+      </c>
+      <c r="AI711" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ711" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM711" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN711" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A712" s="92">
+        <v>711</v>
+      </c>
+      <c r="B712" s="92">
+        <v>10628</v>
+      </c>
+      <c r="F712" s="92">
+        <v>1</v>
+      </c>
+      <c r="G712" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H712" s="93"/>
+      <c r="J712" s="92" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K712" s="92" t="s">
+        <v>2187</v>
+      </c>
+      <c r="M712" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N712" s="92">
+        <v>0</v>
+      </c>
+      <c r="O712" s="92">
+        <v>0</v>
+      </c>
+      <c r="P712" s="92" t="s">
+        <v>1864</v>
+      </c>
+      <c r="Q712" s="92">
+        <v>3400</v>
+      </c>
+      <c r="R712" s="92" t="s">
+        <v>2188</v>
+      </c>
+      <c r="S712" s="74" t="s">
+        <v>2189</v>
+      </c>
+      <c r="X712" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y712" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z712" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA712" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB712" s="92">
+        <v>80</v>
+      </c>
+      <c r="AI712" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ712" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM712" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN712" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A713" s="92">
+        <v>712</v>
+      </c>
+      <c r="B713" s="92">
+        <v>10629</v>
+      </c>
+      <c r="F713" s="92">
+        <v>1</v>
+      </c>
+      <c r="G713" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H713" s="93"/>
+      <c r="J713" s="92" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K713" s="92" t="s">
+        <v>2190</v>
+      </c>
+      <c r="M713" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N713" s="92">
+        <v>0</v>
+      </c>
+      <c r="O713" s="92">
+        <v>0</v>
+      </c>
+      <c r="P713" s="92" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Q713" s="92">
+        <v>1800</v>
+      </c>
+      <c r="R713" s="92" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S713" s="74" t="s">
+        <v>2192</v>
+      </c>
+      <c r="X713" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y713" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z713" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA713" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB713" s="92">
+        <v>81</v>
+      </c>
+      <c r="AI713" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ713" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM713" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN713" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A714" s="92">
+        <v>713</v>
+      </c>
+      <c r="B714" s="92">
+        <v>10630</v>
+      </c>
+      <c r="F714" s="92">
+        <v>1</v>
+      </c>
+      <c r="G714" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H714" s="93"/>
+      <c r="J714" s="92" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K714" s="92" t="s">
+        <v>2193</v>
+      </c>
+      <c r="M714" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N714" s="92">
+        <v>0</v>
+      </c>
+      <c r="O714" s="92">
+        <v>0</v>
+      </c>
+      <c r="P714" s="92" t="s">
+        <v>2177</v>
+      </c>
+      <c r="Q714" s="92">
+        <v>3000</v>
+      </c>
+      <c r="R714" s="92" t="s">
+        <v>2194</v>
+      </c>
+      <c r="S714" s="74" t="s">
+        <v>2195</v>
+      </c>
+      <c r="X714" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y714" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z714" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA714" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB714" s="92">
+        <v>81</v>
+      </c>
+      <c r="AI714" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ714" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM714" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN714" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A715" s="92">
+        <v>714</v>
+      </c>
+      <c r="B715" s="92">
+        <v>10631</v>
+      </c>
+      <c r="F715" s="92">
+        <v>1</v>
+      </c>
+      <c r="G715" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H715" s="93"/>
+      <c r="J715" s="92" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K715" s="92" t="s">
+        <v>2196</v>
+      </c>
+      <c r="M715" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N715" s="92">
+        <v>0</v>
+      </c>
+      <c r="O715" s="92">
+        <v>0</v>
+      </c>
+      <c r="P715" s="92" t="s">
+        <v>2177</v>
+      </c>
+      <c r="Q715" s="92">
+        <v>4800</v>
+      </c>
+      <c r="R715" s="92" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S715" s="74" t="s">
+        <v>2197</v>
+      </c>
+      <c r="X715" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y715" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z715" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA715" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB715" s="92">
+        <v>81</v>
+      </c>
+      <c r="AI715" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ715" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM715" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN715" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A716" s="92">
+        <v>715</v>
+      </c>
+      <c r="B716" s="92">
+        <v>10632</v>
+      </c>
+      <c r="F716" s="92">
+        <v>1</v>
+      </c>
+      <c r="G716" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H716" s="93"/>
+      <c r="J716" s="92" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K716" s="92" t="s">
+        <v>2198</v>
+      </c>
+      <c r="M716" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N716" s="92">
+        <v>0</v>
+      </c>
+      <c r="O716" s="92">
+        <v>0</v>
+      </c>
+      <c r="P716" s="92" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Q716" s="92">
+        <v>9600</v>
+      </c>
+      <c r="R716" s="92" t="s">
+        <v>2199</v>
+      </c>
+      <c r="S716" s="74" t="s">
+        <v>2200</v>
+      </c>
+      <c r="X716" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y716" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z716" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA716" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB716" s="92">
+        <v>81</v>
+      </c>
+      <c r="AI716" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ716" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM716" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN716" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A717" s="92">
+        <v>716</v>
+      </c>
+      <c r="B717" s="92">
+        <v>10633</v>
+      </c>
+      <c r="F717" s="92">
+        <v>1</v>
+      </c>
+      <c r="G717" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H717" s="93"/>
+      <c r="J717" s="92" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K717" s="92" t="s">
+        <v>2201</v>
+      </c>
+      <c r="M717" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N717" s="92">
+        <v>0</v>
+      </c>
+      <c r="O717" s="92">
+        <v>0</v>
+      </c>
+      <c r="P717" s="92" t="s">
+        <v>2202</v>
+      </c>
+      <c r="Q717" s="92">
+        <v>4800</v>
+      </c>
+      <c r="R717" s="92" t="s">
+        <v>2203</v>
+      </c>
+      <c r="S717" s="74" t="s">
+        <v>2204</v>
+      </c>
+      <c r="X717" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y717" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z717" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA717" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB717" s="92">
+        <v>82</v>
+      </c>
+      <c r="AI717" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ717" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM717" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN717" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A718" s="92">
+        <v>717</v>
+      </c>
+      <c r="B718" s="92">
+        <v>10634</v>
+      </c>
+      <c r="F718" s="92">
+        <v>1</v>
+      </c>
+      <c r="G718" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H718" s="93"/>
+      <c r="J718" s="92" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K718" s="92" t="s">
+        <v>2205</v>
+      </c>
+      <c r="M718" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N718" s="92">
+        <v>0</v>
+      </c>
+      <c r="O718" s="92">
+        <v>0</v>
+      </c>
+      <c r="P718" s="92" t="s">
+        <v>2202</v>
+      </c>
+      <c r="Q718" s="92">
+        <v>9800</v>
+      </c>
+      <c r="R718" s="92" t="s">
+        <v>2206</v>
+      </c>
+      <c r="S718" s="74" t="s">
+        <v>2207</v>
+      </c>
+      <c r="X718" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y718" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z718" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA718" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB718" s="92">
+        <v>82</v>
+      </c>
+      <c r="AI718" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ718" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM718" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN718" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A719" s="92">
+        <v>718</v>
+      </c>
+      <c r="B719" s="92">
+        <v>10635</v>
+      </c>
+      <c r="F719" s="92">
+        <v>1</v>
+      </c>
+      <c r="G719" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H719" s="93"/>
+      <c r="J719" s="92" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K719" s="92" t="s">
+        <v>2208</v>
+      </c>
+      <c r="M719" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N719" s="92">
+        <v>0</v>
+      </c>
+      <c r="O719" s="92">
+        <v>0</v>
+      </c>
+      <c r="P719" s="92" t="s">
+        <v>2202</v>
+      </c>
+      <c r="Q719" s="92">
+        <v>19800</v>
+      </c>
+      <c r="R719" s="92" t="s">
+        <v>2206</v>
+      </c>
+      <c r="S719" s="74" t="s">
+        <v>2209</v>
+      </c>
+      <c r="X719" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y719" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z719" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA719" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB719" s="92">
+        <v>82</v>
+      </c>
+      <c r="AI719" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ719" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM719" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN719" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A720" s="92">
+        <v>719</v>
+      </c>
+      <c r="B720" s="92">
+        <v>10636</v>
+      </c>
+      <c r="F720" s="92">
+        <v>1</v>
+      </c>
+      <c r="G720" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H720" s="93"/>
+      <c r="J720" s="92" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K720" s="92" t="s">
+        <v>2210</v>
+      </c>
+      <c r="M720" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N720" s="92">
+        <v>0</v>
+      </c>
+      <c r="O720" s="92">
+        <v>0</v>
+      </c>
+      <c r="P720" s="92" t="s">
+        <v>2177</v>
+      </c>
+      <c r="Q720" s="92">
+        <v>34400</v>
+      </c>
+      <c r="R720" s="92" t="s">
+        <v>2211</v>
+      </c>
+      <c r="S720" s="74" t="s">
+        <v>2212</v>
+      </c>
+      <c r="X720" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y720" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z720" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA720" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB720" s="92">
+        <v>82</v>
+      </c>
+      <c r="AI720" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ720" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM720" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN720" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A721" s="92">
+        <v>720</v>
+      </c>
+      <c r="B721" s="92">
+        <v>10637</v>
+      </c>
+      <c r="F721" s="92">
+        <v>1</v>
+      </c>
+      <c r="G721" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H721" s="93"/>
+      <c r="J721" s="92" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K721" s="92" t="s">
+        <v>2213</v>
+      </c>
+      <c r="M721" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N721" s="92">
+        <v>0</v>
+      </c>
+      <c r="O721" s="92">
+        <v>0</v>
+      </c>
+      <c r="P721" s="92" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Q721" s="92">
+        <v>9800</v>
+      </c>
+      <c r="R721" s="92" t="s">
+        <v>2214</v>
+      </c>
+      <c r="S721" s="74" t="s">
+        <v>2215</v>
+      </c>
+      <c r="X721" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y721" s="92">
+        <v>99999999</v>
+      </c>
+      <c r="Z721" s="92">
+        <v>1636416000</v>
+      </c>
+      <c r="AA721" s="92">
+        <v>1636991999</v>
+      </c>
+      <c r="AB721" s="92">
+        <v>83</v>
+      </c>
+      <c r="AI721" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ721" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM721" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN721" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A722" s="92">
+        <v>721</v>
+      </c>
+      <c r="B722" s="92">
+        <v>10638</v>
+      </c>
+      <c r="F722" s="92">
+        <v>1</v>
+      </c>
+      <c r="G722" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H722" s="93"/>
+      <c r="J722" s="92" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K722" s="92" t="s">
         <v>1965</v>
       </c>
-      <c r="S709" s="74" t="s">
+      <c r="M722" s="92">
+        <v>-31</v>
+      </c>
+      <c r="N722" s="92">
+        <v>0</v>
+      </c>
+      <c r="O722" s="92">
+        <v>0</v>
+      </c>
+      <c r="P722" s="92" t="s">
+        <v>2202</v>
+      </c>
+      <c r="Q722" s="92">
+        <v>19800</v>
+      </c>
+      <c r="R722" s="92" t="s">
+        <v>2216</v>
+      </c>
+      <c r="S722" s="74" t="s">
         <v>1966</v>
       </c>
-      <c r="X709" s="87" t="s">
-        <v>1968</v>
-      </c>
-      <c r="Y709" s="87">
+      <c r="X722" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y722" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z709" s="87">
+      <c r="Z722" s="92">
         <v>1636416000</v>
       </c>
-      <c r="AA709" s="87">
+      <c r="AA722" s="92">
         <v>1636991999</v>
       </c>
-      <c r="AB709" s="87">
-        <v>80</v>
-      </c>
-      <c r="AI709" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ709" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM709" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN709" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="710" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A710" s="87">
-        <v>709</v>
-      </c>
-      <c r="B710" s="87">
-        <v>10626</v>
-      </c>
-      <c r="F710" s="87">
-        <v>1</v>
-      </c>
-      <c r="G710" s="87" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H710" s="93"/>
-      <c r="J710" s="87" t="s">
-        <v>1547</v>
-      </c>
-      <c r="K710" s="87" t="s">
-        <v>1969</v>
-      </c>
-      <c r="M710" s="87">
+      <c r="AB722" s="92">
+        <v>83</v>
+      </c>
+      <c r="AI722" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ722" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM722" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN722" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A723" s="92">
+        <v>722</v>
+      </c>
+      <c r="B723" s="92">
+        <v>10639</v>
+      </c>
+      <c r="F723" s="92">
+        <v>1</v>
+      </c>
+      <c r="G723" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H723" s="93"/>
+      <c r="J723" s="92" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K723" s="92" t="s">
+        <v>2217</v>
+      </c>
+      <c r="M723" s="92">
         <v>-31</v>
       </c>
-      <c r="N710" s="87">
-        <v>0</v>
-      </c>
-      <c r="O710" s="87">
-        <v>0</v>
-      </c>
-      <c r="P710" s="87" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q710" s="87">
-        <v>1000</v>
-      </c>
-      <c r="R710" s="87" t="s">
-        <v>1965</v>
-      </c>
-      <c r="S710" s="74" t="s">
-        <v>1971</v>
-      </c>
-      <c r="X710" s="87" t="s">
-        <v>1968</v>
-      </c>
-      <c r="Y710" s="87">
+      <c r="N723" s="92">
+        <v>0</v>
+      </c>
+      <c r="O723" s="92">
+        <v>0</v>
+      </c>
+      <c r="P723" s="92" t="s">
+        <v>2177</v>
+      </c>
+      <c r="Q723" s="92">
+        <v>49800</v>
+      </c>
+      <c r="R723" s="92" t="s">
+        <v>2218</v>
+      </c>
+      <c r="S723" s="74" t="s">
+        <v>2219</v>
+      </c>
+      <c r="X723" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y723" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z710" s="87">
+      <c r="Z723" s="92">
         <v>1636416000</v>
       </c>
-      <c r="AA710" s="87">
+      <c r="AA723" s="92">
         <v>1636991999</v>
       </c>
-      <c r="AB710" s="87">
-        <v>80</v>
-      </c>
-      <c r="AI710" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ710" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM710" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN710" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="711" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A711" s="87">
-        <v>710</v>
-      </c>
-      <c r="B711" s="87">
-        <v>10627</v>
-      </c>
-      <c r="F711" s="87">
-        <v>1</v>
-      </c>
-      <c r="G711" s="87" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H711" s="93"/>
-      <c r="J711" s="87" t="s">
-        <v>1547</v>
-      </c>
-      <c r="K711" s="87" t="s">
-        <v>1972</v>
-      </c>
-      <c r="M711" s="87">
+      <c r="AB723" s="92">
+        <v>83</v>
+      </c>
+      <c r="AI723" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ723" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM723" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN723" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:40" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A724" s="92">
+        <v>723</v>
+      </c>
+      <c r="B724" s="92">
+        <v>10640</v>
+      </c>
+      <c r="F724" s="92">
+        <v>1</v>
+      </c>
+      <c r="G724" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="H724" s="93"/>
+      <c r="J724" s="92" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K724" s="92" t="s">
+        <v>2220</v>
+      </c>
+      <c r="M724" s="92">
         <v>-31</v>
       </c>
-      <c r="N711" s="87">
-        <v>0</v>
-      </c>
-      <c r="O711" s="87">
-        <v>0</v>
-      </c>
-      <c r="P711" s="87" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q711" s="87">
-        <v>1800</v>
-      </c>
-      <c r="R711" s="87" t="s">
-        <v>1965</v>
-      </c>
-      <c r="S711" s="74" t="s">
-        <v>1973</v>
-      </c>
-      <c r="X711" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y711" s="87">
+      <c r="N724" s="92">
+        <v>0</v>
+      </c>
+      <c r="O724" s="92">
+        <v>0</v>
+      </c>
+      <c r="P724" s="92" t="s">
+        <v>2221</v>
+      </c>
+      <c r="Q724" s="92">
+        <v>79400</v>
+      </c>
+      <c r="R724" s="92" t="s">
+        <v>2222</v>
+      </c>
+      <c r="S724" s="74" t="s">
+        <v>2223</v>
+      </c>
+      <c r="X724" s="92" t="s">
+        <v>2224</v>
+      </c>
+      <c r="Y724" s="92">
         <v>99999999</v>
       </c>
-      <c r="Z711" s="87">
+      <c r="Z724" s="92">
         <v>1636416000</v>
       </c>
-      <c r="AA711" s="87">
+      <c r="AA724" s="92">
         <v>1636991999</v>
       </c>
-      <c r="AB711" s="87">
-        <v>80</v>
-      </c>
-      <c r="AI711" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ711" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM711" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN711" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="712" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A712" s="87">
-        <v>711</v>
-      </c>
-      <c r="B712" s="87">
-        <v>10628</v>
-      </c>
-      <c r="F712" s="87">
-        <v>1</v>
-      </c>
-      <c r="G712" s="87" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H712" s="93"/>
-      <c r="J712" s="87" t="s">
-        <v>1547</v>
-      </c>
-      <c r="K712" s="87" t="s">
-        <v>1974</v>
-      </c>
-      <c r="M712" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N712" s="87">
-        <v>0</v>
-      </c>
-      <c r="O712" s="87">
-        <v>0</v>
-      </c>
-      <c r="P712" s="87" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q712" s="87">
-        <v>3400</v>
-      </c>
-      <c r="R712" s="87" t="s">
-        <v>1975</v>
-      </c>
-      <c r="S712" s="74" t="s">
-        <v>1976</v>
-      </c>
-      <c r="X712" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y712" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z712" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA712" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB712" s="87">
-        <v>80</v>
-      </c>
-      <c r="AI712" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ712" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM712" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN712" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="713" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A713" s="87">
-        <v>712</v>
-      </c>
-      <c r="B713" s="87">
-        <v>10629</v>
-      </c>
-      <c r="F713" s="87">
-        <v>1</v>
-      </c>
-      <c r="G713" s="87" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H713" s="93"/>
-      <c r="J713" s="87" t="s">
-        <v>1554</v>
-      </c>
-      <c r="K713" s="87" t="s">
-        <v>1977</v>
-      </c>
-      <c r="M713" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N713" s="87">
-        <v>0</v>
-      </c>
-      <c r="O713" s="87">
-        <v>0</v>
-      </c>
-      <c r="P713" s="87" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q713" s="87">
-        <v>1800</v>
-      </c>
-      <c r="R713" s="87" t="s">
-        <v>1965</v>
-      </c>
-      <c r="S713" s="74" t="s">
-        <v>1978</v>
-      </c>
-      <c r="X713" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y713" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z713" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA713" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB713" s="87">
-        <v>81</v>
-      </c>
-      <c r="AI713" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ713" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM713" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN713" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="714" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A714" s="87">
-        <v>713</v>
-      </c>
-      <c r="B714" s="87">
-        <v>10630</v>
-      </c>
-      <c r="F714" s="87">
-        <v>1</v>
-      </c>
-      <c r="G714" s="87" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H714" s="93"/>
-      <c r="J714" s="87" t="s">
-        <v>1554</v>
-      </c>
-      <c r="K714" s="87" t="s">
-        <v>1979</v>
-      </c>
-      <c r="M714" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N714" s="87">
-        <v>0</v>
-      </c>
-      <c r="O714" s="87">
-        <v>0</v>
-      </c>
-      <c r="P714" s="87" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q714" s="87">
-        <v>3000</v>
-      </c>
-      <c r="R714" s="87" t="s">
-        <v>1965</v>
-      </c>
-      <c r="S714" s="74" t="s">
-        <v>1980</v>
-      </c>
-      <c r="X714" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y714" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z714" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA714" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB714" s="87">
-        <v>81</v>
-      </c>
-      <c r="AI714" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ714" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM714" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN714" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="715" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A715" s="87">
-        <v>714</v>
-      </c>
-      <c r="B715" s="87">
-        <v>10631</v>
-      </c>
-      <c r="F715" s="87">
-        <v>1</v>
-      </c>
-      <c r="G715" s="87" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H715" s="93"/>
-      <c r="J715" s="87" t="s">
-        <v>1554</v>
-      </c>
-      <c r="K715" s="87" t="s">
-        <v>1981</v>
-      </c>
-      <c r="M715" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N715" s="87">
-        <v>0</v>
-      </c>
-      <c r="O715" s="87">
-        <v>0</v>
-      </c>
-      <c r="P715" s="87" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q715" s="87">
-        <v>4800</v>
-      </c>
-      <c r="R715" s="87" t="s">
-        <v>1965</v>
-      </c>
-      <c r="S715" s="74" t="s">
-        <v>1982</v>
-      </c>
-      <c r="X715" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y715" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z715" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA715" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB715" s="87">
-        <v>81</v>
-      </c>
-      <c r="AI715" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ715" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM715" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN715" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="716" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A716" s="87">
-        <v>715</v>
-      </c>
-      <c r="B716" s="87">
-        <v>10632</v>
-      </c>
-      <c r="F716" s="87">
-        <v>1</v>
-      </c>
-      <c r="G716" s="87" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H716" s="93"/>
-      <c r="J716" s="87" t="s">
-        <v>1554</v>
-      </c>
-      <c r="K716" s="87" t="s">
-        <v>1983</v>
-      </c>
-      <c r="M716" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N716" s="87">
-        <v>0</v>
-      </c>
-      <c r="O716" s="87">
-        <v>0</v>
-      </c>
-      <c r="P716" s="87" t="s">
-        <v>1959</v>
-      </c>
-      <c r="Q716" s="87">
-        <v>9600</v>
-      </c>
-      <c r="R716" s="87" t="s">
-        <v>1975</v>
-      </c>
-      <c r="S716" s="74" t="s">
-        <v>1984</v>
-      </c>
-      <c r="X716" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y716" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z716" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA716" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB716" s="87">
-        <v>81</v>
-      </c>
-      <c r="AI716" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ716" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM716" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN716" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="717" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="87">
-        <v>716</v>
-      </c>
-      <c r="B717" s="87">
-        <v>10633</v>
-      </c>
-      <c r="F717" s="87">
-        <v>1</v>
-      </c>
-      <c r="G717" s="87" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H717" s="93"/>
-      <c r="J717" s="87" t="s">
-        <v>1561</v>
-      </c>
-      <c r="K717" s="87" t="s">
-        <v>1985</v>
-      </c>
-      <c r="M717" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N717" s="87">
-        <v>0</v>
-      </c>
-      <c r="O717" s="87">
-        <v>0</v>
-      </c>
-      <c r="P717" s="87" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q717" s="87">
-        <v>4800</v>
-      </c>
-      <c r="R717" s="87" t="s">
-        <v>1986</v>
-      </c>
-      <c r="S717" s="74" t="s">
-        <v>1987</v>
-      </c>
-      <c r="X717" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y717" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z717" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA717" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB717" s="87">
-        <v>82</v>
-      </c>
-      <c r="AI717" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ717" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM717" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN717" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="718" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A718" s="87">
-        <v>717</v>
-      </c>
-      <c r="B718" s="87">
-        <v>10634</v>
-      </c>
-      <c r="F718" s="87">
-        <v>1</v>
-      </c>
-      <c r="G718" s="87" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H718" s="93"/>
-      <c r="J718" s="87" t="s">
-        <v>1561</v>
-      </c>
-      <c r="K718" s="87" t="s">
-        <v>1988</v>
-      </c>
-      <c r="M718" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N718" s="87">
-        <v>0</v>
-      </c>
-      <c r="O718" s="87">
-        <v>0</v>
-      </c>
-      <c r="P718" s="87" t="s">
-        <v>1959</v>
-      </c>
-      <c r="Q718" s="87">
-        <v>9800</v>
-      </c>
-      <c r="R718" s="87" t="s">
-        <v>1989</v>
-      </c>
-      <c r="S718" s="74" t="s">
-        <v>1990</v>
-      </c>
-      <c r="X718" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y718" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z718" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA718" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB718" s="87">
-        <v>82</v>
-      </c>
-      <c r="AI718" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ718" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM718" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN718" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="719" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A719" s="87">
-        <v>718</v>
-      </c>
-      <c r="B719" s="87">
-        <v>10635</v>
-      </c>
-      <c r="F719" s="87">
-        <v>1</v>
-      </c>
-      <c r="G719" s="87" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H719" s="93"/>
-      <c r="J719" s="87" t="s">
-        <v>1561</v>
-      </c>
-      <c r="K719" s="87" t="s">
-        <v>1991</v>
-      </c>
-      <c r="M719" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N719" s="87">
-        <v>0</v>
-      </c>
-      <c r="O719" s="87">
-        <v>0</v>
-      </c>
-      <c r="P719" s="87" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q719" s="87">
-        <v>19800</v>
-      </c>
-      <c r="R719" s="87" t="s">
-        <v>1989</v>
-      </c>
-      <c r="S719" s="74" t="s">
-        <v>1992</v>
-      </c>
-      <c r="X719" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y719" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z719" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA719" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB719" s="87">
-        <v>82</v>
-      </c>
-      <c r="AI719" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ719" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM719" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN719" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="720" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A720" s="87">
-        <v>719</v>
-      </c>
-      <c r="B720" s="87">
-        <v>10636</v>
-      </c>
-      <c r="F720" s="87">
-        <v>1</v>
-      </c>
-      <c r="G720" s="87" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H720" s="93"/>
-      <c r="J720" s="87" t="s">
-        <v>1561</v>
-      </c>
-      <c r="K720" s="87" t="s">
-        <v>1993</v>
-      </c>
-      <c r="M720" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N720" s="87">
-        <v>0</v>
-      </c>
-      <c r="O720" s="87">
-        <v>0</v>
-      </c>
-      <c r="P720" s="87" t="s">
-        <v>1959</v>
-      </c>
-      <c r="Q720" s="87">
-        <v>34400</v>
-      </c>
-      <c r="R720" s="87" t="s">
-        <v>1994</v>
-      </c>
-      <c r="S720" s="74" t="s">
-        <v>1995</v>
-      </c>
-      <c r="X720" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y720" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z720" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA720" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB720" s="87">
-        <v>82</v>
-      </c>
-      <c r="AI720" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ720" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM720" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN720" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="721" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A721" s="87">
-        <v>720</v>
-      </c>
-      <c r="B721" s="87">
-        <v>10637</v>
-      </c>
-      <c r="F721" s="87">
-        <v>1</v>
-      </c>
-      <c r="G721" s="87" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H721" s="93"/>
-      <c r="J721" s="87" t="s">
-        <v>1450</v>
-      </c>
-      <c r="K721" s="87" t="s">
-        <v>1996</v>
-      </c>
-      <c r="M721" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N721" s="87">
-        <v>0</v>
-      </c>
-      <c r="O721" s="87">
-        <v>0</v>
-      </c>
-      <c r="P721" s="87" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q721" s="87">
-        <v>9800</v>
-      </c>
-      <c r="R721" s="87" t="s">
-        <v>1997</v>
-      </c>
-      <c r="S721" s="74" t="s">
-        <v>1998</v>
-      </c>
-      <c r="X721" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y721" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z721" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA721" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB721" s="87">
+      <c r="AB724" s="92">
         <v>83</v>
       </c>
-      <c r="AI721" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ721" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM721" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN721" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="722" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A722" s="87">
-        <v>721</v>
-      </c>
-      <c r="B722" s="87">
-        <v>10638</v>
-      </c>
-      <c r="F722" s="87">
-        <v>1</v>
-      </c>
-      <c r="G722" s="87" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H722" s="93"/>
-      <c r="J722" s="87" t="s">
-        <v>1450</v>
-      </c>
-      <c r="K722" s="87" t="s">
-        <v>1999</v>
-      </c>
-      <c r="M722" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N722" s="87">
-        <v>0</v>
-      </c>
-      <c r="O722" s="87">
-        <v>0</v>
-      </c>
-      <c r="P722" s="87" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q722" s="87">
-        <v>19800</v>
-      </c>
-      <c r="R722" s="87" t="s">
-        <v>2000</v>
-      </c>
-      <c r="S722" s="74" t="s">
-        <v>2001</v>
-      </c>
-      <c r="X722" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y722" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z722" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA722" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB722" s="87">
-        <v>83</v>
-      </c>
-      <c r="AI722" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ722" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM722" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN722" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="723" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A723" s="87">
-        <v>722</v>
-      </c>
-      <c r="B723" s="87">
-        <v>10639</v>
-      </c>
-      <c r="F723" s="87">
-        <v>1</v>
-      </c>
-      <c r="G723" s="87" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H723" s="93"/>
-      <c r="J723" s="87" t="s">
-        <v>1450</v>
-      </c>
-      <c r="K723" s="87" t="s">
-        <v>2002</v>
-      </c>
-      <c r="M723" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N723" s="87">
-        <v>0</v>
-      </c>
-      <c r="O723" s="87">
-        <v>0</v>
-      </c>
-      <c r="P723" s="87" t="s">
-        <v>1959</v>
-      </c>
-      <c r="Q723" s="87">
-        <v>49800</v>
-      </c>
-      <c r="R723" s="87" t="s">
-        <v>2000</v>
-      </c>
-      <c r="S723" s="74" t="s">
-        <v>2003</v>
-      </c>
-      <c r="X723" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y723" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z723" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA723" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB723" s="87">
-        <v>83</v>
-      </c>
-      <c r="AI723" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ723" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM723" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN723" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="724" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A724" s="87">
-        <v>723</v>
-      </c>
-      <c r="B724" s="87">
-        <v>10640</v>
-      </c>
-      <c r="F724" s="87">
-        <v>1</v>
-      </c>
-      <c r="G724" s="87" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H724" s="93"/>
-      <c r="J724" s="87" t="s">
-        <v>1450</v>
-      </c>
-      <c r="K724" s="87" t="s">
-        <v>2004</v>
-      </c>
-      <c r="M724" s="87">
-        <v>-31</v>
-      </c>
-      <c r="N724" s="87">
-        <v>0</v>
-      </c>
-      <c r="O724" s="87">
-        <v>0</v>
-      </c>
-      <c r="P724" s="87" t="s">
-        <v>1959</v>
-      </c>
-      <c r="Q724" s="87">
-        <v>79400</v>
-      </c>
-      <c r="R724" s="87" t="s">
-        <v>2005</v>
-      </c>
-      <c r="S724" s="74" t="s">
-        <v>2006</v>
-      </c>
-      <c r="X724" s="87" t="s">
-        <v>1967</v>
-      </c>
-      <c r="Y724" s="87">
-        <v>99999999</v>
-      </c>
-      <c r="Z724" s="87">
-        <v>1636416000</v>
-      </c>
-      <c r="AA724" s="87">
-        <v>1636991999</v>
-      </c>
-      <c r="AB724" s="87">
-        <v>83</v>
-      </c>
-      <c r="AI724" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ724" s="87">
-        <v>1</v>
-      </c>
-      <c r="AM724" s="87">
-        <v>1</v>
-      </c>
-      <c r="AN724" s="87">
+      <c r="AI724" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ724" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM724" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN724" s="92">
         <v>1</v>
       </c>
     </row>
@@ -66746,14 +66786,14 @@
         <v>0</v>
       </c>
       <c r="P725" s="30" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="Q725" s="30">
         <v>3000</v>
       </c>
       <c r="S725" s="54"/>
       <c r="X725" s="30" t="s">
-        <v>2007</v>
+        <v>1967</v>
       </c>
       <c r="Y725" s="30">
         <v>99999999</v>
@@ -66791,16 +66831,16 @@
         <v>0</v>
       </c>
       <c r="G726" s="30" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="H726" s="94" t="s">
-        <v>2010</v>
+        <v>1970</v>
       </c>
       <c r="J726" s="21" t="s">
         <v>1554</v>
       </c>
       <c r="K726" s="30" t="s">
-        <v>2011</v>
+        <v>1971</v>
       </c>
       <c r="M726" s="30">
         <v>-31</v>
@@ -66812,19 +66852,19 @@
         <v>0</v>
       </c>
       <c r="P726" s="30" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="Q726" s="30">
         <v>1800</v>
       </c>
       <c r="R726" s="30" t="s">
-        <v>2013</v>
+        <v>1973</v>
       </c>
       <c r="S726" s="54" t="s">
-        <v>2014</v>
+        <v>1974</v>
       </c>
       <c r="X726" s="30" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="Y726" s="30">
         <v>99999999</v>
@@ -66862,14 +66902,14 @@
         <v>0</v>
       </c>
       <c r="G727" s="30" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="H727" s="94"/>
       <c r="J727" s="21" t="s">
         <v>1554</v>
       </c>
       <c r="K727" s="30" t="s">
-        <v>2015</v>
+        <v>1975</v>
       </c>
       <c r="M727" s="30">
         <v>-31</v>
@@ -66881,19 +66921,19 @@
         <v>0</v>
       </c>
       <c r="P727" s="30" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="Q727" s="30">
         <v>3000</v>
       </c>
       <c r="R727" s="30" t="s">
-        <v>2012</v>
+        <v>1972</v>
       </c>
       <c r="S727" s="54" t="s">
-        <v>2016</v>
+        <v>1976</v>
       </c>
       <c r="X727" s="30" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="Y727" s="30">
         <v>99999999</v>
@@ -66931,14 +66971,14 @@
         <v>0</v>
       </c>
       <c r="G728" s="30" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="H728" s="94"/>
       <c r="J728" s="21" t="s">
         <v>1554</v>
       </c>
       <c r="K728" s="30" t="s">
-        <v>2017</v>
+        <v>1977</v>
       </c>
       <c r="M728" s="30">
         <v>-31</v>
@@ -66956,10 +66996,10 @@
         <v>4800</v>
       </c>
       <c r="R728" s="30" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="S728" s="54" t="s">
-        <v>2019</v>
+        <v>1979</v>
       </c>
       <c r="X728" s="30" t="s">
         <v>482</v>
@@ -67000,14 +67040,14 @@
         <v>0</v>
       </c>
       <c r="G729" s="30" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="H729" s="94"/>
       <c r="J729" s="21" t="s">
         <v>1554</v>
       </c>
       <c r="K729" s="30" t="s">
-        <v>2020</v>
+        <v>1980</v>
       </c>
       <c r="M729" s="30">
         <v>-31</v>
@@ -67019,16 +67059,16 @@
         <v>0</v>
       </c>
       <c r="P729" s="30" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="Q729" s="30">
         <v>9600</v>
       </c>
       <c r="R729" s="30" t="s">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="S729" s="54" t="s">
-        <v>2022</v>
+        <v>1982</v>
       </c>
       <c r="X729" s="30" t="s">
         <v>482</v>
@@ -67069,14 +67109,14 @@
         <v>0</v>
       </c>
       <c r="G730" s="30" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="H730" s="94"/>
       <c r="J730" s="21" t="s">
         <v>1561</v>
       </c>
       <c r="K730" s="30" t="s">
-        <v>2023</v>
+        <v>1983</v>
       </c>
       <c r="M730" s="30">
         <v>-31</v>
@@ -67088,16 +67128,16 @@
         <v>0</v>
       </c>
       <c r="P730" s="30" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="Q730" s="30">
         <v>4800</v>
       </c>
       <c r="R730" s="30" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="S730" s="54" t="s">
-        <v>2024</v>
+        <v>1984</v>
       </c>
       <c r="X730" s="30" t="s">
         <v>482</v>
@@ -67138,14 +67178,14 @@
         <v>0</v>
       </c>
       <c r="G731" s="30" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="H731" s="94"/>
       <c r="J731" s="21" t="s">
         <v>1561</v>
       </c>
       <c r="K731" s="30" t="s">
-        <v>2025</v>
+        <v>1985</v>
       </c>
       <c r="M731" s="30">
         <v>-31</v>
@@ -67163,10 +67203,10 @@
         <v>9800</v>
       </c>
       <c r="R731" s="30" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="S731" s="54" t="s">
-        <v>2026</v>
+        <v>1986</v>
       </c>
       <c r="X731" s="30" t="s">
         <v>482</v>
@@ -67207,14 +67247,14 @@
         <v>0</v>
       </c>
       <c r="G732" s="30" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="H732" s="94"/>
       <c r="J732" s="21" t="s">
         <v>1561</v>
       </c>
       <c r="K732" s="30" t="s">
-        <v>2027</v>
+        <v>1987</v>
       </c>
       <c r="M732" s="30">
         <v>-31</v>
@@ -67232,10 +67272,10 @@
         <v>19800</v>
       </c>
       <c r="R732" s="30" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="S732" s="54" t="s">
-        <v>2028</v>
+        <v>1988</v>
       </c>
       <c r="X732" s="30" t="s">
         <v>482</v>
@@ -67276,14 +67316,14 @@
         <v>0</v>
       </c>
       <c r="G733" s="30" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="H733" s="94"/>
       <c r="J733" s="21" t="s">
         <v>1561</v>
       </c>
       <c r="K733" s="30" t="s">
-        <v>2029</v>
+        <v>1989</v>
       </c>
       <c r="M733" s="30">
         <v>-31</v>
@@ -67295,16 +67335,16 @@
         <v>0</v>
       </c>
       <c r="P733" s="30" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="Q733" s="30">
         <v>34400</v>
       </c>
       <c r="R733" s="30" t="s">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="S733" s="54" t="s">
-        <v>2030</v>
+        <v>1990</v>
       </c>
       <c r="X733" s="30" t="s">
         <v>482</v>
@@ -67345,14 +67385,14 @@
         <v>0</v>
       </c>
       <c r="G734" s="30" t="s">
-        <v>2008</v>
+        <v>1968</v>
       </c>
       <c r="H734" s="94"/>
       <c r="J734" s="21" t="s">
         <v>1450</v>
       </c>
       <c r="K734" s="30" t="s">
-        <v>2031</v>
+        <v>1991</v>
       </c>
       <c r="M734" s="30">
         <v>-31</v>
@@ -67364,16 +67404,16 @@
         <v>0</v>
       </c>
       <c r="P734" s="30" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="Q734" s="30">
         <v>9800</v>
       </c>
       <c r="R734" s="30" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="S734" s="54" t="s">
-        <v>2032</v>
+        <v>1992</v>
       </c>
       <c r="X734" s="30" t="s">
         <v>482</v>
@@ -67414,14 +67454,14 @@
         <v>0</v>
       </c>
       <c r="G735" s="30" t="s">
-        <v>2008</v>
+        <v>1968</v>
       </c>
       <c r="H735" s="94"/>
       <c r="J735" s="21" t="s">
         <v>1450</v>
       </c>
       <c r="K735" s="30" t="s">
-        <v>2033</v>
+        <v>1993</v>
       </c>
       <c r="M735" s="30">
         <v>-31</v>
@@ -67433,16 +67473,16 @@
         <v>0</v>
       </c>
       <c r="P735" s="30" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="Q735" s="30">
         <v>19800</v>
       </c>
       <c r="R735" s="30" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="S735" s="54" t="s">
-        <v>2034</v>
+        <v>1994</v>
       </c>
       <c r="X735" s="30" t="s">
         <v>482</v>
@@ -67483,14 +67523,14 @@
         <v>0</v>
       </c>
       <c r="G736" s="30" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="H736" s="94"/>
       <c r="J736" s="21" t="s">
         <v>1450</v>
       </c>
       <c r="K736" s="30" t="s">
-        <v>2035</v>
+        <v>1995</v>
       </c>
       <c r="M736" s="30">
         <v>-31</v>
@@ -67502,16 +67542,16 @@
         <v>0</v>
       </c>
       <c r="P736" s="30" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="Q736" s="30">
         <v>49800</v>
       </c>
       <c r="R736" s="30" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="S736" s="54" t="s">
-        <v>2036</v>
+        <v>1996</v>
       </c>
       <c r="X736" s="30" t="s">
         <v>482</v>
@@ -67552,14 +67592,14 @@
         <v>0</v>
       </c>
       <c r="G737" s="30" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="H737" s="94"/>
       <c r="J737" s="21" t="s">
         <v>1450</v>
       </c>
       <c r="K737" s="30" t="s">
-        <v>2037</v>
+        <v>1997</v>
       </c>
       <c r="M737" s="30">
         <v>-31</v>
@@ -67571,16 +67611,16 @@
         <v>0</v>
       </c>
       <c r="P737" s="30" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="Q737" s="30">
         <v>79400</v>
       </c>
       <c r="R737" s="30" t="s">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="S737" s="54" t="s">
-        <v>2038</v>
+        <v>1998</v>
       </c>
       <c r="X737" s="30" t="s">
         <v>482</v>
@@ -67610,833 +67650,833 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A738" s="88">
+    <row r="738" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A738" s="87">
         <v>737</v>
       </c>
-      <c r="B738" s="88">
+      <c r="B738" s="87">
         <v>10654</v>
       </c>
-      <c r="F738" s="88">
-        <v>1</v>
-      </c>
-      <c r="G738" s="88" t="s">
-        <v>2039</v>
+      <c r="F738" s="87">
+        <v>1</v>
+      </c>
+      <c r="G738" s="87" t="s">
+        <v>1999</v>
       </c>
       <c r="H738" s="93" t="s">
-        <v>2040</v>
-      </c>
-      <c r="J738" s="88" t="s">
+        <v>2000</v>
+      </c>
+      <c r="J738" s="87" t="s">
         <v>1547</v>
       </c>
-      <c r="K738" s="88" t="s">
-        <v>2041</v>
-      </c>
-      <c r="M738" s="88">
+      <c r="K738" s="87" t="s">
+        <v>2001</v>
+      </c>
+      <c r="M738" s="87">
         <v>-31</v>
       </c>
-      <c r="N738" s="88">
-        <v>0</v>
-      </c>
-      <c r="O738" s="88">
-        <v>0</v>
-      </c>
-      <c r="P738" s="88" t="s">
+      <c r="N738" s="87">
+        <v>0</v>
+      </c>
+      <c r="O738" s="87">
+        <v>0</v>
+      </c>
+      <c r="P738" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q738" s="88">
+      <c r="Q738" s="87">
         <v>600</v>
       </c>
-      <c r="R738" s="88" t="s">
-        <v>2042</v>
+      <c r="R738" s="87" t="s">
+        <v>2002</v>
       </c>
       <c r="S738" s="74" t="s">
-        <v>2043</v>
-      </c>
-      <c r="X738" s="88" t="s">
+        <v>2003</v>
+      </c>
+      <c r="X738" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y738" s="88">
+      <c r="Y738" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z738" s="88">
+      <c r="Z738" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA738" s="88">
+      <c r="AA738" s="87">
         <v>1637596799</v>
       </c>
-      <c r="AB738" s="88">
+      <c r="AB738" s="87">
         <v>76</v>
       </c>
-      <c r="AI738" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ738" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM738" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN738" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="739" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A739" s="88">
+      <c r="AI738" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ738" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM738" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN738" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A739" s="87">
         <v>738</v>
       </c>
-      <c r="B739" s="88">
+      <c r="B739" s="87">
         <v>10655</v>
       </c>
-      <c r="F739" s="88">
-        <v>1</v>
-      </c>
-      <c r="G739" s="88" t="s">
-        <v>2044</v>
+      <c r="F739" s="87">
+        <v>1</v>
+      </c>
+      <c r="G739" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H739" s="93"/>
-      <c r="J739" s="88" t="s">
+      <c r="J739" s="87" t="s">
         <v>1547</v>
       </c>
-      <c r="K739" s="88" t="s">
-        <v>2045</v>
-      </c>
-      <c r="M739" s="88">
+      <c r="K739" s="87" t="s">
+        <v>2005</v>
+      </c>
+      <c r="M739" s="87">
         <v>-31</v>
       </c>
-      <c r="N739" s="88">
-        <v>0</v>
-      </c>
-      <c r="O739" s="88">
-        <v>0</v>
-      </c>
-      <c r="P739" s="88" t="s">
+      <c r="N739" s="87">
+        <v>0</v>
+      </c>
+      <c r="O739" s="87">
+        <v>0</v>
+      </c>
+      <c r="P739" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q739" s="88">
+      <c r="Q739" s="87">
         <v>1000</v>
       </c>
-      <c r="R739" s="88" t="s">
-        <v>2046</v>
+      <c r="R739" s="87" t="s">
+        <v>2006</v>
       </c>
       <c r="S739" s="74" t="s">
-        <v>2047</v>
-      </c>
-      <c r="X739" s="88" t="s">
+        <v>2007</v>
+      </c>
+      <c r="X739" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y739" s="88">
+      <c r="Y739" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z739" s="88">
+      <c r="Z739" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA739" s="88">
+      <c r="AA739" s="87">
         <v>1637596799</v>
       </c>
-      <c r="AB739" s="88">
+      <c r="AB739" s="87">
         <v>76</v>
       </c>
-      <c r="AI739" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ739" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM739" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN739" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="740" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A740" s="88">
+      <c r="AI739" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ739" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM739" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN739" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A740" s="87">
         <v>739</v>
       </c>
-      <c r="B740" s="88">
+      <c r="B740" s="87">
         <v>10656</v>
       </c>
-      <c r="F740" s="88">
-        <v>1</v>
-      </c>
-      <c r="G740" s="88" t="s">
-        <v>2044</v>
+      <c r="F740" s="87">
+        <v>1</v>
+      </c>
+      <c r="G740" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H740" s="93"/>
-      <c r="J740" s="88" t="s">
+      <c r="J740" s="87" t="s">
         <v>1547</v>
       </c>
-      <c r="K740" s="88" t="s">
-        <v>2048</v>
-      </c>
-      <c r="M740" s="88">
+      <c r="K740" s="87" t="s">
+        <v>2008</v>
+      </c>
+      <c r="M740" s="87">
         <v>-31</v>
       </c>
-      <c r="N740" s="88">
-        <v>0</v>
-      </c>
-      <c r="O740" s="88">
-        <v>0</v>
-      </c>
-      <c r="P740" s="88" t="s">
+      <c r="N740" s="87">
+        <v>0</v>
+      </c>
+      <c r="O740" s="87">
+        <v>0</v>
+      </c>
+      <c r="P740" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q740" s="88">
+      <c r="Q740" s="87">
         <v>1800</v>
       </c>
-      <c r="R740" s="88" t="s">
-        <v>2046</v>
+      <c r="R740" s="87" t="s">
+        <v>2006</v>
       </c>
       <c r="S740" s="74" t="s">
-        <v>2049</v>
-      </c>
-      <c r="X740" s="88" t="s">
+        <v>2009</v>
+      </c>
+      <c r="X740" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y740" s="88">
+      <c r="Y740" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z740" s="88">
+      <c r="Z740" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA740" s="89">
+      <c r="AA740" s="88">
         <v>1637596799</v>
       </c>
-      <c r="AB740" s="88">
+      <c r="AB740" s="87">
         <v>76</v>
       </c>
-      <c r="AI740" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ740" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM740" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN740" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="741" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A741" s="88">
+      <c r="AI740" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ740" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM740" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN740" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A741" s="87">
         <v>740</v>
       </c>
-      <c r="B741" s="88">
+      <c r="B741" s="87">
         <v>10657</v>
       </c>
-      <c r="F741" s="88">
-        <v>1</v>
-      </c>
-      <c r="G741" s="88" t="s">
-        <v>2044</v>
+      <c r="F741" s="87">
+        <v>1</v>
+      </c>
+      <c r="G741" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H741" s="93"/>
-      <c r="J741" s="88" t="s">
+      <c r="J741" s="87" t="s">
         <v>1554</v>
       </c>
-      <c r="K741" s="88" t="s">
-        <v>2050</v>
-      </c>
-      <c r="M741" s="88">
+      <c r="K741" s="87" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M741" s="87">
         <v>-31</v>
       </c>
-      <c r="N741" s="88">
-        <v>0</v>
-      </c>
-      <c r="O741" s="88">
-        <v>0</v>
-      </c>
-      <c r="P741" s="88" t="s">
+      <c r="N741" s="87">
+        <v>0</v>
+      </c>
+      <c r="O741" s="87">
+        <v>0</v>
+      </c>
+      <c r="P741" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q741" s="88">
+      <c r="Q741" s="87">
         <v>1800</v>
       </c>
-      <c r="R741" s="88" t="s">
-        <v>2046</v>
+      <c r="R741" s="87" t="s">
+        <v>2006</v>
       </c>
       <c r="S741" s="74" t="s">
-        <v>2051</v>
-      </c>
-      <c r="X741" s="88" t="s">
+        <v>2011</v>
+      </c>
+      <c r="X741" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y741" s="88">
+      <c r="Y741" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z741" s="88">
+      <c r="Z741" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA741" s="89">
+      <c r="AA741" s="88">
         <v>1637596799</v>
       </c>
-      <c r="AB741" s="88">
+      <c r="AB741" s="87">
         <v>77</v>
       </c>
-      <c r="AI741" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ741" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM741" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN741" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="742" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A742" s="88">
+      <c r="AI741" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ741" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM741" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN741" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A742" s="87">
         <v>741</v>
       </c>
-      <c r="B742" s="88">
+      <c r="B742" s="87">
         <v>10658</v>
       </c>
-      <c r="F742" s="88">
-        <v>1</v>
-      </c>
-      <c r="G742" s="88" t="s">
-        <v>2044</v>
+      <c r="F742" s="87">
+        <v>1</v>
+      </c>
+      <c r="G742" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H742" s="93"/>
-      <c r="J742" s="88" t="s">
+      <c r="J742" s="87" t="s">
         <v>1554</v>
       </c>
-      <c r="K742" s="88" t="s">
-        <v>2052</v>
-      </c>
-      <c r="M742" s="88">
+      <c r="K742" s="87" t="s">
+        <v>2012</v>
+      </c>
+      <c r="M742" s="87">
         <v>-31</v>
       </c>
-      <c r="N742" s="88">
-        <v>0</v>
-      </c>
-      <c r="O742" s="88">
-        <v>0</v>
-      </c>
-      <c r="P742" s="88" t="s">
+      <c r="N742" s="87">
+        <v>0</v>
+      </c>
+      <c r="O742" s="87">
+        <v>0</v>
+      </c>
+      <c r="P742" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q742" s="88">
+      <c r="Q742" s="87">
         <v>3000</v>
       </c>
-      <c r="R742" s="88" t="s">
-        <v>2046</v>
+      <c r="R742" s="87" t="s">
+        <v>2006</v>
       </c>
       <c r="S742" s="74" t="s">
-        <v>2053</v>
-      </c>
-      <c r="X742" s="88" t="s">
+        <v>2013</v>
+      </c>
+      <c r="X742" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y742" s="88">
+      <c r="Y742" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z742" s="88">
+      <c r="Z742" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA742" s="89">
+      <c r="AA742" s="88">
         <v>1637596799</v>
       </c>
-      <c r="AB742" s="88">
+      <c r="AB742" s="87">
         <v>77</v>
       </c>
-      <c r="AI742" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ742" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM742" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN742" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="743" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="88">
+      <c r="AI742" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ742" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM742" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN742" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A743" s="87">
         <v>742</v>
       </c>
-      <c r="B743" s="88">
+      <c r="B743" s="87">
         <v>10659</v>
       </c>
-      <c r="F743" s="88">
-        <v>1</v>
-      </c>
-      <c r="G743" s="88" t="s">
-        <v>2044</v>
+      <c r="F743" s="87">
+        <v>1</v>
+      </c>
+      <c r="G743" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H743" s="93"/>
-      <c r="J743" s="88" t="s">
+      <c r="J743" s="87" t="s">
         <v>1554</v>
       </c>
-      <c r="K743" s="88" t="s">
-        <v>2054</v>
-      </c>
-      <c r="M743" s="88">
+      <c r="K743" s="87" t="s">
+        <v>2014</v>
+      </c>
+      <c r="M743" s="87">
         <v>-31</v>
       </c>
-      <c r="N743" s="88">
-        <v>0</v>
-      </c>
-      <c r="O743" s="88">
-        <v>0</v>
-      </c>
-      <c r="P743" s="88" t="s">
+      <c r="N743" s="87">
+        <v>0</v>
+      </c>
+      <c r="O743" s="87">
+        <v>0</v>
+      </c>
+      <c r="P743" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q743" s="88">
+      <c r="Q743" s="87">
         <v>4800</v>
       </c>
-      <c r="R743" s="88" t="s">
-        <v>2046</v>
+      <c r="R743" s="87" t="s">
+        <v>2006</v>
       </c>
       <c r="S743" s="74" t="s">
-        <v>2055</v>
-      </c>
-      <c r="X743" s="88" t="s">
+        <v>2015</v>
+      </c>
+      <c r="X743" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y743" s="88">
+      <c r="Y743" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z743" s="88">
+      <c r="Z743" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA743" s="89">
+      <c r="AA743" s="88">
         <v>1637596799</v>
       </c>
-      <c r="AB743" s="88">
+      <c r="AB743" s="87">
         <v>77</v>
       </c>
-      <c r="AI743" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ743" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM743" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN743" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="744" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="88">
+      <c r="AI743" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ743" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM743" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN743" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="87">
         <v>743</v>
       </c>
-      <c r="B744" s="88">
+      <c r="B744" s="87">
         <v>10660</v>
       </c>
-      <c r="F744" s="88">
-        <v>1</v>
-      </c>
-      <c r="G744" s="88" t="s">
-        <v>2044</v>
+      <c r="F744" s="87">
+        <v>1</v>
+      </c>
+      <c r="G744" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H744" s="93"/>
-      <c r="J744" s="88" t="s">
+      <c r="J744" s="87" t="s">
         <v>1561</v>
       </c>
-      <c r="K744" s="88" t="s">
-        <v>2056</v>
-      </c>
-      <c r="M744" s="88">
+      <c r="K744" s="87" t="s">
+        <v>2016</v>
+      </c>
+      <c r="M744" s="87">
         <v>-31</v>
       </c>
-      <c r="N744" s="88">
-        <v>0</v>
-      </c>
-      <c r="O744" s="88">
-        <v>0</v>
-      </c>
-      <c r="P744" s="88" t="s">
+      <c r="N744" s="87">
+        <v>0</v>
+      </c>
+      <c r="O744" s="87">
+        <v>0</v>
+      </c>
+      <c r="P744" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q744" s="88">
+      <c r="Q744" s="87">
         <v>4800</v>
       </c>
-      <c r="R744" s="88" t="s">
-        <v>2057</v>
+      <c r="R744" s="87" t="s">
+        <v>2017</v>
       </c>
       <c r="S744" s="74" t="s">
-        <v>2058</v>
-      </c>
-      <c r="X744" s="88" t="s">
+        <v>2018</v>
+      </c>
+      <c r="X744" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y744" s="88">
+      <c r="Y744" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z744" s="88">
+      <c r="Z744" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA744" s="89">
+      <c r="AA744" s="88">
         <v>1637596799</v>
       </c>
-      <c r="AB744" s="88">
+      <c r="AB744" s="87">
         <v>78</v>
       </c>
-      <c r="AI744" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ744" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM744" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN744" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="745" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="88">
+      <c r="AI744" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ744" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM744" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN744" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A745" s="87">
         <v>744</v>
       </c>
-      <c r="B745" s="88">
+      <c r="B745" s="87">
         <v>10661</v>
       </c>
-      <c r="F745" s="88">
-        <v>1</v>
-      </c>
-      <c r="G745" s="88" t="s">
-        <v>2044</v>
+      <c r="F745" s="87">
+        <v>1</v>
+      </c>
+      <c r="G745" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H745" s="93"/>
-      <c r="J745" s="88" t="s">
+      <c r="J745" s="87" t="s">
         <v>1561</v>
       </c>
-      <c r="K745" s="88" t="s">
-        <v>2059</v>
-      </c>
-      <c r="M745" s="88">
+      <c r="K745" s="87" t="s">
+        <v>2019</v>
+      </c>
+      <c r="M745" s="87">
         <v>-31</v>
       </c>
-      <c r="N745" s="88">
-        <v>0</v>
-      </c>
-      <c r="O745" s="88">
-        <v>0</v>
-      </c>
-      <c r="P745" s="88" t="s">
+      <c r="N745" s="87">
+        <v>0</v>
+      </c>
+      <c r="O745" s="87">
+        <v>0</v>
+      </c>
+      <c r="P745" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q745" s="88">
+      <c r="Q745" s="87">
         <v>9800</v>
       </c>
-      <c r="R745" s="88" t="s">
-        <v>2057</v>
+      <c r="R745" s="87" t="s">
+        <v>2017</v>
       </c>
       <c r="S745" s="74" t="s">
-        <v>2060</v>
-      </c>
-      <c r="X745" s="88" t="s">
+        <v>2020</v>
+      </c>
+      <c r="X745" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y745" s="88">
+      <c r="Y745" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z745" s="88">
+      <c r="Z745" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA745" s="89">
+      <c r="AA745" s="88">
         <v>1637596799</v>
       </c>
-      <c r="AB745" s="88">
+      <c r="AB745" s="87">
         <v>78</v>
       </c>
-      <c r="AI745" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ745" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM745" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN745" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="746" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="88">
+      <c r="AI745" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ745" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM745" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN745" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A746" s="87">
         <v>745</v>
       </c>
-      <c r="B746" s="88">
+      <c r="B746" s="87">
         <v>10662</v>
       </c>
-      <c r="F746" s="88">
-        <v>1</v>
-      </c>
-      <c r="G746" s="88" t="s">
-        <v>2044</v>
+      <c r="F746" s="87">
+        <v>1</v>
+      </c>
+      <c r="G746" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H746" s="93"/>
-      <c r="J746" s="88" t="s">
+      <c r="J746" s="87" t="s">
         <v>1561</v>
       </c>
-      <c r="K746" s="88" t="s">
-        <v>2061</v>
-      </c>
-      <c r="M746" s="88">
+      <c r="K746" s="87" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M746" s="87">
         <v>-31</v>
       </c>
-      <c r="N746" s="88">
-        <v>0</v>
-      </c>
-      <c r="O746" s="88">
-        <v>0</v>
-      </c>
-      <c r="P746" s="88" t="s">
+      <c r="N746" s="87">
+        <v>0</v>
+      </c>
+      <c r="O746" s="87">
+        <v>0</v>
+      </c>
+      <c r="P746" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q746" s="88">
+      <c r="Q746" s="87">
         <v>19800</v>
       </c>
-      <c r="R746" s="88" t="s">
-        <v>2062</v>
+      <c r="R746" s="87" t="s">
+        <v>2022</v>
       </c>
       <c r="S746" s="74" t="s">
-        <v>2063</v>
-      </c>
-      <c r="X746" s="88" t="s">
+        <v>2023</v>
+      </c>
+      <c r="X746" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y746" s="88">
+      <c r="Y746" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z746" s="88">
+      <c r="Z746" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA746" s="89">
+      <c r="AA746" s="88">
         <v>1637596799</v>
       </c>
-      <c r="AB746" s="88">
+      <c r="AB746" s="87">
         <v>78</v>
       </c>
-      <c r="AI746" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ746" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM746" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN746" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="747" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A747" s="88">
+      <c r="AI746" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ746" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM746" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN746" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A747" s="87">
         <v>746</v>
       </c>
-      <c r="B747" s="88">
+      <c r="B747" s="87">
         <v>10663</v>
       </c>
-      <c r="F747" s="88">
-        <v>1</v>
-      </c>
-      <c r="G747" s="88" t="s">
-        <v>2044</v>
+      <c r="F747" s="87">
+        <v>1</v>
+      </c>
+      <c r="G747" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H747" s="93"/>
-      <c r="J747" s="88" t="s">
+      <c r="J747" s="87" t="s">
         <v>1450</v>
       </c>
-      <c r="K747" s="88" t="s">
-        <v>2059</v>
-      </c>
-      <c r="M747" s="88">
+      <c r="K747" s="87" t="s">
+        <v>2019</v>
+      </c>
+      <c r="M747" s="87">
         <v>-31</v>
       </c>
-      <c r="N747" s="88">
-        <v>0</v>
-      </c>
-      <c r="O747" s="88">
-        <v>0</v>
-      </c>
-      <c r="P747" s="88" t="s">
+      <c r="N747" s="87">
+        <v>0</v>
+      </c>
+      <c r="O747" s="87">
+        <v>0</v>
+      </c>
+      <c r="P747" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q747" s="88">
+      <c r="Q747" s="87">
         <v>9800</v>
       </c>
-      <c r="R747" s="88" t="s">
-        <v>2062</v>
+      <c r="R747" s="87" t="s">
+        <v>2022</v>
       </c>
       <c r="S747" s="74" t="s">
-        <v>2060</v>
-      </c>
-      <c r="X747" s="88" t="s">
+        <v>2020</v>
+      </c>
+      <c r="X747" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y747" s="88">
+      <c r="Y747" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z747" s="88">
+      <c r="Z747" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA747" s="89">
+      <c r="AA747" s="88">
         <v>1637596799</v>
       </c>
-      <c r="AB747" s="88">
+      <c r="AB747" s="87">
         <v>79</v>
       </c>
-      <c r="AI747" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ747" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM747" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN747" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="748" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="88">
+      <c r="AI747" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ747" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM747" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN747" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A748" s="87">
         <v>747</v>
       </c>
-      <c r="B748" s="88">
+      <c r="B748" s="87">
         <v>10664</v>
       </c>
-      <c r="F748" s="88">
-        <v>1</v>
-      </c>
-      <c r="G748" s="88" t="s">
-        <v>2044</v>
+      <c r="F748" s="87">
+        <v>1</v>
+      </c>
+      <c r="G748" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H748" s="93"/>
-      <c r="J748" s="88" t="s">
+      <c r="J748" s="87" t="s">
         <v>1450</v>
       </c>
-      <c r="K748" s="88" t="s">
-        <v>2061</v>
-      </c>
-      <c r="M748" s="88">
+      <c r="K748" s="87" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M748" s="87">
         <v>-31</v>
       </c>
-      <c r="N748" s="88">
-        <v>0</v>
-      </c>
-      <c r="O748" s="88">
-        <v>0</v>
-      </c>
-      <c r="P748" s="88" t="s">
+      <c r="N748" s="87">
+        <v>0</v>
+      </c>
+      <c r="O748" s="87">
+        <v>0</v>
+      </c>
+      <c r="P748" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q748" s="88">
+      <c r="Q748" s="87">
         <v>19800</v>
       </c>
-      <c r="R748" s="88" t="s">
-        <v>2062</v>
+      <c r="R748" s="87" t="s">
+        <v>2022</v>
       </c>
       <c r="S748" s="74" t="s">
-        <v>2064</v>
-      </c>
-      <c r="X748" s="88" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X748" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y748" s="88">
+      <c r="Y748" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z748" s="88">
+      <c r="Z748" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA748" s="89">
+      <c r="AA748" s="88">
         <v>1637596799</v>
       </c>
-      <c r="AB748" s="88">
+      <c r="AB748" s="87">
         <v>79</v>
       </c>
-      <c r="AI748" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ748" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM748" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN748" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="749" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="88">
+      <c r="AI748" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ748" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM748" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN748" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:40" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A749" s="87">
         <v>748</v>
       </c>
-      <c r="B749" s="88">
+      <c r="B749" s="87">
         <v>10665</v>
       </c>
-      <c r="F749" s="88">
-        <v>1</v>
-      </c>
-      <c r="G749" s="88" t="s">
-        <v>2044</v>
+      <c r="F749" s="87">
+        <v>1</v>
+      </c>
+      <c r="G749" s="87" t="s">
+        <v>2004</v>
       </c>
       <c r="H749" s="93"/>
-      <c r="J749" s="88" t="s">
+      <c r="J749" s="87" t="s">
         <v>1450</v>
       </c>
-      <c r="K749" s="88" t="s">
-        <v>2065</v>
-      </c>
-      <c r="M749" s="88">
+      <c r="K749" s="87" t="s">
+        <v>2025</v>
+      </c>
+      <c r="M749" s="87">
         <v>-31</v>
       </c>
-      <c r="N749" s="88">
-        <v>0</v>
-      </c>
-      <c r="O749" s="88">
-        <v>0</v>
-      </c>
-      <c r="P749" s="88" t="s">
+      <c r="N749" s="87">
+        <v>0</v>
+      </c>
+      <c r="O749" s="87">
+        <v>0</v>
+      </c>
+      <c r="P749" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="Q749" s="88">
+      <c r="Q749" s="87">
         <v>49800</v>
       </c>
-      <c r="R749" s="88" t="s">
-        <v>2062</v>
+      <c r="R749" s="87" t="s">
+        <v>2022</v>
       </c>
       <c r="S749" s="74" t="s">
-        <v>2066</v>
-      </c>
-      <c r="X749" s="88" t="s">
+        <v>2026</v>
+      </c>
+      <c r="X749" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y749" s="88">
+      <c r="Y749" s="87">
         <v>99999999</v>
       </c>
-      <c r="Z749" s="88">
+      <c r="Z749" s="87">
         <v>1636416000</v>
       </c>
-      <c r="AA749" s="89">
+      <c r="AA749" s="88">
         <v>1637596799</v>
       </c>
-      <c r="AB749" s="88">
+      <c r="AB749" s="87">
         <v>79</v>
       </c>
-      <c r="AI749" s="88">
-        <v>1</v>
-      </c>
-      <c r="AJ749" s="88">
-        <v>1</v>
-      </c>
-      <c r="AM749" s="88">
-        <v>1</v>
-      </c>
-      <c r="AN749" s="88">
+      <c r="AI749" s="87">
+        <v>1</v>
+      </c>
+      <c r="AJ749" s="87">
+        <v>1</v>
+      </c>
+      <c r="AM749" s="87">
+        <v>1</v>
+      </c>
+      <c r="AN749" s="87">
         <v>1</v>
       </c>
     </row>
@@ -68451,10 +68491,10 @@
         <v>1</v>
       </c>
       <c r="G750" s="30" t="s">
-        <v>2067</v>
+        <v>2027</v>
       </c>
       <c r="K750" s="30" t="s">
-        <v>2068</v>
+        <v>2028</v>
       </c>
       <c r="M750" s="30">
         <v>-31</v>
@@ -68466,19 +68506,19 @@
         <v>0</v>
       </c>
       <c r="P750" s="30" t="s">
-        <v>2069</v>
+        <v>2029</v>
       </c>
       <c r="Q750" s="30">
         <v>9800</v>
       </c>
       <c r="R750" s="30" t="s">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="S750" s="54" t="s">
-        <v>2071</v>
+        <v>2031</v>
       </c>
       <c r="X750" s="30" t="s">
-        <v>2072</v>
+        <v>2032</v>
       </c>
       <c r="Y750" s="30">
         <v>99999999</v>
@@ -68516,13 +68556,13 @@
         <v>1</v>
       </c>
       <c r="G751" s="30" t="s">
-        <v>2073</v>
+        <v>2033</v>
       </c>
       <c r="J751" s="30" t="s">
-        <v>2074</v>
+        <v>2034</v>
       </c>
       <c r="K751" s="30" t="s">
-        <v>2075</v>
+        <v>2035</v>
       </c>
       <c r="M751" s="30">
         <v>-31</v>
@@ -68534,19 +68574,19 @@
         <v>0</v>
       </c>
       <c r="P751" s="30" t="s">
-        <v>2076</v>
+        <v>2036</v>
       </c>
       <c r="Q751" s="30">
         <v>4800</v>
       </c>
       <c r="R751" s="30" t="s">
-        <v>2078</v>
+        <v>2038</v>
       </c>
       <c r="S751" s="54" t="s">
-        <v>2079</v>
+        <v>2039</v>
       </c>
       <c r="X751" s="30" t="s">
-        <v>2080</v>
+        <v>2040</v>
       </c>
       <c r="Y751" s="30">
         <v>99999999</v>
@@ -68584,13 +68624,13 @@
         <v>1</v>
       </c>
       <c r="G752" s="30" t="s">
-        <v>2073</v>
+        <v>2033</v>
       </c>
       <c r="J752" s="30" t="s">
-        <v>2081</v>
+        <v>2041</v>
       </c>
       <c r="K752" s="30" t="s">
-        <v>2082</v>
+        <v>2042</v>
       </c>
       <c r="M752" s="30">
         <v>-31</v>
@@ -68602,16 +68642,16 @@
         <v>0</v>
       </c>
       <c r="P752" s="30" t="s">
-        <v>2076</v>
+        <v>2036</v>
       </c>
       <c r="Q752" s="30">
         <v>9800</v>
       </c>
       <c r="R752" s="30" t="s">
-        <v>2077</v>
+        <v>2037</v>
       </c>
       <c r="S752" s="54" t="s">
-        <v>2083</v>
+        <v>2043</v>
       </c>
       <c r="X752" s="30" t="s">
         <v>1950</v>
@@ -68652,13 +68692,13 @@
         <v>1</v>
       </c>
       <c r="G753" s="30" t="s">
-        <v>2073</v>
+        <v>2033</v>
       </c>
       <c r="J753" s="30" t="s">
-        <v>2084</v>
+        <v>2044</v>
       </c>
       <c r="K753" s="30" t="s">
-        <v>2085</v>
+        <v>2045</v>
       </c>
       <c r="M753" s="30">
         <v>-31</v>
@@ -68676,13 +68716,13 @@
         <v>19800</v>
       </c>
       <c r="R753" s="30" t="s">
-        <v>2086</v>
+        <v>2046</v>
       </c>
       <c r="S753" s="54" t="s">
-        <v>2087</v>
+        <v>2047</v>
       </c>
       <c r="X753" s="30" t="s">
-        <v>2080</v>
+        <v>2040</v>
       </c>
       <c r="Y753" s="30">
         <v>99999999</v>
@@ -68720,13 +68760,13 @@
         <v>1</v>
       </c>
       <c r="G754" s="30" t="s">
-        <v>2088</v>
+        <v>2048</v>
       </c>
       <c r="J754" s="30" t="s">
-        <v>2089</v>
+        <v>2049</v>
       </c>
       <c r="K754" s="30" t="s">
-        <v>2090</v>
+        <v>2050</v>
       </c>
       <c r="M754" s="30">
         <v>-31</v>
@@ -68738,19 +68778,19 @@
         <v>0</v>
       </c>
       <c r="P754" s="30" t="s">
-        <v>2092</v>
+        <v>2052</v>
       </c>
       <c r="Q754" s="30">
         <v>4800</v>
       </c>
       <c r="R754" s="30" t="s">
-        <v>2093</v>
+        <v>2053</v>
       </c>
       <c r="S754" s="54" t="s">
-        <v>2094</v>
+        <v>2054</v>
       </c>
       <c r="X754" s="30" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="Y754" s="30">
         <v>99999999</v>
@@ -68785,13 +68825,13 @@
         <v>1</v>
       </c>
       <c r="G755" s="30" t="s">
-        <v>2095</v>
+        <v>2055</v>
       </c>
       <c r="J755" s="30" t="s">
-        <v>2096</v>
+        <v>2056</v>
       </c>
       <c r="K755" s="30" t="s">
-        <v>2097</v>
+        <v>2057</v>
       </c>
       <c r="M755" s="30">
         <v>-31</v>
@@ -68803,19 +68843,19 @@
         <v>0</v>
       </c>
       <c r="P755" s="30" t="s">
-        <v>2092</v>
+        <v>2052</v>
       </c>
       <c r="Q755" s="30">
         <v>9800</v>
       </c>
       <c r="R755" s="30" t="s">
-        <v>2098</v>
+        <v>2058</v>
       </c>
       <c r="S755" s="54" t="s">
-        <v>2099</v>
+        <v>2059</v>
       </c>
       <c r="X755" s="30" t="s">
-        <v>2100</v>
+        <v>2060</v>
       </c>
       <c r="Y755" s="30">
         <v>99999999</v>
@@ -68850,13 +68890,13 @@
         <v>1</v>
       </c>
       <c r="G756" s="30" t="s">
-        <v>2088</v>
+        <v>2048</v>
       </c>
       <c r="J756" s="30" t="s">
-        <v>2101</v>
+        <v>2061</v>
       </c>
       <c r="K756" s="30" t="s">
-        <v>2102</v>
+        <v>2062</v>
       </c>
       <c r="M756" s="30">
         <v>-31</v>
@@ -68868,19 +68908,19 @@
         <v>0</v>
       </c>
       <c r="P756" s="30" t="s">
-        <v>2091</v>
+        <v>2051</v>
       </c>
       <c r="Q756" s="30">
         <v>49800</v>
       </c>
       <c r="R756" s="30" t="s">
-        <v>2093</v>
+        <v>2053</v>
       </c>
       <c r="S756" s="54" t="s">
-        <v>2103</v>
+        <v>2063</v>
       </c>
       <c r="X756" s="30" t="s">
-        <v>2100</v>
+        <v>2060</v>
       </c>
       <c r="Y756" s="30">
         <v>99999999</v>
@@ -68915,13 +68955,13 @@
         <v>1</v>
       </c>
       <c r="G757" s="30" t="s">
-        <v>2104</v>
+        <v>2064</v>
       </c>
       <c r="J757" s="30" t="s">
-        <v>2105</v>
+        <v>2065</v>
       </c>
       <c r="K757" s="30" t="s">
-        <v>2136</v>
+        <v>2096</v>
       </c>
       <c r="M757" s="30">
         <v>-31</v>
@@ -68933,7 +68973,7 @@
         <v>0</v>
       </c>
       <c r="P757" s="30" t="s">
-        <v>2076</v>
+        <v>2036</v>
       </c>
       <c r="Q757" s="30">
         <v>1000</v>
@@ -68955,13 +68995,13 @@
         <v>92</v>
       </c>
       <c r="AC757" s="30" t="s">
-        <v>2137</v>
+        <v>2097</v>
       </c>
       <c r="AD757" s="30" t="s">
-        <v>2138</v>
+        <v>2098</v>
       </c>
       <c r="AE757" s="72" t="s">
-        <v>2139</v>
+        <v>2099</v>
       </c>
       <c r="AI757" s="30">
         <v>1</v>
@@ -68987,13 +69027,13 @@
         <v>1</v>
       </c>
       <c r="G758" s="30" t="s">
-        <v>2140</v>
+        <v>2100</v>
       </c>
       <c r="J758" s="30" t="s">
-        <v>2106</v>
+        <v>2066</v>
       </c>
       <c r="K758" s="30" t="s">
-        <v>2141</v>
+        <v>2101</v>
       </c>
       <c r="M758" s="30">
         <v>-31</v>
@@ -69005,7 +69045,7 @@
         <v>0</v>
       </c>
       <c r="P758" s="30" t="s">
-        <v>2076</v>
+        <v>2036</v>
       </c>
       <c r="Q758" s="30">
         <v>5000</v>
@@ -69027,13 +69067,13 @@
         <v>93</v>
       </c>
       <c r="AC758" s="30" t="s">
-        <v>2137</v>
+        <v>2097</v>
       </c>
       <c r="AD758" s="30" t="s">
-        <v>2107</v>
+        <v>2067</v>
       </c>
       <c r="AE758" s="72" t="s">
-        <v>2142</v>
+        <v>2102</v>
       </c>
       <c r="AI758" s="30">
         <v>1</v>
@@ -69059,13 +69099,13 @@
         <v>1</v>
       </c>
       <c r="G759" s="30" t="s">
-        <v>2140</v>
+        <v>2100</v>
       </c>
       <c r="J759" s="30" t="s">
-        <v>2143</v>
+        <v>2103</v>
       </c>
       <c r="K759" s="30" t="s">
-        <v>2144</v>
+        <v>2104</v>
       </c>
       <c r="M759" s="30">
         <v>-31</v>
@@ -69077,14 +69117,14 @@
         <v>0</v>
       </c>
       <c r="P759" s="30" t="s">
-        <v>2076</v>
+        <v>2036</v>
       </c>
       <c r="Q759" s="30">
         <v>9800</v>
       </c>
       <c r="S759" s="54"/>
       <c r="X759" s="30" t="s">
-        <v>2145</v>
+        <v>2105</v>
       </c>
       <c r="Y759" s="30">
         <v>99999999</v>
@@ -69099,13 +69139,13 @@
         <v>94</v>
       </c>
       <c r="AC759" s="30" t="s">
-        <v>2137</v>
+        <v>2097</v>
       </c>
       <c r="AD759" s="30" t="s">
-        <v>2146</v>
+        <v>2106</v>
       </c>
       <c r="AE759" s="72" t="s">
-        <v>2147</v>
+        <v>2107</v>
       </c>
       <c r="AI759" s="30">
         <v>1</v>
@@ -69131,13 +69171,13 @@
         <v>1</v>
       </c>
       <c r="G760" s="30" t="s">
-        <v>2140</v>
+        <v>2100</v>
       </c>
       <c r="J760" s="30" t="s">
-        <v>2148</v>
+        <v>2108</v>
       </c>
       <c r="K760" s="30" t="s">
-        <v>2149</v>
+        <v>2109</v>
       </c>
       <c r="M760" s="30">
         <v>-31</v>
@@ -69149,7 +69189,7 @@
         <v>0</v>
       </c>
       <c r="P760" s="30" t="s">
-        <v>2076</v>
+        <v>2036</v>
       </c>
       <c r="Q760" s="30">
         <v>19800</v>
@@ -69171,13 +69211,13 @@
         <v>95</v>
       </c>
       <c r="AC760" s="30" t="s">
-        <v>2137</v>
+        <v>2097</v>
       </c>
       <c r="AD760" s="30" t="s">
-        <v>2150</v>
+        <v>2110</v>
       </c>
       <c r="AE760" s="72" t="s">
-        <v>2151</v>
+        <v>2111</v>
       </c>
       <c r="AI760" s="30">
         <v>1</v>
@@ -69203,13 +69243,13 @@
         <v>1</v>
       </c>
       <c r="G761" s="30" t="s">
-        <v>2104</v>
+        <v>2064</v>
       </c>
       <c r="J761" s="30" t="s">
-        <v>2109</v>
+        <v>2069</v>
       </c>
       <c r="K761" s="30" t="s">
-        <v>2152</v>
+        <v>2112</v>
       </c>
       <c r="M761" s="30">
         <v>-31</v>
@@ -69221,14 +69261,14 @@
         <v>0</v>
       </c>
       <c r="P761" s="30" t="s">
-        <v>2153</v>
+        <v>2113</v>
       </c>
       <c r="Q761" s="30">
         <v>5000</v>
       </c>
       <c r="S761" s="54"/>
       <c r="X761" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y761" s="30">
         <v>99999999</v>
@@ -69243,13 +69283,13 @@
         <v>92</v>
       </c>
       <c r="AC761" s="30" t="s">
-        <v>2137</v>
+        <v>2097</v>
       </c>
       <c r="AD761" s="30" t="s">
-        <v>2154</v>
+        <v>2114</v>
       </c>
       <c r="AE761" s="72" t="s">
-        <v>2142</v>
+        <v>2102</v>
       </c>
       <c r="AI761" s="30">
         <v>1</v>
@@ -69275,13 +69315,13 @@
         <v>1</v>
       </c>
       <c r="G762" s="30" t="s">
-        <v>2155</v>
+        <v>2115</v>
       </c>
       <c r="J762" s="30" t="s">
-        <v>2111</v>
+        <v>2071</v>
       </c>
       <c r="K762" s="30" t="s">
-        <v>2108</v>
+        <v>2068</v>
       </c>
       <c r="M762" s="30">
         <v>-31</v>
@@ -69293,14 +69333,14 @@
         <v>0</v>
       </c>
       <c r="P762" s="30" t="s">
-        <v>2153</v>
+        <v>2113</v>
       </c>
       <c r="Q762" s="30">
         <v>9800</v>
       </c>
       <c r="S762" s="54"/>
       <c r="X762" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y762" s="30">
         <v>99999999</v>
@@ -69315,13 +69355,13 @@
         <v>93</v>
       </c>
       <c r="AC762" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD762" s="30" t="s">
-        <v>2157</v>
+        <v>2117</v>
       </c>
       <c r="AE762" s="72" t="s">
-        <v>2158</v>
+        <v>2118</v>
       </c>
       <c r="AI762" s="30">
         <v>1</v>
@@ -69347,13 +69387,13 @@
         <v>1</v>
       </c>
       <c r="G763" s="30" t="s">
-        <v>2140</v>
+        <v>2100</v>
       </c>
       <c r="J763" s="30" t="s">
-        <v>2112</v>
+        <v>2072</v>
       </c>
       <c r="K763" s="30" t="s">
-        <v>2149</v>
+        <v>2109</v>
       </c>
       <c r="M763" s="30">
         <v>-31</v>
@@ -69365,15 +69405,15 @@
         <v>0</v>
       </c>
       <c r="P763" s="30" t="s">
-        <v>2153</v>
+        <v>2113</v>
       </c>
       <c r="Q763" s="30">
         <v>19800</v>
       </c>
-      <c r="R763" s="90"/>
+      <c r="R763" s="89"/>
       <c r="S763" s="54"/>
       <c r="X763" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y763" s="30">
         <v>99999999</v>
@@ -69388,13 +69428,13 @@
         <v>94</v>
       </c>
       <c r="AC763" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD763" s="30" t="s">
-        <v>2160</v>
+        <v>2120</v>
       </c>
       <c r="AE763" s="72" t="s">
-        <v>2161</v>
+        <v>2121</v>
       </c>
       <c r="AI763" s="30">
         <v>1</v>
@@ -69420,13 +69460,13 @@
         <v>1</v>
       </c>
       <c r="G764" s="30" t="s">
-        <v>2140</v>
+        <v>2100</v>
       </c>
       <c r="J764" s="30" t="s">
-        <v>2113</v>
+        <v>2073</v>
       </c>
       <c r="K764" s="30" t="s">
-        <v>2162</v>
+        <v>2122</v>
       </c>
       <c r="M764" s="30">
         <v>-31</v>
@@ -69438,15 +69478,15 @@
         <v>0</v>
       </c>
       <c r="P764" s="30" t="s">
-        <v>2163</v>
+        <v>2123</v>
       </c>
       <c r="Q764" s="30">
         <v>29800</v>
       </c>
-      <c r="R764" s="90"/>
+      <c r="R764" s="89"/>
       <c r="S764" s="54"/>
       <c r="X764" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y764" s="30">
         <v>99999999</v>
@@ -69461,13 +69501,13 @@
         <v>95</v>
       </c>
       <c r="AC764" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD764" s="30" t="s">
-        <v>2164</v>
+        <v>2124</v>
       </c>
       <c r="AE764" s="72" t="s">
-        <v>2165</v>
+        <v>2125</v>
       </c>
       <c r="AI764" s="30">
         <v>1</v>
@@ -69493,13 +69533,13 @@
         <v>1</v>
       </c>
       <c r="G765" s="30" t="s">
-        <v>2155</v>
+        <v>2115</v>
       </c>
       <c r="J765" s="30" t="s">
-        <v>2114</v>
+        <v>2074</v>
       </c>
       <c r="K765" s="30" t="s">
-        <v>2166</v>
+        <v>2126</v>
       </c>
       <c r="M765" s="30">
         <v>-31</v>
@@ -69511,14 +69551,14 @@
         <v>0</v>
       </c>
       <c r="P765" s="30" t="s">
-        <v>2163</v>
+        <v>2123</v>
       </c>
       <c r="Q765" s="30">
         <v>9800</v>
       </c>
       <c r="S765" s="54"/>
       <c r="X765" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y765" s="30">
         <v>99999999</v>
@@ -69533,13 +69573,13 @@
         <v>92</v>
       </c>
       <c r="AC765" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD765" s="30" t="s">
-        <v>2157</v>
+        <v>2117</v>
       </c>
       <c r="AE765" s="72" t="s">
-        <v>2158</v>
+        <v>2118</v>
       </c>
       <c r="AI765" s="30">
         <v>1</v>
@@ -69565,13 +69605,13 @@
         <v>1</v>
       </c>
       <c r="G766" s="30" t="s">
-        <v>2155</v>
+        <v>2115</v>
       </c>
       <c r="J766" s="30" t="s">
-        <v>2115</v>
+        <v>2075</v>
       </c>
       <c r="K766" s="30" t="s">
-        <v>2166</v>
+        <v>2126</v>
       </c>
       <c r="M766" s="30">
         <v>-31</v>
@@ -69583,14 +69623,14 @@
         <v>0</v>
       </c>
       <c r="P766" s="30" t="s">
-        <v>2163</v>
+        <v>2123</v>
       </c>
       <c r="Q766" s="30">
         <v>9800</v>
       </c>
       <c r="S766" s="54"/>
       <c r="X766" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y766" s="30">
         <v>99999999</v>
@@ -69605,13 +69645,13 @@
         <v>93</v>
       </c>
       <c r="AC766" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD766" s="30" t="s">
-        <v>2157</v>
+        <v>2117</v>
       </c>
       <c r="AE766" s="72" t="s">
-        <v>2158</v>
+        <v>2118</v>
       </c>
       <c r="AI766" s="30">
         <v>1</v>
@@ -69637,13 +69677,13 @@
         <v>1</v>
       </c>
       <c r="G767" s="30" t="s">
-        <v>2155</v>
+        <v>2115</v>
       </c>
       <c r="J767" s="30" t="s">
-        <v>2116</v>
+        <v>2076</v>
       </c>
       <c r="K767" s="30" t="s">
-        <v>2159</v>
+        <v>2119</v>
       </c>
       <c r="M767" s="30">
         <v>-31</v>
@@ -69655,14 +69695,14 @@
         <v>0</v>
       </c>
       <c r="P767" s="30" t="s">
-        <v>2163</v>
+        <v>2123</v>
       </c>
       <c r="Q767" s="30">
         <v>19800</v>
       </c>
       <c r="S767" s="54"/>
       <c r="X767" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y767" s="30">
         <v>99999999</v>
@@ -69677,13 +69717,13 @@
         <v>94</v>
       </c>
       <c r="AC767" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD767" s="30" t="s">
-        <v>2160</v>
+        <v>2120</v>
       </c>
       <c r="AE767" s="72" t="s">
-        <v>2161</v>
+        <v>2121</v>
       </c>
       <c r="AI767" s="30">
         <v>1</v>
@@ -69709,13 +69749,13 @@
         <v>1</v>
       </c>
       <c r="G768" s="30" t="s">
-        <v>2155</v>
+        <v>2115</v>
       </c>
       <c r="J768" s="30" t="s">
-        <v>2117</v>
+        <v>2077</v>
       </c>
       <c r="K768" s="30" t="s">
-        <v>2162</v>
+        <v>2122</v>
       </c>
       <c r="M768" s="30">
         <v>-31</v>
@@ -69727,14 +69767,14 @@
         <v>0</v>
       </c>
       <c r="P768" s="30" t="s">
-        <v>2163</v>
+        <v>2123</v>
       </c>
       <c r="Q768" s="30">
         <v>29800</v>
       </c>
       <c r="S768" s="54"/>
       <c r="X768" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y768" s="30">
         <v>99999999</v>
@@ -69749,13 +69789,13 @@
         <v>95</v>
       </c>
       <c r="AC768" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD768" s="30" t="s">
-        <v>2164</v>
+        <v>2124</v>
       </c>
       <c r="AE768" s="72" t="s">
-        <v>2165</v>
+        <v>2125</v>
       </c>
       <c r="AI768" s="30">
         <v>1</v>
@@ -69781,13 +69821,13 @@
         <v>1</v>
       </c>
       <c r="G769" s="30" t="s">
-        <v>2155</v>
+        <v>2115</v>
       </c>
       <c r="J769" s="30" t="s">
-        <v>2118</v>
+        <v>2078</v>
       </c>
       <c r="K769" s="30" t="s">
-        <v>2159</v>
+        <v>2119</v>
       </c>
       <c r="M769" s="30">
         <v>-31</v>
@@ -69799,14 +69839,14 @@
         <v>0</v>
       </c>
       <c r="P769" s="30" t="s">
-        <v>2163</v>
+        <v>2123</v>
       </c>
       <c r="Q769" s="30">
         <v>19800</v>
       </c>
       <c r="S769" s="54"/>
       <c r="X769" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y769" s="30">
         <v>99999999</v>
@@ -69821,13 +69861,13 @@
         <v>92</v>
       </c>
       <c r="AC769" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD769" s="30" t="s">
-        <v>2160</v>
+        <v>2120</v>
       </c>
       <c r="AE769" s="72" t="s">
-        <v>2161</v>
+        <v>2121</v>
       </c>
       <c r="AI769" s="30">
         <v>1</v>
@@ -69853,13 +69893,13 @@
         <v>1</v>
       </c>
       <c r="G770" s="30" t="s">
-        <v>2155</v>
+        <v>2115</v>
       </c>
       <c r="J770" s="30" t="s">
+        <v>2079</v>
+      </c>
+      <c r="K770" s="30" t="s">
         <v>2119</v>
-      </c>
-      <c r="K770" s="30" t="s">
-        <v>2159</v>
       </c>
       <c r="M770" s="30">
         <v>-31</v>
@@ -69871,14 +69911,14 @@
         <v>0</v>
       </c>
       <c r="P770" s="30" t="s">
-        <v>2163</v>
+        <v>2123</v>
       </c>
       <c r="Q770" s="30">
         <v>19800</v>
       </c>
       <c r="S770" s="54"/>
       <c r="X770" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y770" s="30">
         <v>99999999</v>
@@ -69893,13 +69933,13 @@
         <v>93</v>
       </c>
       <c r="AC770" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD770" s="30" t="s">
-        <v>2160</v>
+        <v>2120</v>
       </c>
       <c r="AE770" s="72" t="s">
-        <v>2161</v>
+        <v>2121</v>
       </c>
       <c r="AI770" s="30">
         <v>1</v>
@@ -69925,13 +69965,13 @@
         <v>1</v>
       </c>
       <c r="G771" s="30" t="s">
-        <v>2155</v>
+        <v>2115</v>
       </c>
       <c r="J771" s="30" t="s">
-        <v>2120</v>
+        <v>2080</v>
       </c>
       <c r="K771" s="30" t="s">
-        <v>2167</v>
+        <v>2127</v>
       </c>
       <c r="M771" s="30">
         <v>-31</v>
@@ -69943,14 +69983,14 @@
         <v>0</v>
       </c>
       <c r="P771" s="30" t="s">
-        <v>2163</v>
+        <v>2123</v>
       </c>
       <c r="Q771" s="30">
         <v>49800</v>
       </c>
       <c r="S771" s="54"/>
       <c r="X771" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y771" s="30">
         <v>99999999</v>
@@ -69965,13 +70005,13 @@
         <v>94</v>
       </c>
       <c r="AC771" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD771" s="30" t="s">
-        <v>2168</v>
+        <v>2128</v>
       </c>
       <c r="AE771" s="72" t="s">
-        <v>2169</v>
+        <v>2129</v>
       </c>
       <c r="AI771" s="30">
         <v>1</v>
@@ -69997,13 +70037,13 @@
         <v>1</v>
       </c>
       <c r="G772" s="30" t="s">
-        <v>2155</v>
+        <v>2115</v>
       </c>
       <c r="J772" s="30" t="s">
-        <v>2121</v>
+        <v>2081</v>
       </c>
       <c r="K772" s="30" t="s">
-        <v>2167</v>
+        <v>2127</v>
       </c>
       <c r="M772" s="30">
         <v>-31</v>
@@ -70015,14 +70055,14 @@
         <v>0</v>
       </c>
       <c r="P772" s="30" t="s">
-        <v>2163</v>
+        <v>2123</v>
       </c>
       <c r="Q772" s="30">
         <v>49800</v>
       </c>
       <c r="S772" s="54"/>
       <c r="X772" s="30" t="s">
-        <v>2110</v>
+        <v>2070</v>
       </c>
       <c r="Y772" s="30">
         <v>99999999</v>
@@ -70037,13 +70077,13 @@
         <v>95</v>
       </c>
       <c r="AC772" s="30" t="s">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="AD772" s="30" t="s">
-        <v>2168</v>
+        <v>2128</v>
       </c>
       <c r="AE772" s="72" t="s">
-        <v>2169</v>
+        <v>2129</v>
       </c>
       <c r="AI772" s="30">
         <v>1</v>
@@ -70069,13 +70109,13 @@
         <v>0</v>
       </c>
       <c r="G773" s="30" t="s">
-        <v>2172</v>
-      </c>
-      <c r="J773" s="92" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J773" s="91" t="s">
         <v>1547</v>
       </c>
       <c r="K773" s="30" t="s">
-        <v>2173</v>
+        <v>2133</v>
       </c>
       <c r="M773" s="30">
         <v>-31</v>
@@ -70087,19 +70127,19 @@
         <v>0</v>
       </c>
       <c r="P773" s="30" t="s">
-        <v>2174</v>
+        <v>2134</v>
       </c>
       <c r="Q773" s="30">
         <v>600</v>
       </c>
       <c r="R773" s="30" t="s">
-        <v>2176</v>
+        <v>2136</v>
       </c>
       <c r="S773" s="54" t="s">
-        <v>2177</v>
+        <v>2137</v>
       </c>
       <c r="X773" s="30" t="s">
-        <v>2178</v>
+        <v>2138</v>
       </c>
       <c r="Y773" s="30">
         <v>99999999</v>
@@ -70137,13 +70177,13 @@
         <v>0</v>
       </c>
       <c r="G774" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J774" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J774" s="91" t="s">
         <v>1547</v>
       </c>
       <c r="K774" s="30" t="s">
-        <v>2179</v>
+        <v>2139</v>
       </c>
       <c r="M774" s="30">
         <v>-31</v>
@@ -70155,19 +70195,19 @@
         <v>0</v>
       </c>
       <c r="P774" s="30" t="s">
-        <v>2174</v>
+        <v>2134</v>
       </c>
       <c r="Q774" s="30">
         <v>1000</v>
       </c>
       <c r="R774" s="30" t="s">
-        <v>2175</v>
+        <v>2135</v>
       </c>
       <c r="S774" s="54" t="s">
-        <v>2180</v>
+        <v>2140</v>
       </c>
       <c r="X774" s="30" t="s">
-        <v>2181</v>
+        <v>2141</v>
       </c>
       <c r="Y774" s="30">
         <v>99999999</v>
@@ -70205,13 +70245,13 @@
         <v>0</v>
       </c>
       <c r="G775" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J775" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J775" s="91" t="s">
         <v>1547</v>
       </c>
       <c r="K775" s="30" t="s">
-        <v>2182</v>
+        <v>2142</v>
       </c>
       <c r="M775" s="30">
         <v>-31</v>
@@ -70223,16 +70263,16 @@
         <v>0</v>
       </c>
       <c r="P775" s="30" t="s">
-        <v>2174</v>
+        <v>2134</v>
       </c>
       <c r="Q775" s="30">
         <v>1800</v>
       </c>
       <c r="R775" s="30" t="s">
-        <v>2175</v>
+        <v>2135</v>
       </c>
       <c r="S775" s="54" t="s">
-        <v>2183</v>
+        <v>2143</v>
       </c>
       <c r="X775" s="30" t="s">
         <v>482</v>
@@ -70273,13 +70313,13 @@
         <v>0</v>
       </c>
       <c r="G776" s="30" t="s">
-        <v>2172</v>
-      </c>
-      <c r="J776" s="92" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J776" s="91" t="s">
         <v>1547</v>
       </c>
       <c r="K776" s="30" t="s">
-        <v>2184</v>
+        <v>2144</v>
       </c>
       <c r="M776" s="30">
         <v>-31</v>
@@ -70297,10 +70337,10 @@
         <v>3400</v>
       </c>
       <c r="R776" s="30" t="s">
-        <v>2185</v>
+        <v>2145</v>
       </c>
       <c r="S776" s="54" t="s">
-        <v>2186</v>
+        <v>2146</v>
       </c>
       <c r="X776" s="30" t="s">
         <v>482</v>
@@ -70341,13 +70381,13 @@
         <v>0</v>
       </c>
       <c r="G777" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J777" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J777" s="91" t="s">
         <v>1554</v>
       </c>
       <c r="K777" s="30" t="s">
-        <v>2187</v>
+        <v>2147</v>
       </c>
       <c r="M777" s="30">
         <v>-31</v>
@@ -70365,10 +70405,10 @@
         <v>1800</v>
       </c>
       <c r="R777" s="30" t="s">
-        <v>2188</v>
+        <v>2148</v>
       </c>
       <c r="S777" s="54" t="s">
-        <v>2189</v>
+        <v>2149</v>
       </c>
       <c r="X777" s="30" t="s">
         <v>482</v>
@@ -70409,13 +70449,13 @@
         <v>0</v>
       </c>
       <c r="G778" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J778" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J778" s="91" t="s">
         <v>1554</v>
       </c>
       <c r="K778" s="30" t="s">
-        <v>2190</v>
+        <v>2150</v>
       </c>
       <c r="M778" s="30">
         <v>-31</v>
@@ -70433,10 +70473,10 @@
         <v>3000</v>
       </c>
       <c r="R778" s="30" t="s">
-        <v>2188</v>
+        <v>2148</v>
       </c>
       <c r="S778" s="54" t="s">
-        <v>2191</v>
+        <v>2151</v>
       </c>
       <c r="X778" s="30" t="s">
         <v>482</v>
@@ -70477,13 +70517,13 @@
         <v>0</v>
       </c>
       <c r="G779" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J779" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J779" s="91" t="s">
         <v>1554</v>
       </c>
       <c r="K779" s="30" t="s">
-        <v>2192</v>
+        <v>2152</v>
       </c>
       <c r="M779" s="30">
         <v>-31</v>
@@ -70501,10 +70541,10 @@
         <v>4800</v>
       </c>
       <c r="R779" s="30" t="s">
-        <v>2188</v>
+        <v>2148</v>
       </c>
       <c r="S779" s="54" t="s">
-        <v>2193</v>
+        <v>2153</v>
       </c>
       <c r="X779" s="30" t="s">
         <v>482</v>
@@ -70545,13 +70585,13 @@
         <v>0</v>
       </c>
       <c r="G780" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J780" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J780" s="91" t="s">
         <v>1554</v>
       </c>
       <c r="K780" s="30" t="s">
-        <v>2194</v>
+        <v>2154</v>
       </c>
       <c r="M780" s="30">
         <v>-31</v>
@@ -70563,16 +70603,16 @@
         <v>0</v>
       </c>
       <c r="P780" s="30" t="s">
-        <v>2174</v>
+        <v>2134</v>
       </c>
       <c r="Q780" s="30">
         <v>9600</v>
       </c>
       <c r="R780" s="30" t="s">
-        <v>2195</v>
+        <v>2155</v>
       </c>
       <c r="S780" s="54" t="s">
-        <v>2196</v>
+        <v>2156</v>
       </c>
       <c r="X780" s="30" t="s">
         <v>482</v>
@@ -70613,13 +70653,13 @@
         <v>0</v>
       </c>
       <c r="G781" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J781" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J781" s="91" t="s">
         <v>1561</v>
       </c>
       <c r="K781" s="30" t="s">
-        <v>2197</v>
+        <v>2157</v>
       </c>
       <c r="M781" s="30">
         <v>-31</v>
@@ -70637,10 +70677,10 @@
         <v>4800</v>
       </c>
       <c r="R781" s="30" t="s">
-        <v>2188</v>
+        <v>2148</v>
       </c>
       <c r="S781" s="54" t="s">
-        <v>2198</v>
+        <v>2158</v>
       </c>
       <c r="X781" s="30" t="s">
         <v>482</v>
@@ -70681,13 +70721,13 @@
         <v>0</v>
       </c>
       <c r="G782" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J782" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J782" s="91" t="s">
         <v>1561</v>
       </c>
       <c r="K782" s="30" t="s">
-        <v>2199</v>
+        <v>2159</v>
       </c>
       <c r="M782" s="30">
         <v>-31</v>
@@ -70705,10 +70745,10 @@
         <v>9800</v>
       </c>
       <c r="R782" s="30" t="s">
-        <v>2188</v>
+        <v>2148</v>
       </c>
       <c r="S782" s="54" t="s">
-        <v>2200</v>
+        <v>2160</v>
       </c>
       <c r="X782" s="30" t="s">
         <v>482</v>
@@ -70749,13 +70789,13 @@
         <v>0</v>
       </c>
       <c r="G783" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J783" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J783" s="91" t="s">
         <v>1561</v>
       </c>
       <c r="K783" s="30" t="s">
-        <v>2201</v>
+        <v>2161</v>
       </c>
       <c r="M783" s="30">
         <v>-31</v>
@@ -70767,16 +70807,16 @@
         <v>0</v>
       </c>
       <c r="P783" s="30" t="s">
-        <v>2174</v>
+        <v>2134</v>
       </c>
       <c r="Q783" s="30">
         <v>19800</v>
       </c>
       <c r="R783" s="30" t="s">
-        <v>2188</v>
+        <v>2148</v>
       </c>
       <c r="S783" s="54" t="s">
-        <v>2202</v>
+        <v>2162</v>
       </c>
       <c r="X783" s="30" t="s">
         <v>482</v>
@@ -70817,13 +70857,13 @@
         <v>0</v>
       </c>
       <c r="G784" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J784" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J784" s="91" t="s">
         <v>1561</v>
       </c>
       <c r="K784" s="30" t="s">
-        <v>2203</v>
+        <v>2163</v>
       </c>
       <c r="M784" s="30">
         <v>-31</v>
@@ -70841,10 +70881,10 @@
         <v>34400</v>
       </c>
       <c r="R784" s="30" t="s">
-        <v>2195</v>
+        <v>2155</v>
       </c>
       <c r="S784" s="54" t="s">
-        <v>2204</v>
+        <v>2164</v>
       </c>
       <c r="X784" s="30" t="s">
         <v>482</v>
@@ -70885,13 +70925,13 @@
         <v>0</v>
       </c>
       <c r="G785" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J785" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J785" s="91" t="s">
         <v>1450</v>
       </c>
       <c r="K785" s="30" t="s">
-        <v>2205</v>
+        <v>2165</v>
       </c>
       <c r="M785" s="30">
         <v>-31</v>
@@ -70909,10 +70949,10 @@
         <v>9800</v>
       </c>
       <c r="R785" s="30" t="s">
-        <v>2206</v>
+        <v>2166</v>
       </c>
       <c r="S785" s="54" t="s">
-        <v>2207</v>
+        <v>2167</v>
       </c>
       <c r="X785" s="30" t="s">
         <v>482</v>
@@ -70953,13 +70993,13 @@
         <v>0</v>
       </c>
       <c r="G786" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J786" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J786" s="91" t="s">
         <v>1450</v>
       </c>
       <c r="K786" s="30" t="s">
-        <v>2208</v>
+        <v>2168</v>
       </c>
       <c r="M786" s="30">
         <v>-31</v>
@@ -70977,10 +71017,10 @@
         <v>19800</v>
       </c>
       <c r="R786" s="30" t="s">
-        <v>2206</v>
+        <v>2166</v>
       </c>
       <c r="S786" s="54" t="s">
-        <v>2209</v>
+        <v>2169</v>
       </c>
       <c r="X786" s="30" t="s">
         <v>482</v>
@@ -71021,13 +71061,13 @@
         <v>0</v>
       </c>
       <c r="G787" s="30" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J787" s="92" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J787" s="91" t="s">
         <v>1450</v>
       </c>
       <c r="K787" s="30" t="s">
-        <v>2210</v>
+        <v>2170</v>
       </c>
       <c r="M787" s="30">
         <v>-31</v>
@@ -71045,10 +71085,10 @@
         <v>49800</v>
       </c>
       <c r="R787" s="30" t="s">
-        <v>2206</v>
+        <v>2166</v>
       </c>
       <c r="S787" s="54" t="s">
-        <v>2211</v>
+        <v>2171</v>
       </c>
       <c r="X787" s="30" t="s">
         <v>482</v>
@@ -71089,13 +71129,13 @@
         <v>0</v>
       </c>
       <c r="G788" s="30" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J788" s="91" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K788" s="30" t="s">
         <v>2172</v>
-      </c>
-      <c r="J788" s="92" t="s">
-        <v>1450</v>
-      </c>
-      <c r="K788" s="30" t="s">
-        <v>2212</v>
       </c>
       <c r="M788" s="30">
         <v>-31</v>
@@ -71107,16 +71147,16 @@
         <v>0</v>
       </c>
       <c r="P788" s="30" t="s">
-        <v>2174</v>
+        <v>2134</v>
       </c>
       <c r="Q788" s="30">
         <v>79400</v>
       </c>
       <c r="R788" s="30" t="s">
-        <v>2213</v>
+        <v>2173</v>
       </c>
       <c r="S788" s="54" t="s">
-        <v>2214</v>
+        <v>2174</v>
       </c>
       <c r="X788" s="30" t="s">
         <v>482</v>
@@ -72393,7 +72433,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="73" t="s">
-        <v>2122</v>
+        <v>2082</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -72407,7 +72447,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="73" t="s">
-        <v>2123</v>
+        <v>2083</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -72421,7 +72461,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="73" t="s">
-        <v>2124</v>
+        <v>2084</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -72435,7 +72475,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="73" t="s">
-        <v>2125</v>
+        <v>2085</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -72449,7 +72489,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="73" t="s">
-        <v>2126</v>
+        <v>2086</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -72463,7 +72503,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="73" t="s">
-        <v>2127</v>
+        <v>2087</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -72477,7 +72517,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="73" t="s">
-        <v>2128</v>
+        <v>2088</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -72491,7 +72531,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="73" t="s">
-        <v>2129</v>
+        <v>2089</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -72505,7 +72545,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="73" t="s">
-        <v>2130</v>
+        <v>2090</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -72519,7 +72559,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="73" t="s">
-        <v>2131</v>
+        <v>2091</v>
       </c>
       <c r="C96">
         <v>1</v>

--- a/config_12.21/shoping_config_xiaomi.xlsx
+++ b/config_12.21/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2216">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7607,10 +7607,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,2,9,9,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>5,1,0</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8452,6 +8448,54 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>600000,1,1,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3400000,6,6,6,200000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","稀有宝箱*1","狂暴*3","子弹加速*3",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","稀有宝箱*2","狂暴*5","子弹加速*5",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,2,5,5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9600000,4,12,12,300000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,5,5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","史诗宝箱*2","狂暴*6","子弹加速*6",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,2,6,6,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>79400000,8,27,27,2000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>一键礼包类型</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8464,38 +8508,22 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"100万金币","稀有宝箱*2","狂暴*2","子弹加速*2",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>600000,1,1,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","稀有宝箱*2","狂暴*2","子弹加速*2",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>1000000,2,2,2,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"180万金币","稀有宝箱*3","狂暴*3","子弹加速*3",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>1800000,3,3,3,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8508,18 +8536,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>3400000,6,6,6,200000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","稀有宝箱*1","狂暴*3","子弹加速*3",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>1800000,1,3,3,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8528,22 +8544,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>3000000,1,4,4,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"480万金币","稀有宝箱*2","狂暴*5","子弹加速*5",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,2,5,5,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"960万金币","稀有宝箱*4","狂暴*12","子弹加速*12","30万鱼币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8552,38 +8556,14 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>9600000,4,12,12,300000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"480万金币","史诗宝箱*1","狂暴*5","子弹加速*5",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,1,5,5,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","史诗宝箱*2","狂暴*6","子弹加速*6",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,2,6,6,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"1980万金币","史诗宝箱*3","狂暴*7","子弹加速*7",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8616,7 +8596,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <t>19800000,2,9,9,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8624,10 +8604,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>49800000,5,10,10,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8636,19 +8612,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>79400000,8,27,27,2000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -63036,7 +63000,7 @@
         <v>1</v>
       </c>
       <c r="G671" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H671" s="90" t="s">
         <v>1892</v>
@@ -63045,7 +63009,7 @@
         <v>1547</v>
       </c>
       <c r="K671" s="90" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="M671" s="90">
         <v>-31</v>
@@ -63063,7 +63027,7 @@
         <v>600</v>
       </c>
       <c r="R671" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S671" s="74" t="s">
         <v>1569</v>
@@ -63107,7 +63071,7 @@
         <v>1</v>
       </c>
       <c r="G672" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H672" s="90" t="s">
         <v>1892</v>
@@ -63116,7 +63080,7 @@
         <v>1547</v>
       </c>
       <c r="K672" s="90" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="M672" s="90">
         <v>-31</v>
@@ -63134,7 +63098,7 @@
         <v>1000</v>
       </c>
       <c r="R672" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S672" s="74" t="s">
         <v>1571</v>
@@ -63178,7 +63142,7 @@
         <v>1</v>
       </c>
       <c r="G673" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H673" s="90" t="s">
         <v>1892</v>
@@ -63187,7 +63151,7 @@
         <v>1547</v>
       </c>
       <c r="K673" s="90" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="M673" s="90">
         <v>-31</v>
@@ -63205,7 +63169,7 @@
         <v>1800</v>
       </c>
       <c r="R673" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S673" s="74" t="s">
         <v>1573</v>
@@ -63249,7 +63213,7 @@
         <v>1</v>
       </c>
       <c r="G674" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H674" s="90" t="s">
         <v>1892</v>
@@ -63276,7 +63240,7 @@
         <v>1800</v>
       </c>
       <c r="R674" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S674" s="74" t="s">
         <v>1556</v>
@@ -63320,7 +63284,7 @@
         <v>1</v>
       </c>
       <c r="G675" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H675" s="90" t="s">
         <v>1892</v>
@@ -63347,7 +63311,7 @@
         <v>3000</v>
       </c>
       <c r="R675" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S675" s="74" t="s">
         <v>1558</v>
@@ -63391,7 +63355,7 @@
         <v>1</v>
       </c>
       <c r="G676" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H676" s="90" t="s">
         <v>1892</v>
@@ -63418,7 +63382,7 @@
         <v>4800</v>
       </c>
       <c r="R676" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S676" s="74" t="s">
         <v>1560</v>
@@ -63462,7 +63426,7 @@
         <v>1</v>
       </c>
       <c r="G677" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H677" s="90" t="s">
         <v>1892</v>
@@ -63489,7 +63453,7 @@
         <v>4800</v>
       </c>
       <c r="R677" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S677" s="74" t="s">
         <v>1560</v>
@@ -63533,7 +63497,7 @@
         <v>1</v>
       </c>
       <c r="G678" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H678" s="90" t="s">
         <v>1892</v>
@@ -63560,7 +63524,7 @@
         <v>9800</v>
       </c>
       <c r="R678" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S678" s="74" t="s">
         <v>1563</v>
@@ -63604,7 +63568,7 @@
         <v>1</v>
       </c>
       <c r="G679" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H679" s="90" t="s">
         <v>1892</v>
@@ -63631,7 +63595,7 @@
         <v>19800</v>
       </c>
       <c r="R679" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S679" s="74" t="s">
         <v>1565</v>
@@ -63675,7 +63639,7 @@
         <v>1</v>
       </c>
       <c r="G680" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H680" s="90" t="s">
         <v>1892</v>
@@ -63702,7 +63666,7 @@
         <v>9800</v>
       </c>
       <c r="R680" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S680" s="74" t="s">
         <v>1563</v>
@@ -63746,7 +63710,7 @@
         <v>1</v>
       </c>
       <c r="G681" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H681" s="90" t="s">
         <v>1892</v>
@@ -63773,7 +63737,7 @@
         <v>19800</v>
       </c>
       <c r="R681" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S681" s="74" t="s">
         <v>1565</v>
@@ -63817,7 +63781,7 @@
         <v>1</v>
       </c>
       <c r="G682" s="90" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H682" s="90" t="s">
         <v>1892</v>
@@ -63844,7 +63808,7 @@
         <v>49800</v>
       </c>
       <c r="R682" s="90" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="S682" s="74" t="s">
         <v>1567</v>
@@ -65671,13 +65635,13 @@
         <v>177</v>
       </c>
       <c r="H709" s="93" t="s">
-        <v>2175</v>
+        <v>2186</v>
       </c>
       <c r="J709" s="92" t="s">
         <v>1547</v>
       </c>
       <c r="K709" s="92" t="s">
-        <v>2176</v>
+        <v>2187</v>
       </c>
       <c r="M709" s="92">
         <v>-31</v>
@@ -65689,28 +65653,28 @@
         <v>0</v>
       </c>
       <c r="P709" s="92" t="s">
-        <v>2177</v>
+        <v>2188</v>
       </c>
       <c r="Q709" s="92">
         <v>600</v>
       </c>
       <c r="R709" s="92" t="s">
-        <v>2178</v>
+        <v>1961</v>
       </c>
       <c r="S709" s="74" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="X709" s="92" t="s">
-        <v>2180</v>
+        <v>1950</v>
       </c>
       <c r="Y709" s="92">
         <v>99999999</v>
       </c>
       <c r="Z709" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA709" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB709" s="92">
         <v>80</v>
@@ -65746,7 +65710,7 @@
         <v>1547</v>
       </c>
       <c r="K710" s="92" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="M710" s="92">
         <v>-31</v>
@@ -65764,22 +65728,22 @@
         <v>1000</v>
       </c>
       <c r="R710" s="92" t="s">
-        <v>2178</v>
+        <v>2190</v>
       </c>
       <c r="S710" s="74" t="s">
-        <v>2182</v>
+        <v>2191</v>
       </c>
       <c r="X710" s="92" t="s">
-        <v>2183</v>
+        <v>1950</v>
       </c>
       <c r="Y710" s="92">
         <v>99999999</v>
       </c>
       <c r="Z710" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA710" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB710" s="92">
         <v>80</v>
@@ -65815,7 +65779,7 @@
         <v>1547</v>
       </c>
       <c r="K711" s="92" t="s">
-        <v>2184</v>
+        <v>2192</v>
       </c>
       <c r="M711" s="92">
         <v>-31</v>
@@ -65827,16 +65791,16 @@
         <v>0</v>
       </c>
       <c r="P711" s="92" t="s">
-        <v>2185</v>
+        <v>1864</v>
       </c>
       <c r="Q711" s="92">
         <v>1800</v>
       </c>
       <c r="R711" s="92" t="s">
-        <v>1961</v>
+        <v>2190</v>
       </c>
       <c r="S711" s="74" t="s">
-        <v>2186</v>
+        <v>2193</v>
       </c>
       <c r="X711" s="92" t="s">
         <v>482</v>
@@ -65845,10 +65809,10 @@
         <v>99999999</v>
       </c>
       <c r="Z711" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA711" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB711" s="92">
         <v>80</v>
@@ -65884,7 +65848,7 @@
         <v>1547</v>
       </c>
       <c r="K712" s="92" t="s">
-        <v>2187</v>
+        <v>2194</v>
       </c>
       <c r="M712" s="92">
         <v>-31</v>
@@ -65902,10 +65866,10 @@
         <v>3400</v>
       </c>
       <c r="R712" s="92" t="s">
-        <v>2188</v>
+        <v>2195</v>
       </c>
       <c r="S712" s="74" t="s">
-        <v>2189</v>
+        <v>2175</v>
       </c>
       <c r="X712" s="92" t="s">
         <v>482</v>
@@ -65914,10 +65878,10 @@
         <v>99999999</v>
       </c>
       <c r="Z712" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA712" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB712" s="92">
         <v>80</v>
@@ -65953,7 +65917,7 @@
         <v>1554</v>
       </c>
       <c r="K713" s="92" t="s">
-        <v>2190</v>
+        <v>2176</v>
       </c>
       <c r="M713" s="92">
         <v>-31</v>
@@ -65965,7 +65929,7 @@
         <v>0</v>
       </c>
       <c r="P713" s="92" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="Q713" s="92">
         <v>1800</v>
@@ -65974,7 +65938,7 @@
         <v>1961</v>
       </c>
       <c r="S713" s="74" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="X713" s="92" t="s">
         <v>482</v>
@@ -65983,10 +65947,10 @@
         <v>99999999</v>
       </c>
       <c r="Z713" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA713" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB713" s="92">
         <v>81</v>
@@ -66022,7 +65986,7 @@
         <v>1554</v>
       </c>
       <c r="K714" s="92" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="M714" s="92">
         <v>-31</v>
@@ -66034,16 +65998,16 @@
         <v>0</v>
       </c>
       <c r="P714" s="92" t="s">
-        <v>2177</v>
+        <v>2188</v>
       </c>
       <c r="Q714" s="92">
         <v>3000</v>
       </c>
       <c r="R714" s="92" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="S714" s="74" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="X714" s="92" t="s">
         <v>482</v>
@@ -66052,10 +66016,10 @@
         <v>99999999</v>
       </c>
       <c r="Z714" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA714" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB714" s="92">
         <v>81</v>
@@ -66091,7 +66055,7 @@
         <v>1554</v>
       </c>
       <c r="K715" s="92" t="s">
-        <v>2196</v>
+        <v>2177</v>
       </c>
       <c r="M715" s="92">
         <v>-31</v>
@@ -66103,7 +66067,7 @@
         <v>0</v>
       </c>
       <c r="P715" s="92" t="s">
-        <v>2177</v>
+        <v>2188</v>
       </c>
       <c r="Q715" s="92">
         <v>4800</v>
@@ -66112,7 +66076,7 @@
         <v>1961</v>
       </c>
       <c r="S715" s="74" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="X715" s="92" t="s">
         <v>482</v>
@@ -66121,10 +66085,10 @@
         <v>99999999</v>
       </c>
       <c r="Z715" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA715" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB715" s="92">
         <v>81</v>
@@ -66160,7 +66124,7 @@
         <v>1554</v>
       </c>
       <c r="K716" s="92" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="M716" s="92">
         <v>-31</v>
@@ -66172,16 +66136,16 @@
         <v>0</v>
       </c>
       <c r="P716" s="92" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="Q716" s="92">
         <v>9600</v>
       </c>
       <c r="R716" s="92" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="S716" s="74" t="s">
-        <v>2200</v>
+        <v>2179</v>
       </c>
       <c r="X716" s="92" t="s">
         <v>482</v>
@@ -66190,10 +66154,10 @@
         <v>99999999</v>
       </c>
       <c r="Z716" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA716" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB716" s="92">
         <v>81</v>
@@ -66241,16 +66205,16 @@
         <v>0</v>
       </c>
       <c r="P717" s="92" t="s">
-        <v>2202</v>
+        <v>2188</v>
       </c>
       <c r="Q717" s="92">
         <v>4800</v>
       </c>
       <c r="R717" s="92" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="S717" s="74" t="s">
-        <v>2204</v>
+        <v>2181</v>
       </c>
       <c r="X717" s="92" t="s">
         <v>482</v>
@@ -66259,10 +66223,10 @@
         <v>99999999</v>
       </c>
       <c r="Z717" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA717" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB717" s="92">
         <v>82</v>
@@ -66298,7 +66262,7 @@
         <v>1561</v>
       </c>
       <c r="K718" s="92" t="s">
-        <v>2205</v>
+        <v>2182</v>
       </c>
       <c r="M718" s="92">
         <v>-31</v>
@@ -66310,16 +66274,16 @@
         <v>0</v>
       </c>
       <c r="P718" s="92" t="s">
-        <v>2202</v>
+        <v>2188</v>
       </c>
       <c r="Q718" s="92">
         <v>9800</v>
       </c>
       <c r="R718" s="92" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="S718" s="74" t="s">
-        <v>2207</v>
+        <v>2183</v>
       </c>
       <c r="X718" s="92" t="s">
         <v>482</v>
@@ -66328,10 +66292,10 @@
         <v>99999999</v>
       </c>
       <c r="Z718" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA718" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB718" s="92">
         <v>82</v>
@@ -66367,7 +66331,7 @@
         <v>1561</v>
       </c>
       <c r="K719" s="92" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
       <c r="M719" s="92">
         <v>-31</v>
@@ -66379,16 +66343,16 @@
         <v>0</v>
       </c>
       <c r="P719" s="92" t="s">
-        <v>2202</v>
+        <v>1864</v>
       </c>
       <c r="Q719" s="92">
         <v>19800</v>
       </c>
       <c r="R719" s="92" t="s">
-        <v>2206</v>
+        <v>2180</v>
       </c>
       <c r="S719" s="74" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="X719" s="92" t="s">
         <v>482</v>
@@ -66397,10 +66361,10 @@
         <v>99999999</v>
       </c>
       <c r="Z719" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA719" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB719" s="92">
         <v>82</v>
@@ -66436,7 +66400,7 @@
         <v>1561</v>
       </c>
       <c r="K720" s="92" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="M720" s="92">
         <v>-31</v>
@@ -66448,16 +66412,16 @@
         <v>0</v>
       </c>
       <c r="P720" s="92" t="s">
-        <v>2177</v>
+        <v>1864</v>
       </c>
       <c r="Q720" s="92">
         <v>34400</v>
       </c>
       <c r="R720" s="92" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
       <c r="S720" s="74" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
       <c r="X720" s="92" t="s">
         <v>482</v>
@@ -66466,10 +66430,10 @@
         <v>99999999</v>
       </c>
       <c r="Z720" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA720" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB720" s="92">
         <v>82</v>
@@ -66505,7 +66469,7 @@
         <v>1450</v>
       </c>
       <c r="K721" s="92" t="s">
-        <v>2213</v>
+        <v>2208</v>
       </c>
       <c r="M721" s="92">
         <v>-31</v>
@@ -66517,16 +66481,16 @@
         <v>0</v>
       </c>
       <c r="P721" s="92" t="s">
-        <v>2185</v>
+        <v>1864</v>
       </c>
       <c r="Q721" s="92">
         <v>9800</v>
       </c>
       <c r="R721" s="92" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
       <c r="S721" s="74" t="s">
-        <v>2215</v>
+        <v>2210</v>
       </c>
       <c r="X721" s="92" t="s">
         <v>482</v>
@@ -66535,10 +66499,10 @@
         <v>99999999</v>
       </c>
       <c r="Z721" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA721" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB721" s="92">
         <v>83</v>
@@ -66586,16 +66550,16 @@
         <v>0</v>
       </c>
       <c r="P722" s="92" t="s">
-        <v>2202</v>
+        <v>2188</v>
       </c>
       <c r="Q722" s="92">
         <v>19800</v>
       </c>
       <c r="R722" s="92" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="S722" s="74" t="s">
-        <v>1966</v>
+        <v>2211</v>
       </c>
       <c r="X722" s="92" t="s">
         <v>482</v>
@@ -66604,10 +66568,10 @@
         <v>99999999</v>
       </c>
       <c r="Z722" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA722" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB722" s="92">
         <v>83</v>
@@ -66643,7 +66607,7 @@
         <v>1450</v>
       </c>
       <c r="K723" s="92" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
       <c r="M723" s="92">
         <v>-31</v>
@@ -66655,16 +66619,16 @@
         <v>0</v>
       </c>
       <c r="P723" s="92" t="s">
-        <v>2177</v>
+        <v>2188</v>
       </c>
       <c r="Q723" s="92">
         <v>49800</v>
       </c>
       <c r="R723" s="92" t="s">
-        <v>2218</v>
+        <v>2184</v>
       </c>
       <c r="S723" s="74" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="X723" s="92" t="s">
         <v>482</v>
@@ -66673,10 +66637,10 @@
         <v>99999999</v>
       </c>
       <c r="Z723" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA723" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB723" s="92">
         <v>83</v>
@@ -66712,7 +66676,7 @@
         <v>1450</v>
       </c>
       <c r="K724" s="92" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="M724" s="92">
         <v>-31</v>
@@ -66724,28 +66688,28 @@
         <v>0</v>
       </c>
       <c r="P724" s="92" t="s">
-        <v>2221</v>
+        <v>2188</v>
       </c>
       <c r="Q724" s="92">
         <v>79400</v>
       </c>
       <c r="R724" s="92" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
       <c r="S724" s="74" t="s">
-        <v>2223</v>
+        <v>2185</v>
       </c>
       <c r="X724" s="92" t="s">
-        <v>2224</v>
+        <v>1950</v>
       </c>
       <c r="Y724" s="92">
         <v>99999999</v>
       </c>
       <c r="Z724" s="92">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="AA724" s="92">
-        <v>1636991999</v>
+        <v>1640620799</v>
       </c>
       <c r="AB724" s="92">
         <v>83</v>
@@ -66793,7 +66757,7 @@
       </c>
       <c r="S725" s="54"/>
       <c r="X725" s="30" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="Y725" s="30">
         <v>99999999</v>
@@ -66831,16 +66795,16 @@
         <v>0</v>
       </c>
       <c r="G726" s="30" t="s">
+        <v>1968</v>
+      </c>
+      <c r="H726" s="94" t="s">
         <v>1969</v>
-      </c>
-      <c r="H726" s="94" t="s">
-        <v>1970</v>
       </c>
       <c r="J726" s="21" t="s">
         <v>1554</v>
       </c>
       <c r="K726" s="30" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="M726" s="30">
         <v>-31</v>
@@ -66858,10 +66822,10 @@
         <v>1800</v>
       </c>
       <c r="R726" s="30" t="s">
+        <v>1972</v>
+      </c>
+      <c r="S726" s="54" t="s">
         <v>1973</v>
-      </c>
-      <c r="S726" s="54" t="s">
-        <v>1974</v>
       </c>
       <c r="X726" s="30" t="s">
         <v>1963</v>
@@ -66902,14 +66866,14 @@
         <v>0</v>
       </c>
       <c r="G727" s="30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H727" s="94"/>
       <c r="J727" s="21" t="s">
         <v>1554</v>
       </c>
       <c r="K727" s="30" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="M727" s="30">
         <v>-31</v>
@@ -66927,10 +66891,10 @@
         <v>3000</v>
       </c>
       <c r="R727" s="30" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S727" s="54" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="X727" s="30" t="s">
         <v>1963</v>
@@ -66971,14 +66935,14 @@
         <v>0</v>
       </c>
       <c r="G728" s="30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H728" s="94"/>
       <c r="J728" s="21" t="s">
         <v>1554</v>
       </c>
       <c r="K728" s="30" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="M728" s="30">
         <v>-31</v>
@@ -66996,10 +66960,10 @@
         <v>4800</v>
       </c>
       <c r="R728" s="30" t="s">
+        <v>1977</v>
+      </c>
+      <c r="S728" s="54" t="s">
         <v>1978</v>
-      </c>
-      <c r="S728" s="54" t="s">
-        <v>1979</v>
       </c>
       <c r="X728" s="30" t="s">
         <v>482</v>
@@ -67040,14 +67004,14 @@
         <v>0</v>
       </c>
       <c r="G729" s="30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H729" s="94"/>
       <c r="J729" s="21" t="s">
         <v>1554</v>
       </c>
       <c r="K729" s="30" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="M729" s="30">
         <v>-31</v>
@@ -67065,10 +67029,10 @@
         <v>9600</v>
       </c>
       <c r="R729" s="30" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S729" s="54" t="s">
         <v>1981</v>
-      </c>
-      <c r="S729" s="54" t="s">
-        <v>1982</v>
       </c>
       <c r="X729" s="30" t="s">
         <v>482</v>
@@ -67109,14 +67073,14 @@
         <v>0</v>
       </c>
       <c r="G730" s="30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H730" s="94"/>
       <c r="J730" s="21" t="s">
         <v>1561</v>
       </c>
       <c r="K730" s="30" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="M730" s="30">
         <v>-31</v>
@@ -67134,10 +67098,10 @@
         <v>4800</v>
       </c>
       <c r="R730" s="30" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="S730" s="54" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="X730" s="30" t="s">
         <v>482</v>
@@ -67178,14 +67142,14 @@
         <v>0</v>
       </c>
       <c r="G731" s="30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H731" s="94"/>
       <c r="J731" s="21" t="s">
         <v>1561</v>
       </c>
       <c r="K731" s="30" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="M731" s="30">
         <v>-31</v>
@@ -67203,10 +67167,10 @@
         <v>9800</v>
       </c>
       <c r="R731" s="30" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="S731" s="54" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="X731" s="30" t="s">
         <v>482</v>
@@ -67247,14 +67211,14 @@
         <v>0</v>
       </c>
       <c r="G732" s="30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H732" s="94"/>
       <c r="J732" s="21" t="s">
         <v>1561</v>
       </c>
       <c r="K732" s="30" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="M732" s="30">
         <v>-31</v>
@@ -67272,10 +67236,10 @@
         <v>19800</v>
       </c>
       <c r="R732" s="30" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="S732" s="54" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="X732" s="30" t="s">
         <v>482</v>
@@ -67316,14 +67280,14 @@
         <v>0</v>
       </c>
       <c r="G733" s="30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H733" s="94"/>
       <c r="J733" s="21" t="s">
         <v>1561</v>
       </c>
       <c r="K733" s="30" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="M733" s="30">
         <v>-31</v>
@@ -67341,10 +67305,10 @@
         <v>34400</v>
       </c>
       <c r="R733" s="30" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="S733" s="54" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="X733" s="30" t="s">
         <v>482</v>
@@ -67385,14 +67349,14 @@
         <v>0</v>
       </c>
       <c r="G734" s="30" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="H734" s="94"/>
       <c r="J734" s="21" t="s">
         <v>1450</v>
       </c>
       <c r="K734" s="30" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="M734" s="30">
         <v>-31</v>
@@ -67410,10 +67374,10 @@
         <v>9800</v>
       </c>
       <c r="R734" s="30" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="S734" s="54" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="X734" s="30" t="s">
         <v>482</v>
@@ -67454,14 +67418,14 @@
         <v>0</v>
       </c>
       <c r="G735" s="30" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="H735" s="94"/>
       <c r="J735" s="21" t="s">
         <v>1450</v>
       </c>
       <c r="K735" s="30" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="M735" s="30">
         <v>-31</v>
@@ -67479,10 +67443,10 @@
         <v>19800</v>
       </c>
       <c r="R735" s="30" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="S735" s="54" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="X735" s="30" t="s">
         <v>482</v>
@@ -67523,14 +67487,14 @@
         <v>0</v>
       </c>
       <c r="G736" s="30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H736" s="94"/>
       <c r="J736" s="21" t="s">
         <v>1450</v>
       </c>
       <c r="K736" s="30" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="M736" s="30">
         <v>-31</v>
@@ -67548,10 +67512,10 @@
         <v>49800</v>
       </c>
       <c r="R736" s="30" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="S736" s="54" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="X736" s="30" t="s">
         <v>482</v>
@@ -67592,14 +67556,14 @@
         <v>0</v>
       </c>
       <c r="G737" s="30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H737" s="94"/>
       <c r="J737" s="21" t="s">
         <v>1450</v>
       </c>
       <c r="K737" s="30" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="M737" s="30">
         <v>-31</v>
@@ -67617,10 +67581,10 @@
         <v>79400</v>
       </c>
       <c r="R737" s="30" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="S737" s="54" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="X737" s="30" t="s">
         <v>482</v>
@@ -67661,16 +67625,16 @@
         <v>1</v>
       </c>
       <c r="G738" s="87" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H738" s="93" t="s">
         <v>1999</v>
-      </c>
-      <c r="H738" s="93" t="s">
-        <v>2000</v>
       </c>
       <c r="J738" s="87" t="s">
         <v>1547</v>
       </c>
       <c r="K738" s="87" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="M738" s="87">
         <v>-31</v>
@@ -67688,10 +67652,10 @@
         <v>600</v>
       </c>
       <c r="R738" s="87" t="s">
+        <v>2001</v>
+      </c>
+      <c r="S738" s="74" t="s">
         <v>2002</v>
-      </c>
-      <c r="S738" s="74" t="s">
-        <v>2003</v>
       </c>
       <c r="X738" s="87" t="s">
         <v>482</v>
@@ -67732,14 +67696,14 @@
         <v>1</v>
       </c>
       <c r="G739" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H739" s="93"/>
       <c r="J739" s="87" t="s">
         <v>1547</v>
       </c>
       <c r="K739" s="87" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="M739" s="87">
         <v>-31</v>
@@ -67757,10 +67721,10 @@
         <v>1000</v>
       </c>
       <c r="R739" s="87" t="s">
+        <v>2005</v>
+      </c>
+      <c r="S739" s="74" t="s">
         <v>2006</v>
-      </c>
-      <c r="S739" s="74" t="s">
-        <v>2007</v>
       </c>
       <c r="X739" s="87" t="s">
         <v>482</v>
@@ -67801,14 +67765,14 @@
         <v>1</v>
       </c>
       <c r="G740" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H740" s="93"/>
       <c r="J740" s="87" t="s">
         <v>1547</v>
       </c>
       <c r="K740" s="87" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="M740" s="87">
         <v>-31</v>
@@ -67826,10 +67790,10 @@
         <v>1800</v>
       </c>
       <c r="R740" s="87" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="S740" s="74" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="X740" s="87" t="s">
         <v>482</v>
@@ -67870,14 +67834,14 @@
         <v>1</v>
       </c>
       <c r="G741" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H741" s="93"/>
       <c r="J741" s="87" t="s">
         <v>1554</v>
       </c>
       <c r="K741" s="87" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M741" s="87">
         <v>-31</v>
@@ -67895,10 +67859,10 @@
         <v>1800</v>
       </c>
       <c r="R741" s="87" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="S741" s="74" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="X741" s="87" t="s">
         <v>482</v>
@@ -67939,14 +67903,14 @@
         <v>1</v>
       </c>
       <c r="G742" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H742" s="93"/>
       <c r="J742" s="87" t="s">
         <v>1554</v>
       </c>
       <c r="K742" s="87" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="M742" s="87">
         <v>-31</v>
@@ -67964,10 +67928,10 @@
         <v>3000</v>
       </c>
       <c r="R742" s="87" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="S742" s="74" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="X742" s="87" t="s">
         <v>482</v>
@@ -68008,14 +67972,14 @@
         <v>1</v>
       </c>
       <c r="G743" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H743" s="93"/>
       <c r="J743" s="87" t="s">
         <v>1554</v>
       </c>
       <c r="K743" s="87" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="M743" s="87">
         <v>-31</v>
@@ -68033,10 +67997,10 @@
         <v>4800</v>
       </c>
       <c r="R743" s="87" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="S743" s="74" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="X743" s="87" t="s">
         <v>482</v>
@@ -68077,14 +68041,14 @@
         <v>1</v>
       </c>
       <c r="G744" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H744" s="93"/>
       <c r="J744" s="87" t="s">
         <v>1561</v>
       </c>
       <c r="K744" s="87" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M744" s="87">
         <v>-31</v>
@@ -68102,10 +68066,10 @@
         <v>4800</v>
       </c>
       <c r="R744" s="87" t="s">
+        <v>2016</v>
+      </c>
+      <c r="S744" s="74" t="s">
         <v>2017</v>
-      </c>
-      <c r="S744" s="74" t="s">
-        <v>2018</v>
       </c>
       <c r="X744" s="87" t="s">
         <v>482</v>
@@ -68146,14 +68110,14 @@
         <v>1</v>
       </c>
       <c r="G745" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H745" s="93"/>
       <c r="J745" s="87" t="s">
         <v>1561</v>
       </c>
       <c r="K745" s="87" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M745" s="87">
         <v>-31</v>
@@ -68171,10 +68135,10 @@
         <v>9800</v>
       </c>
       <c r="R745" s="87" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="S745" s="74" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="X745" s="87" t="s">
         <v>482</v>
@@ -68215,14 +68179,14 @@
         <v>1</v>
       </c>
       <c r="G746" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H746" s="93"/>
       <c r="J746" s="87" t="s">
         <v>1561</v>
       </c>
       <c r="K746" s="87" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M746" s="87">
         <v>-31</v>
@@ -68240,10 +68204,10 @@
         <v>19800</v>
       </c>
       <c r="R746" s="87" t="s">
+        <v>2021</v>
+      </c>
+      <c r="S746" s="74" t="s">
         <v>2022</v>
-      </c>
-      <c r="S746" s="74" t="s">
-        <v>2023</v>
       </c>
       <c r="X746" s="87" t="s">
         <v>482</v>
@@ -68284,14 +68248,14 @@
         <v>1</v>
       </c>
       <c r="G747" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H747" s="93"/>
       <c r="J747" s="87" t="s">
         <v>1450</v>
       </c>
       <c r="K747" s="87" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M747" s="87">
         <v>-31</v>
@@ -68309,10 +68273,10 @@
         <v>9800</v>
       </c>
       <c r="R747" s="87" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="S747" s="74" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="X747" s="87" t="s">
         <v>482</v>
@@ -68353,14 +68317,14 @@
         <v>1</v>
       </c>
       <c r="G748" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H748" s="93"/>
       <c r="J748" s="87" t="s">
         <v>1450</v>
       </c>
       <c r="K748" s="87" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M748" s="87">
         <v>-31</v>
@@ -68378,10 +68342,10 @@
         <v>19800</v>
       </c>
       <c r="R748" s="87" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="S748" s="74" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="X748" s="87" t="s">
         <v>482</v>
@@ -68422,14 +68386,14 @@
         <v>1</v>
       </c>
       <c r="G749" s="87" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H749" s="93"/>
       <c r="J749" s="87" t="s">
         <v>1450</v>
       </c>
       <c r="K749" s="87" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M749" s="87">
         <v>-31</v>
@@ -68447,10 +68411,10 @@
         <v>49800</v>
       </c>
       <c r="R749" s="87" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="S749" s="74" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="X749" s="87" t="s">
         <v>482</v>
@@ -68491,10 +68455,10 @@
         <v>1</v>
       </c>
       <c r="G750" s="30" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K750" s="30" t="s">
         <v>2027</v>
-      </c>
-      <c r="K750" s="30" t="s">
-        <v>2028</v>
       </c>
       <c r="M750" s="30">
         <v>-31</v>
@@ -68506,19 +68470,19 @@
         <v>0</v>
       </c>
       <c r="P750" s="30" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="Q750" s="30">
         <v>9800</v>
       </c>
       <c r="R750" s="30" t="s">
+        <v>2029</v>
+      </c>
+      <c r="S750" s="54" t="s">
         <v>2030</v>
       </c>
-      <c r="S750" s="54" t="s">
+      <c r="X750" s="30" t="s">
         <v>2031</v>
-      </c>
-      <c r="X750" s="30" t="s">
-        <v>2032</v>
       </c>
       <c r="Y750" s="30">
         <v>99999999</v>
@@ -68556,13 +68520,13 @@
         <v>1</v>
       </c>
       <c r="G751" s="30" t="s">
+        <v>2032</v>
+      </c>
+      <c r="J751" s="30" t="s">
         <v>2033</v>
       </c>
-      <c r="J751" s="30" t="s">
+      <c r="K751" s="30" t="s">
         <v>2034</v>
-      </c>
-      <c r="K751" s="30" t="s">
-        <v>2035</v>
       </c>
       <c r="M751" s="30">
         <v>-31</v>
@@ -68574,19 +68538,19 @@
         <v>0</v>
       </c>
       <c r="P751" s="30" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="Q751" s="30">
         <v>4800</v>
       </c>
       <c r="R751" s="30" t="s">
+        <v>2037</v>
+      </c>
+      <c r="S751" s="54" t="s">
         <v>2038</v>
       </c>
-      <c r="S751" s="54" t="s">
+      <c r="X751" s="30" t="s">
         <v>2039</v>
-      </c>
-      <c r="X751" s="30" t="s">
-        <v>2040</v>
       </c>
       <c r="Y751" s="30">
         <v>99999999</v>
@@ -68624,13 +68588,13 @@
         <v>1</v>
       </c>
       <c r="G752" s="30" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="J752" s="30" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K752" s="30" t="s">
         <v>2041</v>
-      </c>
-      <c r="K752" s="30" t="s">
-        <v>2042</v>
       </c>
       <c r="M752" s="30">
         <v>-31</v>
@@ -68642,16 +68606,16 @@
         <v>0</v>
       </c>
       <c r="P752" s="30" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="Q752" s="30">
         <v>9800</v>
       </c>
       <c r="R752" s="30" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="S752" s="54" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="X752" s="30" t="s">
         <v>1950</v>
@@ -68692,13 +68656,13 @@
         <v>1</v>
       </c>
       <c r="G753" s="30" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="J753" s="30" t="s">
+        <v>2043</v>
+      </c>
+      <c r="K753" s="30" t="s">
         <v>2044</v>
-      </c>
-      <c r="K753" s="30" t="s">
-        <v>2045</v>
       </c>
       <c r="M753" s="30">
         <v>-31</v>
@@ -68716,13 +68680,13 @@
         <v>19800</v>
       </c>
       <c r="R753" s="30" t="s">
+        <v>2045</v>
+      </c>
+      <c r="S753" s="54" t="s">
         <v>2046</v>
       </c>
-      <c r="S753" s="54" t="s">
-        <v>2047</v>
-      </c>
       <c r="X753" s="30" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="Y753" s="30">
         <v>99999999</v>
@@ -68760,13 +68724,13 @@
         <v>1</v>
       </c>
       <c r="G754" s="30" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J754" s="30" t="s">
         <v>2048</v>
       </c>
-      <c r="J754" s="30" t="s">
+      <c r="K754" s="30" t="s">
         <v>2049</v>
-      </c>
-      <c r="K754" s="30" t="s">
-        <v>2050</v>
       </c>
       <c r="M754" s="30">
         <v>-31</v>
@@ -68778,16 +68742,16 @@
         <v>0</v>
       </c>
       <c r="P754" s="30" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="Q754" s="30">
         <v>4800</v>
       </c>
       <c r="R754" s="30" t="s">
+        <v>2052</v>
+      </c>
+      <c r="S754" s="54" t="s">
         <v>2053</v>
-      </c>
-      <c r="S754" s="54" t="s">
-        <v>2054</v>
       </c>
       <c r="X754" s="30" t="s">
         <v>1962</v>
@@ -68825,13 +68789,13 @@
         <v>1</v>
       </c>
       <c r="G755" s="30" t="s">
+        <v>2054</v>
+      </c>
+      <c r="J755" s="30" t="s">
         <v>2055</v>
       </c>
-      <c r="J755" s="30" t="s">
+      <c r="K755" s="30" t="s">
         <v>2056</v>
-      </c>
-      <c r="K755" s="30" t="s">
-        <v>2057</v>
       </c>
       <c r="M755" s="30">
         <v>-31</v>
@@ -68843,19 +68807,19 @@
         <v>0</v>
       </c>
       <c r="P755" s="30" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="Q755" s="30">
         <v>9800</v>
       </c>
       <c r="R755" s="30" t="s">
+        <v>2057</v>
+      </c>
+      <c r="S755" s="54" t="s">
         <v>2058</v>
       </c>
-      <c r="S755" s="54" t="s">
+      <c r="X755" s="30" t="s">
         <v>2059</v>
-      </c>
-      <c r="X755" s="30" t="s">
-        <v>2060</v>
       </c>
       <c r="Y755" s="30">
         <v>99999999</v>
@@ -68890,13 +68854,13 @@
         <v>1</v>
       </c>
       <c r="G756" s="30" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="J756" s="30" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K756" s="30" t="s">
         <v>2061</v>
-      </c>
-      <c r="K756" s="30" t="s">
-        <v>2062</v>
       </c>
       <c r="M756" s="30">
         <v>-31</v>
@@ -68908,19 +68872,19 @@
         <v>0</v>
       </c>
       <c r="P756" s="30" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="Q756" s="30">
         <v>49800</v>
       </c>
       <c r="R756" s="30" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="S756" s="54" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="X756" s="30" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="Y756" s="30">
         <v>99999999</v>
@@ -68955,13 +68919,13 @@
         <v>1</v>
       </c>
       <c r="G757" s="30" t="s">
+        <v>2063</v>
+      </c>
+      <c r="J757" s="30" t="s">
         <v>2064</v>
       </c>
-      <c r="J757" s="30" t="s">
-        <v>2065</v>
-      </c>
       <c r="K757" s="30" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="M757" s="30">
         <v>-31</v>
@@ -68973,7 +68937,7 @@
         <v>0</v>
       </c>
       <c r="P757" s="30" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="Q757" s="30">
         <v>1000</v>
@@ -68995,13 +68959,13 @@
         <v>92</v>
       </c>
       <c r="AC757" s="30" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AD757" s="30" t="s">
         <v>2097</v>
       </c>
-      <c r="AD757" s="30" t="s">
+      <c r="AE757" s="72" t="s">
         <v>2098</v>
-      </c>
-      <c r="AE757" s="72" t="s">
-        <v>2099</v>
       </c>
       <c r="AI757" s="30">
         <v>1</v>
@@ -69027,13 +68991,13 @@
         <v>1</v>
       </c>
       <c r="G758" s="30" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J758" s="30" t="s">
+        <v>2065</v>
+      </c>
+      <c r="K758" s="30" t="s">
         <v>2100</v>
-      </c>
-      <c r="J758" s="30" t="s">
-        <v>2066</v>
-      </c>
-      <c r="K758" s="30" t="s">
-        <v>2101</v>
       </c>
       <c r="M758" s="30">
         <v>-31</v>
@@ -69045,7 +69009,7 @@
         <v>0</v>
       </c>
       <c r="P758" s="30" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="Q758" s="30">
         <v>5000</v>
@@ -69067,13 +69031,13 @@
         <v>93</v>
       </c>
       <c r="AC758" s="30" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="AD758" s="30" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="AE758" s="72" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="AI758" s="30">
         <v>1</v>
@@ -69099,13 +69063,13 @@
         <v>1</v>
       </c>
       <c r="G759" s="30" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="J759" s="30" t="s">
+        <v>2102</v>
+      </c>
+      <c r="K759" s="30" t="s">
         <v>2103</v>
-      </c>
-      <c r="K759" s="30" t="s">
-        <v>2104</v>
       </c>
       <c r="M759" s="30">
         <v>-31</v>
@@ -69117,14 +69081,14 @@
         <v>0</v>
       </c>
       <c r="P759" s="30" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="Q759" s="30">
         <v>9800</v>
       </c>
       <c r="S759" s="54"/>
       <c r="X759" s="30" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="Y759" s="30">
         <v>99999999</v>
@@ -69139,13 +69103,13 @@
         <v>94</v>
       </c>
       <c r="AC759" s="30" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="AD759" s="30" t="s">
+        <v>2105</v>
+      </c>
+      <c r="AE759" s="72" t="s">
         <v>2106</v>
-      </c>
-      <c r="AE759" s="72" t="s">
-        <v>2107</v>
       </c>
       <c r="AI759" s="30">
         <v>1</v>
@@ -69171,13 +69135,13 @@
         <v>1</v>
       </c>
       <c r="G760" s="30" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="J760" s="30" t="s">
+        <v>2107</v>
+      </c>
+      <c r="K760" s="30" t="s">
         <v>2108</v>
-      </c>
-      <c r="K760" s="30" t="s">
-        <v>2109</v>
       </c>
       <c r="M760" s="30">
         <v>-31</v>
@@ -69189,7 +69153,7 @@
         <v>0</v>
       </c>
       <c r="P760" s="30" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="Q760" s="30">
         <v>19800</v>
@@ -69211,13 +69175,13 @@
         <v>95</v>
       </c>
       <c r="AC760" s="30" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="AD760" s="30" t="s">
+        <v>2109</v>
+      </c>
+      <c r="AE760" s="72" t="s">
         <v>2110</v>
-      </c>
-      <c r="AE760" s="72" t="s">
-        <v>2111</v>
       </c>
       <c r="AI760" s="30">
         <v>1</v>
@@ -69243,13 +69207,13 @@
         <v>1</v>
       </c>
       <c r="G761" s="30" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="J761" s="30" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="K761" s="30" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="M761" s="30">
         <v>-31</v>
@@ -69261,14 +69225,14 @@
         <v>0</v>
       </c>
       <c r="P761" s="30" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="Q761" s="30">
         <v>5000</v>
       </c>
       <c r="S761" s="54"/>
       <c r="X761" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y761" s="30">
         <v>99999999</v>
@@ -69283,13 +69247,13 @@
         <v>92</v>
       </c>
       <c r="AC761" s="30" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="AD761" s="30" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="AE761" s="72" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="AI761" s="30">
         <v>1</v>
@@ -69315,13 +69279,13 @@
         <v>1</v>
       </c>
       <c r="G762" s="30" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J762" s="30" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="K762" s="30" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="M762" s="30">
         <v>-31</v>
@@ -69333,14 +69297,14 @@
         <v>0</v>
       </c>
       <c r="P762" s="30" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="Q762" s="30">
         <v>9800</v>
       </c>
       <c r="S762" s="54"/>
       <c r="X762" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y762" s="30">
         <v>99999999</v>
@@ -69355,13 +69319,13 @@
         <v>93</v>
       </c>
       <c r="AC762" s="30" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AD762" s="30" t="s">
         <v>2116</v>
       </c>
-      <c r="AD762" s="30" t="s">
+      <c r="AE762" s="72" t="s">
         <v>2117</v>
-      </c>
-      <c r="AE762" s="72" t="s">
-        <v>2118</v>
       </c>
       <c r="AI762" s="30">
         <v>1</v>
@@ -69387,13 +69351,13 @@
         <v>1</v>
       </c>
       <c r="G763" s="30" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="J763" s="30" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="K763" s="30" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="M763" s="30">
         <v>-31</v>
@@ -69405,7 +69369,7 @@
         <v>0</v>
       </c>
       <c r="P763" s="30" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="Q763" s="30">
         <v>19800</v>
@@ -69413,7 +69377,7 @@
       <c r="R763" s="89"/>
       <c r="S763" s="54"/>
       <c r="X763" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y763" s="30">
         <v>99999999</v>
@@ -69428,13 +69392,13 @@
         <v>94</v>
       </c>
       <c r="AC763" s="30" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="AD763" s="30" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AE763" s="72" t="s">
         <v>2120</v>
-      </c>
-      <c r="AE763" s="72" t="s">
-        <v>2121</v>
       </c>
       <c r="AI763" s="30">
         <v>1</v>
@@ -69460,13 +69424,13 @@
         <v>1</v>
       </c>
       <c r="G764" s="30" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="J764" s="30" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="K764" s="30" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="M764" s="30">
         <v>-31</v>
@@ -69478,7 +69442,7 @@
         <v>0</v>
       </c>
       <c r="P764" s="30" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="Q764" s="30">
         <v>29800</v>
@@ -69486,7 +69450,7 @@
       <c r="R764" s="89"/>
       <c r="S764" s="54"/>
       <c r="X764" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y764" s="30">
         <v>99999999</v>
@@ -69501,13 +69465,13 @@
         <v>95</v>
       </c>
       <c r="AC764" s="30" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="AD764" s="30" t="s">
+        <v>2123</v>
+      </c>
+      <c r="AE764" s="72" t="s">
         <v>2124</v>
-      </c>
-      <c r="AE764" s="72" t="s">
-        <v>2125</v>
       </c>
       <c r="AI764" s="30">
         <v>1</v>
@@ -69533,13 +69497,13 @@
         <v>1</v>
       </c>
       <c r="G765" s="30" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J765" s="30" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="K765" s="30" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="M765" s="30">
         <v>-31</v>
@@ -69551,14 +69515,14 @@
         <v>0</v>
       </c>
       <c r="P765" s="30" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="Q765" s="30">
         <v>9800</v>
       </c>
       <c r="S765" s="54"/>
       <c r="X765" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y765" s="30">
         <v>99999999</v>
@@ -69573,13 +69537,13 @@
         <v>92</v>
       </c>
       <c r="AC765" s="30" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AD765" s="30" t="s">
         <v>2116</v>
       </c>
-      <c r="AD765" s="30" t="s">
+      <c r="AE765" s="72" t="s">
         <v>2117</v>
-      </c>
-      <c r="AE765" s="72" t="s">
-        <v>2118</v>
       </c>
       <c r="AI765" s="30">
         <v>1</v>
@@ -69605,13 +69569,13 @@
         <v>1</v>
       </c>
       <c r="G766" s="30" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J766" s="30" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="K766" s="30" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="M766" s="30">
         <v>-31</v>
@@ -69623,14 +69587,14 @@
         <v>0</v>
       </c>
       <c r="P766" s="30" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="Q766" s="30">
         <v>9800</v>
       </c>
       <c r="S766" s="54"/>
       <c r="X766" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y766" s="30">
         <v>99999999</v>
@@ -69645,13 +69609,13 @@
         <v>93</v>
       </c>
       <c r="AC766" s="30" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AD766" s="30" t="s">
         <v>2116</v>
       </c>
-      <c r="AD766" s="30" t="s">
+      <c r="AE766" s="72" t="s">
         <v>2117</v>
-      </c>
-      <c r="AE766" s="72" t="s">
-        <v>2118</v>
       </c>
       <c r="AI766" s="30">
         <v>1</v>
@@ -69677,13 +69641,13 @@
         <v>1</v>
       </c>
       <c r="G767" s="30" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J767" s="30" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="K767" s="30" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M767" s="30">
         <v>-31</v>
@@ -69695,14 +69659,14 @@
         <v>0</v>
       </c>
       <c r="P767" s="30" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="Q767" s="30">
         <v>19800</v>
       </c>
       <c r="S767" s="54"/>
       <c r="X767" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y767" s="30">
         <v>99999999</v>
@@ -69717,13 +69681,13 @@
         <v>94</v>
       </c>
       <c r="AC767" s="30" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="AD767" s="30" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AE767" s="72" t="s">
         <v>2120</v>
-      </c>
-      <c r="AE767" s="72" t="s">
-        <v>2121</v>
       </c>
       <c r="AI767" s="30">
         <v>1</v>
@@ -69749,13 +69713,13 @@
         <v>1</v>
       </c>
       <c r="G768" s="30" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J768" s="30" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="K768" s="30" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="M768" s="30">
         <v>-31</v>
@@ -69767,14 +69731,14 @@
         <v>0</v>
       </c>
       <c r="P768" s="30" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="Q768" s="30">
         <v>29800</v>
       </c>
       <c r="S768" s="54"/>
       <c r="X768" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y768" s="30">
         <v>99999999</v>
@@ -69789,13 +69753,13 @@
         <v>95</v>
       </c>
       <c r="AC768" s="30" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="AD768" s="30" t="s">
+        <v>2123</v>
+      </c>
+      <c r="AE768" s="72" t="s">
         <v>2124</v>
-      </c>
-      <c r="AE768" s="72" t="s">
-        <v>2125</v>
       </c>
       <c r="AI768" s="30">
         <v>1</v>
@@ -69821,13 +69785,13 @@
         <v>1</v>
       </c>
       <c r="G769" s="30" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J769" s="30" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="K769" s="30" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M769" s="30">
         <v>-31</v>
@@ -69839,14 +69803,14 @@
         <v>0</v>
       </c>
       <c r="P769" s="30" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="Q769" s="30">
         <v>19800</v>
       </c>
       <c r="S769" s="54"/>
       <c r="X769" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y769" s="30">
         <v>99999999</v>
@@ -69861,13 +69825,13 @@
         <v>92</v>
       </c>
       <c r="AC769" s="30" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="AD769" s="30" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AE769" s="72" t="s">
         <v>2120</v>
-      </c>
-      <c r="AE769" s="72" t="s">
-        <v>2121</v>
       </c>
       <c r="AI769" s="30">
         <v>1</v>
@@ -69893,13 +69857,13 @@
         <v>1</v>
       </c>
       <c r="G770" s="30" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J770" s="30" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K770" s="30" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M770" s="30">
         <v>-31</v>
@@ -69911,14 +69875,14 @@
         <v>0</v>
       </c>
       <c r="P770" s="30" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="Q770" s="30">
         <v>19800</v>
       </c>
       <c r="S770" s="54"/>
       <c r="X770" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y770" s="30">
         <v>99999999</v>
@@ -69933,13 +69897,13 @@
         <v>93</v>
       </c>
       <c r="AC770" s="30" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="AD770" s="30" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AE770" s="72" t="s">
         <v>2120</v>
-      </c>
-      <c r="AE770" s="72" t="s">
-        <v>2121</v>
       </c>
       <c r="AI770" s="30">
         <v>1</v>
@@ -69965,13 +69929,13 @@
         <v>1</v>
       </c>
       <c r="G771" s="30" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J771" s="30" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K771" s="30" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="M771" s="30">
         <v>-31</v>
@@ -69983,14 +69947,14 @@
         <v>0</v>
       </c>
       <c r="P771" s="30" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="Q771" s="30">
         <v>49800</v>
       </c>
       <c r="S771" s="54"/>
       <c r="X771" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y771" s="30">
         <v>99999999</v>
@@ -70005,13 +69969,13 @@
         <v>94</v>
       </c>
       <c r="AC771" s="30" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="AD771" s="30" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AE771" s="72" t="s">
         <v>2128</v>
-      </c>
-      <c r="AE771" s="72" t="s">
-        <v>2129</v>
       </c>
       <c r="AI771" s="30">
         <v>1</v>
@@ -70037,13 +70001,13 @@
         <v>1</v>
       </c>
       <c r="G772" s="30" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="J772" s="30" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="K772" s="30" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="M772" s="30">
         <v>-31</v>
@@ -70055,14 +70019,14 @@
         <v>0</v>
       </c>
       <c r="P772" s="30" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="Q772" s="30">
         <v>49800</v>
       </c>
       <c r="S772" s="54"/>
       <c r="X772" s="30" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="Y772" s="30">
         <v>99999999</v>
@@ -70077,13 +70041,13 @@
         <v>95</v>
       </c>
       <c r="AC772" s="30" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="AD772" s="30" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AE772" s="72" t="s">
         <v>2128</v>
-      </c>
-      <c r="AE772" s="72" t="s">
-        <v>2129</v>
       </c>
       <c r="AI772" s="30">
         <v>1</v>
@@ -70109,13 +70073,13 @@
         <v>0</v>
       </c>
       <c r="G773" s="30" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="J773" s="91" t="s">
         <v>1547</v>
       </c>
       <c r="K773" s="30" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="M773" s="30">
         <v>-31</v>
@@ -70127,19 +70091,19 @@
         <v>0</v>
       </c>
       <c r="P773" s="30" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="Q773" s="30">
         <v>600</v>
       </c>
       <c r="R773" s="30" t="s">
+        <v>2135</v>
+      </c>
+      <c r="S773" s="54" t="s">
         <v>2136</v>
       </c>
-      <c r="S773" s="54" t="s">
+      <c r="X773" s="30" t="s">
         <v>2137</v>
-      </c>
-      <c r="X773" s="30" t="s">
-        <v>2138</v>
       </c>
       <c r="Y773" s="30">
         <v>99999999</v>
@@ -70177,13 +70141,13 @@
         <v>0</v>
       </c>
       <c r="G774" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J774" s="91" t="s">
         <v>1547</v>
       </c>
       <c r="K774" s="30" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="M774" s="30">
         <v>-31</v>
@@ -70195,19 +70159,19 @@
         <v>0</v>
       </c>
       <c r="P774" s="30" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="Q774" s="30">
         <v>1000</v>
       </c>
       <c r="R774" s="30" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="S774" s="54" t="s">
+        <v>2139</v>
+      </c>
+      <c r="X774" s="30" t="s">
         <v>2140</v>
-      </c>
-      <c r="X774" s="30" t="s">
-        <v>2141</v>
       </c>
       <c r="Y774" s="30">
         <v>99999999</v>
@@ -70245,13 +70209,13 @@
         <v>0</v>
       </c>
       <c r="G775" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J775" s="91" t="s">
         <v>1547</v>
       </c>
       <c r="K775" s="30" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="M775" s="30">
         <v>-31</v>
@@ -70263,16 +70227,16 @@
         <v>0</v>
       </c>
       <c r="P775" s="30" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="Q775" s="30">
         <v>1800</v>
       </c>
       <c r="R775" s="30" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="S775" s="54" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="X775" s="30" t="s">
         <v>482</v>
@@ -70313,13 +70277,13 @@
         <v>0</v>
       </c>
       <c r="G776" s="30" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="J776" s="91" t="s">
         <v>1547</v>
       </c>
       <c r="K776" s="30" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="M776" s="30">
         <v>-31</v>
@@ -70337,10 +70301,10 @@
         <v>3400</v>
       </c>
       <c r="R776" s="30" t="s">
+        <v>2144</v>
+      </c>
+      <c r="S776" s="54" t="s">
         <v>2145</v>
-      </c>
-      <c r="S776" s="54" t="s">
-        <v>2146</v>
       </c>
       <c r="X776" s="30" t="s">
         <v>482</v>
@@ -70381,13 +70345,13 @@
         <v>0</v>
       </c>
       <c r="G777" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J777" s="91" t="s">
         <v>1554</v>
       </c>
       <c r="K777" s="30" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="M777" s="30">
         <v>-31</v>
@@ -70405,10 +70369,10 @@
         <v>1800</v>
       </c>
       <c r="R777" s="30" t="s">
+        <v>2147</v>
+      </c>
+      <c r="S777" s="54" t="s">
         <v>2148</v>
-      </c>
-      <c r="S777" s="54" t="s">
-        <v>2149</v>
       </c>
       <c r="X777" s="30" t="s">
         <v>482</v>
@@ -70449,13 +70413,13 @@
         <v>0</v>
       </c>
       <c r="G778" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J778" s="91" t="s">
         <v>1554</v>
       </c>
       <c r="K778" s="30" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="M778" s="30">
         <v>-31</v>
@@ -70473,10 +70437,10 @@
         <v>3000</v>
       </c>
       <c r="R778" s="30" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="S778" s="54" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="X778" s="30" t="s">
         <v>482</v>
@@ -70517,13 +70481,13 @@
         <v>0</v>
       </c>
       <c r="G779" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J779" s="91" t="s">
         <v>1554</v>
       </c>
       <c r="K779" s="30" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="M779" s="30">
         <v>-31</v>
@@ -70541,10 +70505,10 @@
         <v>4800</v>
       </c>
       <c r="R779" s="30" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="S779" s="54" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="X779" s="30" t="s">
         <v>482</v>
@@ -70585,13 +70549,13 @@
         <v>0</v>
       </c>
       <c r="G780" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J780" s="91" t="s">
         <v>1554</v>
       </c>
       <c r="K780" s="30" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="M780" s="30">
         <v>-31</v>
@@ -70603,16 +70567,16 @@
         <v>0</v>
       </c>
       <c r="P780" s="30" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="Q780" s="30">
         <v>9600</v>
       </c>
       <c r="R780" s="30" t="s">
+        <v>2154</v>
+      </c>
+      <c r="S780" s="54" t="s">
         <v>2155</v>
-      </c>
-      <c r="S780" s="54" t="s">
-        <v>2156</v>
       </c>
       <c r="X780" s="30" t="s">
         <v>482</v>
@@ -70653,13 +70617,13 @@
         <v>0</v>
       </c>
       <c r="G781" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J781" s="91" t="s">
         <v>1561</v>
       </c>
       <c r="K781" s="30" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="M781" s="30">
         <v>-31</v>
@@ -70677,10 +70641,10 @@
         <v>4800</v>
       </c>
       <c r="R781" s="30" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="S781" s="54" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="X781" s="30" t="s">
         <v>482</v>
@@ -70721,13 +70685,13 @@
         <v>0</v>
       </c>
       <c r="G782" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J782" s="91" t="s">
         <v>1561</v>
       </c>
       <c r="K782" s="30" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="M782" s="30">
         <v>-31</v>
@@ -70745,10 +70709,10 @@
         <v>9800</v>
       </c>
       <c r="R782" s="30" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="S782" s="54" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="X782" s="30" t="s">
         <v>482</v>
@@ -70789,13 +70753,13 @@
         <v>0</v>
       </c>
       <c r="G783" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J783" s="91" t="s">
         <v>1561</v>
       </c>
       <c r="K783" s="30" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="M783" s="30">
         <v>-31</v>
@@ -70807,16 +70771,16 @@
         <v>0</v>
       </c>
       <c r="P783" s="30" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="Q783" s="30">
         <v>19800</v>
       </c>
       <c r="R783" s="30" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="S783" s="54" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="X783" s="30" t="s">
         <v>482</v>
@@ -70857,13 +70821,13 @@
         <v>0</v>
       </c>
       <c r="G784" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J784" s="91" t="s">
         <v>1561</v>
       </c>
       <c r="K784" s="30" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="M784" s="30">
         <v>-31</v>
@@ -70881,10 +70845,10 @@
         <v>34400</v>
       </c>
       <c r="R784" s="30" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="S784" s="54" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="X784" s="30" t="s">
         <v>482</v>
@@ -70925,13 +70889,13 @@
         <v>0</v>
       </c>
       <c r="G785" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J785" s="91" t="s">
         <v>1450</v>
       </c>
       <c r="K785" s="30" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="M785" s="30">
         <v>-31</v>
@@ -70949,10 +70913,10 @@
         <v>9800</v>
       </c>
       <c r="R785" s="30" t="s">
+        <v>2165</v>
+      </c>
+      <c r="S785" s="54" t="s">
         <v>2166</v>
-      </c>
-      <c r="S785" s="54" t="s">
-        <v>2167</v>
       </c>
       <c r="X785" s="30" t="s">
         <v>482</v>
@@ -70993,13 +70957,13 @@
         <v>0</v>
       </c>
       <c r="G786" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J786" s="91" t="s">
         <v>1450</v>
       </c>
       <c r="K786" s="30" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="M786" s="30">
         <v>-31</v>
@@ -71017,10 +70981,10 @@
         <v>19800</v>
       </c>
       <c r="R786" s="30" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S786" s="54" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="X786" s="30" t="s">
         <v>482</v>
@@ -71061,13 +71025,13 @@
         <v>0</v>
       </c>
       <c r="G787" s="30" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J787" s="91" t="s">
         <v>1450</v>
       </c>
       <c r="K787" s="30" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="M787" s="30">
         <v>-31</v>
@@ -71085,10 +71049,10 @@
         <v>49800</v>
       </c>
       <c r="R787" s="30" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="S787" s="54" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="X787" s="30" t="s">
         <v>482</v>
@@ -71129,13 +71093,13 @@
         <v>0</v>
       </c>
       <c r="G788" s="30" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="J788" s="91" t="s">
         <v>1450</v>
       </c>
       <c r="K788" s="30" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="M788" s="30">
         <v>-31</v>
@@ -71147,16 +71111,16 @@
         <v>0</v>
       </c>
       <c r="P788" s="30" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="Q788" s="30">
         <v>79400</v>
       </c>
       <c r="R788" s="30" t="s">
+        <v>2172</v>
+      </c>
+      <c r="S788" s="54" t="s">
         <v>2173</v>
-      </c>
-      <c r="S788" s="54" t="s">
-        <v>2174</v>
       </c>
       <c r="X788" s="30" t="s">
         <v>482</v>
@@ -72433,7 +72397,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="73" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -72447,7 +72411,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="73" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -72461,7 +72425,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="73" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -72475,7 +72439,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="73" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -72489,7 +72453,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="73" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -72503,7 +72467,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="73" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -72517,7 +72481,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="73" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -72531,7 +72495,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="73" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -72545,7 +72509,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="73" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -72559,7 +72523,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="73" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C96">
         <v>1</v>

--- a/config_12.21/shoping_config_xiaomi.xlsx
+++ b/config_12.21/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2215">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8292,14 +8292,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","jing_bi","prop_tiny_game_cion",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","jing_bi","prop_tiny_game_cion",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>600000,50000,50000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8332,10 +8324,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","jing_bi","prop_tiny_game_cion","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>3400000,300000,300000,200000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8614,6 +8602,12 @@
   <si>
     <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_tiny_game_coin",</t>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_tiny_game_coin","jing_bi",</t>
   </si>
 </sst>
 </file>
@@ -11639,10 +11633,10 @@
   <dimension ref="A1:AIG788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X695" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q761" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A709" sqref="A709:XFD724"/>
+      <selection pane="bottomRight" activeCell="R773" sqref="R773:R776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -65635,13 +65629,13 @@
         <v>177</v>
       </c>
       <c r="H709" s="93" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="J709" s="92" t="s">
         <v>1547</v>
       </c>
       <c r="K709" s="92" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="M709" s="92">
         <v>-31</v>
@@ -65653,7 +65647,7 @@
         <v>0</v>
       </c>
       <c r="P709" s="92" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="Q709" s="92">
         <v>600</v>
@@ -65662,7 +65656,7 @@
         <v>1961</v>
       </c>
       <c r="S709" s="74" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="X709" s="92" t="s">
         <v>1950</v>
@@ -65710,7 +65704,7 @@
         <v>1547</v>
       </c>
       <c r="K710" s="92" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="M710" s="92">
         <v>-31</v>
@@ -65728,10 +65722,10 @@
         <v>1000</v>
       </c>
       <c r="R710" s="92" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="S710" s="74" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="X710" s="92" t="s">
         <v>1950</v>
@@ -65779,7 +65773,7 @@
         <v>1547</v>
       </c>
       <c r="K711" s="92" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="M711" s="92">
         <v>-31</v>
@@ -65797,10 +65791,10 @@
         <v>1800</v>
       </c>
       <c r="R711" s="92" t="s">
+        <v>2187</v>
+      </c>
+      <c r="S711" s="74" t="s">
         <v>2190</v>
-      </c>
-      <c r="S711" s="74" t="s">
-        <v>2193</v>
       </c>
       <c r="X711" s="92" t="s">
         <v>482</v>
@@ -65848,7 +65842,7 @@
         <v>1547</v>
       </c>
       <c r="K712" s="92" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="M712" s="92">
         <v>-31</v>
@@ -65866,10 +65860,10 @@
         <v>3400</v>
       </c>
       <c r="R712" s="92" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="S712" s="74" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="X712" s="92" t="s">
         <v>482</v>
@@ -65917,7 +65911,7 @@
         <v>1554</v>
       </c>
       <c r="K713" s="92" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="M713" s="92">
         <v>-31</v>
@@ -65929,7 +65923,7 @@
         <v>0</v>
       </c>
       <c r="P713" s="92" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="Q713" s="92">
         <v>1800</v>
@@ -65938,7 +65932,7 @@
         <v>1961</v>
       </c>
       <c r="S713" s="74" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="X713" s="92" t="s">
         <v>482</v>
@@ -65986,7 +65980,7 @@
         <v>1554</v>
       </c>
       <c r="K714" s="92" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="M714" s="92">
         <v>-31</v>
@@ -65998,16 +65992,16 @@
         <v>0</v>
       </c>
       <c r="P714" s="92" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="Q714" s="92">
         <v>3000</v>
       </c>
       <c r="R714" s="92" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="S714" s="74" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="X714" s="92" t="s">
         <v>482</v>
@@ -66055,7 +66049,7 @@
         <v>1554</v>
       </c>
       <c r="K715" s="92" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="M715" s="92">
         <v>-31</v>
@@ -66067,7 +66061,7 @@
         <v>0</v>
       </c>
       <c r="P715" s="92" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="Q715" s="92">
         <v>4800</v>
@@ -66076,7 +66070,7 @@
         <v>1961</v>
       </c>
       <c r="S715" s="74" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="X715" s="92" t="s">
         <v>482</v>
@@ -66124,7 +66118,7 @@
         <v>1554</v>
       </c>
       <c r="K716" s="92" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="M716" s="92">
         <v>-31</v>
@@ -66136,16 +66130,16 @@
         <v>0</v>
       </c>
       <c r="P716" s="92" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="Q716" s="92">
         <v>9600</v>
       </c>
       <c r="R716" s="92" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="S716" s="74" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="X716" s="92" t="s">
         <v>482</v>
@@ -66193,7 +66187,7 @@
         <v>1561</v>
       </c>
       <c r="K717" s="92" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="M717" s="92">
         <v>-31</v>
@@ -66205,16 +66199,16 @@
         <v>0</v>
       </c>
       <c r="P717" s="92" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="Q717" s="92">
         <v>4800</v>
       </c>
       <c r="R717" s="92" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="S717" s="74" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="X717" s="92" t="s">
         <v>482</v>
@@ -66262,7 +66256,7 @@
         <v>1561</v>
       </c>
       <c r="K718" s="92" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="M718" s="92">
         <v>-31</v>
@@ -66274,16 +66268,16 @@
         <v>0</v>
       </c>
       <c r="P718" s="92" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="Q718" s="92">
         <v>9800</v>
       </c>
       <c r="R718" s="92" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="S718" s="74" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="X718" s="92" t="s">
         <v>482</v>
@@ -66331,7 +66325,7 @@
         <v>1561</v>
       </c>
       <c r="K719" s="92" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="M719" s="92">
         <v>-31</v>
@@ -66349,10 +66343,10 @@
         <v>19800</v>
       </c>
       <c r="R719" s="92" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="S719" s="74" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="X719" s="92" t="s">
         <v>482</v>
@@ -66400,7 +66394,7 @@
         <v>1561</v>
       </c>
       <c r="K720" s="92" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="M720" s="92">
         <v>-31</v>
@@ -66418,10 +66412,10 @@
         <v>34400</v>
       </c>
       <c r="R720" s="92" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="S720" s="74" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="X720" s="92" t="s">
         <v>482</v>
@@ -66469,7 +66463,7 @@
         <v>1450</v>
       </c>
       <c r="K721" s="92" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="M721" s="92">
         <v>-31</v>
@@ -66487,10 +66481,10 @@
         <v>9800</v>
       </c>
       <c r="R721" s="92" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="S721" s="74" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="X721" s="92" t="s">
         <v>482</v>
@@ -66550,16 +66544,16 @@
         <v>0</v>
       </c>
       <c r="P722" s="92" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="Q722" s="92">
         <v>19800</v>
       </c>
       <c r="R722" s="92" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="S722" s="74" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="X722" s="92" t="s">
         <v>482</v>
@@ -66607,7 +66601,7 @@
         <v>1450</v>
       </c>
       <c r="K723" s="92" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="M723" s="92">
         <v>-31</v>
@@ -66619,16 +66613,16 @@
         <v>0</v>
       </c>
       <c r="P723" s="92" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="Q723" s="92">
         <v>49800</v>
       </c>
       <c r="R723" s="92" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="S723" s="74" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="X723" s="92" t="s">
         <v>482</v>
@@ -66676,7 +66670,7 @@
         <v>1450</v>
       </c>
       <c r="K724" s="92" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="M724" s="92">
         <v>-31</v>
@@ -66688,16 +66682,16 @@
         <v>0</v>
       </c>
       <c r="P724" s="92" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="Q724" s="92">
         <v>79400</v>
       </c>
       <c r="R724" s="92" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="S724" s="74" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="X724" s="92" t="s">
         <v>1950</v>
@@ -70097,13 +70091,13 @@
         <v>600</v>
       </c>
       <c r="R773" s="30" t="s">
+        <v>2213</v>
+      </c>
+      <c r="S773" s="54" t="s">
+        <v>2134</v>
+      </c>
+      <c r="X773" s="30" t="s">
         <v>2135</v>
-      </c>
-      <c r="S773" s="54" t="s">
-        <v>2136</v>
-      </c>
-      <c r="X773" s="30" t="s">
-        <v>2137</v>
       </c>
       <c r="Y773" s="30">
         <v>99999999</v>
@@ -70147,7 +70141,7 @@
         <v>1547</v>
       </c>
       <c r="K774" s="30" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="M774" s="30">
         <v>-31</v>
@@ -70165,13 +70159,13 @@
         <v>1000</v>
       </c>
       <c r="R774" s="30" t="s">
-        <v>2134</v>
+        <v>2213</v>
       </c>
       <c r="S774" s="54" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="X774" s="30" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="Y774" s="30">
         <v>99999999</v>
@@ -70215,7 +70209,7 @@
         <v>1547</v>
       </c>
       <c r="K775" s="30" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="M775" s="30">
         <v>-31</v>
@@ -70233,10 +70227,10 @@
         <v>1800</v>
       </c>
       <c r="R775" s="30" t="s">
-        <v>2134</v>
+        <v>2213</v>
       </c>
       <c r="S775" s="54" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="X775" s="30" t="s">
         <v>482</v>
@@ -70283,7 +70277,7 @@
         <v>1547</v>
       </c>
       <c r="K776" s="30" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="M776" s="30">
         <v>-31</v>
@@ -70301,10 +70295,10 @@
         <v>3400</v>
       </c>
       <c r="R776" s="30" t="s">
-        <v>2144</v>
+        <v>2214</v>
       </c>
       <c r="S776" s="54" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="X776" s="30" t="s">
         <v>482</v>
@@ -70351,7 +70345,7 @@
         <v>1554</v>
       </c>
       <c r="K777" s="30" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="M777" s="30">
         <v>-31</v>
@@ -70369,10 +70363,10 @@
         <v>1800</v>
       </c>
       <c r="R777" s="30" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="S777" s="54" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="X777" s="30" t="s">
         <v>482</v>
@@ -70419,7 +70413,7 @@
         <v>1554</v>
       </c>
       <c r="K778" s="30" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="M778" s="30">
         <v>-31</v>
@@ -70437,10 +70431,10 @@
         <v>3000</v>
       </c>
       <c r="R778" s="30" t="s">
+        <v>2144</v>
+      </c>
+      <c r="S778" s="54" t="s">
         <v>2147</v>
-      </c>
-      <c r="S778" s="54" t="s">
-        <v>2150</v>
       </c>
       <c r="X778" s="30" t="s">
         <v>482</v>
@@ -70487,7 +70481,7 @@
         <v>1554</v>
       </c>
       <c r="K779" s="30" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="M779" s="30">
         <v>-31</v>
@@ -70505,10 +70499,10 @@
         <v>4800</v>
       </c>
       <c r="R779" s="30" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="S779" s="54" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="X779" s="30" t="s">
         <v>482</v>
@@ -70555,7 +70549,7 @@
         <v>1554</v>
       </c>
       <c r="K780" s="30" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="M780" s="30">
         <v>-31</v>
@@ -70573,10 +70567,10 @@
         <v>9600</v>
       </c>
       <c r="R780" s="30" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="S780" s="54" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="X780" s="30" t="s">
         <v>482</v>
@@ -70623,7 +70617,7 @@
         <v>1561</v>
       </c>
       <c r="K781" s="30" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="M781" s="30">
         <v>-31</v>
@@ -70641,10 +70635,10 @@
         <v>4800</v>
       </c>
       <c r="R781" s="30" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="S781" s="54" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="X781" s="30" t="s">
         <v>482</v>
@@ -70691,7 +70685,7 @@
         <v>1561</v>
       </c>
       <c r="K782" s="30" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="M782" s="30">
         <v>-31</v>
@@ -70709,10 +70703,10 @@
         <v>9800</v>
       </c>
       <c r="R782" s="30" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="S782" s="54" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="X782" s="30" t="s">
         <v>482</v>
@@ -70759,7 +70753,7 @@
         <v>1561</v>
       </c>
       <c r="K783" s="30" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="M783" s="30">
         <v>-31</v>
@@ -70777,10 +70771,10 @@
         <v>19800</v>
       </c>
       <c r="R783" s="30" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="S783" s="54" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="X783" s="30" t="s">
         <v>482</v>
@@ -70827,7 +70821,7 @@
         <v>1561</v>
       </c>
       <c r="K784" s="30" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="M784" s="30">
         <v>-31</v>
@@ -70845,10 +70839,10 @@
         <v>34400</v>
       </c>
       <c r="R784" s="30" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="S784" s="54" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="X784" s="30" t="s">
         <v>482</v>
@@ -70895,7 +70889,7 @@
         <v>1450</v>
       </c>
       <c r="K785" s="30" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="M785" s="30">
         <v>-31</v>
@@ -70913,10 +70907,10 @@
         <v>9800</v>
       </c>
       <c r="R785" s="30" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="S785" s="54" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="X785" s="30" t="s">
         <v>482</v>
@@ -70963,7 +70957,7 @@
         <v>1450</v>
       </c>
       <c r="K786" s="30" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="M786" s="30">
         <v>-31</v>
@@ -70981,10 +70975,10 @@
         <v>19800</v>
       </c>
       <c r="R786" s="30" t="s">
+        <v>2162</v>
+      </c>
+      <c r="S786" s="54" t="s">
         <v>2165</v>
-      </c>
-      <c r="S786" s="54" t="s">
-        <v>2168</v>
       </c>
       <c r="X786" s="30" t="s">
         <v>482</v>
@@ -71031,7 +71025,7 @@
         <v>1450</v>
       </c>
       <c r="K787" s="30" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="M787" s="30">
         <v>-31</v>
@@ -71049,10 +71043,10 @@
         <v>49800</v>
       </c>
       <c r="R787" s="30" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="S787" s="54" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="X787" s="30" t="s">
         <v>482</v>
@@ -71099,7 +71093,7 @@
         <v>1450</v>
       </c>
       <c r="K788" s="30" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="M788" s="30">
         <v>-31</v>
@@ -71117,10 +71111,10 @@
         <v>79400</v>
       </c>
       <c r="R788" s="30" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="S788" s="54" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="X788" s="30" t="s">
         <v>482</v>
